--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4CAF70-AE05-48E7-B093-6F82834EC611}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="107">
   <si>
     <t>SEMANA</t>
   </si>
@@ -352,6 +352,12 @@
   <si>
     <t>CTVV 2570 - LOTE 23 MANZANA 60 - EDSON MADRIGAL</t>
   </si>
+  <si>
+    <t>CTVV 3066</t>
+  </si>
+  <si>
+    <t>CTVV 3066 - Cambio de Tono Casas Muestra Veronesa - Constructora H y G</t>
+  </si>
 </sst>
 </file>
 
@@ -424,8 +430,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V525" totalsRowShown="0">
-  <autoFilter ref="A1:V525" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V585" totalsRowShown="0">
+  <autoFilter ref="A1:V585" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -771,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V525"/>
+  <dimension ref="A1:V585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23952,10 +23958,2627 @@
         <v>649.99799999999993</v>
       </c>
     </row>
+    <row r="526" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A526">
+        <v>24</v>
+      </c>
+      <c r="C526" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D526" t="s">
+        <v>29</v>
+      </c>
+      <c r="E526" t="s">
+        <v>84</v>
+      </c>
+      <c r="F526" t="s">
+        <v>85</v>
+      </c>
+      <c r="I526" s="2">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>0.5</v>
+      </c>
+      <c r="K526">
+        <v>150</v>
+      </c>
+      <c r="L526" s="2">
+        <v>75</v>
+      </c>
+      <c r="O526" s="2">
+        <v>0</v>
+      </c>
+      <c r="P526" s="2">
+        <v>75</v>
+      </c>
+      <c r="S526" s="2">
+        <v>75</v>
+      </c>
+      <c r="U526" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="527" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A527">
+        <v>24</v>
+      </c>
+      <c r="C527" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D527" t="s">
+        <v>29</v>
+      </c>
+      <c r="E527" t="s">
+        <v>84</v>
+      </c>
+      <c r="F527" t="s">
+        <v>85</v>
+      </c>
+      <c r="I527" s="2">
+        <v>0</v>
+      </c>
+      <c r="J527">
+        <v>0.5</v>
+      </c>
+      <c r="K527">
+        <v>150</v>
+      </c>
+      <c r="L527" s="2">
+        <v>75</v>
+      </c>
+      <c r="O527" s="2">
+        <v>0</v>
+      </c>
+      <c r="P527" s="2">
+        <v>75</v>
+      </c>
+      <c r="S527" s="2">
+        <v>75</v>
+      </c>
+      <c r="U527" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="528" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A528">
+        <v>24</v>
+      </c>
+      <c r="C528" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D528" t="s">
+        <v>29</v>
+      </c>
+      <c r="E528" t="s">
+        <v>84</v>
+      </c>
+      <c r="F528" t="s">
+        <v>85</v>
+      </c>
+      <c r="I528" s="2">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>1</v>
+      </c>
+      <c r="K528">
+        <v>150</v>
+      </c>
+      <c r="L528" s="2">
+        <v>150</v>
+      </c>
+      <c r="O528" s="2">
+        <v>0</v>
+      </c>
+      <c r="P528" s="2">
+        <v>150</v>
+      </c>
+      <c r="S528" s="2">
+        <v>150</v>
+      </c>
+      <c r="U528" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="529" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A529">
+        <v>24</v>
+      </c>
+      <c r="C529" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D529" t="s">
+        <v>29</v>
+      </c>
+      <c r="E529" t="s">
+        <v>84</v>
+      </c>
+      <c r="F529" t="s">
+        <v>85</v>
+      </c>
+      <c r="I529" s="2">
+        <v>0</v>
+      </c>
+      <c r="J529">
+        <v>1</v>
+      </c>
+      <c r="K529">
+        <v>150</v>
+      </c>
+      <c r="L529" s="2">
+        <v>150</v>
+      </c>
+      <c r="O529" s="2">
+        <v>0</v>
+      </c>
+      <c r="P529" s="2">
+        <v>150</v>
+      </c>
+      <c r="S529" s="2">
+        <v>150</v>
+      </c>
+      <c r="U529" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="530" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A530">
+        <v>24</v>
+      </c>
+      <c r="C530" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D530" t="s">
+        <v>29</v>
+      </c>
+      <c r="E530" t="s">
+        <v>84</v>
+      </c>
+      <c r="F530" t="s">
+        <v>85</v>
+      </c>
+      <c r="I530" s="2">
+        <v>0</v>
+      </c>
+      <c r="J530">
+        <v>1</v>
+      </c>
+      <c r="K530">
+        <v>150</v>
+      </c>
+      <c r="L530" s="2">
+        <v>150</v>
+      </c>
+      <c r="O530" s="2">
+        <v>0</v>
+      </c>
+      <c r="P530" s="2">
+        <v>150</v>
+      </c>
+      <c r="S530" s="2">
+        <v>150</v>
+      </c>
+      <c r="U530" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="531" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A531">
+        <v>24</v>
+      </c>
+      <c r="C531" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D531" t="s">
+        <v>53</v>
+      </c>
+      <c r="E531" t="s">
+        <v>99</v>
+      </c>
+      <c r="F531" t="s">
+        <v>100</v>
+      </c>
+      <c r="I531" s="2">
+        <v>0</v>
+      </c>
+      <c r="J531">
+        <v>1</v>
+      </c>
+      <c r="K531">
+        <v>200</v>
+      </c>
+      <c r="L531" s="2">
+        <v>200</v>
+      </c>
+      <c r="O531" s="2">
+        <v>0</v>
+      </c>
+      <c r="P531" s="2">
+        <v>200</v>
+      </c>
+      <c r="S531" s="2">
+        <v>200</v>
+      </c>
+      <c r="U531" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="532" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A532">
+        <v>24</v>
+      </c>
+      <c r="C532" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D532" t="s">
+        <v>53</v>
+      </c>
+      <c r="E532" t="s">
+        <v>99</v>
+      </c>
+      <c r="F532" t="s">
+        <v>100</v>
+      </c>
+      <c r="I532" s="2">
+        <v>0</v>
+      </c>
+      <c r="J532">
+        <v>1</v>
+      </c>
+      <c r="K532">
+        <v>200</v>
+      </c>
+      <c r="L532" s="2">
+        <v>200</v>
+      </c>
+      <c r="O532" s="2">
+        <v>0</v>
+      </c>
+      <c r="P532" s="2">
+        <v>200</v>
+      </c>
+      <c r="S532" s="2">
+        <v>200</v>
+      </c>
+      <c r="U532" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="533" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A533">
+        <v>24</v>
+      </c>
+      <c r="C533" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D533" t="s">
+        <v>53</v>
+      </c>
+      <c r="E533" t="s">
+        <v>99</v>
+      </c>
+      <c r="F533" t="s">
+        <v>100</v>
+      </c>
+      <c r="I533" s="2">
+        <v>0</v>
+      </c>
+      <c r="J533">
+        <v>1</v>
+      </c>
+      <c r="K533">
+        <v>200</v>
+      </c>
+      <c r="L533" s="2">
+        <v>200</v>
+      </c>
+      <c r="O533" s="2">
+        <v>0</v>
+      </c>
+      <c r="P533" s="2">
+        <v>200</v>
+      </c>
+      <c r="S533" s="2">
+        <v>200</v>
+      </c>
+      <c r="U533" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="534" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A534">
+        <v>24</v>
+      </c>
+      <c r="C534" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D534" t="s">
+        <v>41</v>
+      </c>
+      <c r="E534" t="s">
+        <v>105</v>
+      </c>
+      <c r="F534" t="s">
+        <v>106</v>
+      </c>
+      <c r="I534" s="2">
+        <v>0</v>
+      </c>
+      <c r="L534" s="2">
+        <v>0</v>
+      </c>
+      <c r="M534">
+        <v>1</v>
+      </c>
+      <c r="N534">
+        <v>1083.33</v>
+      </c>
+      <c r="O534" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P534" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="S534" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="U534" s="2">
+        <v>1083.33</v>
+      </c>
+    </row>
+    <row r="535" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A535">
+        <v>24</v>
+      </c>
+      <c r="C535" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D535" t="s">
+        <v>29</v>
+      </c>
+      <c r="E535" t="s">
+        <v>105</v>
+      </c>
+      <c r="F535" t="s">
+        <v>106</v>
+      </c>
+      <c r="I535" s="2">
+        <v>0</v>
+      </c>
+      <c r="L535" s="2">
+        <v>0</v>
+      </c>
+      <c r="M535">
+        <v>2</v>
+      </c>
+      <c r="N535">
+        <v>750</v>
+      </c>
+      <c r="O535" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P535" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Q535" s="2">
+        <v>200</v>
+      </c>
+      <c r="S535" s="2">
+        <v>1700</v>
+      </c>
+      <c r="U535" s="2">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="536" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A536">
+        <v>24</v>
+      </c>
+      <c r="C536" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D536" t="s">
+        <v>59</v>
+      </c>
+      <c r="E536" t="s">
+        <v>105</v>
+      </c>
+      <c r="F536" t="s">
+        <v>106</v>
+      </c>
+      <c r="I536" s="2">
+        <v>0</v>
+      </c>
+      <c r="L536" s="2">
+        <v>0</v>
+      </c>
+      <c r="M536">
+        <v>2</v>
+      </c>
+      <c r="N536">
+        <v>750</v>
+      </c>
+      <c r="O536" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P536" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S536" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U536" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="537" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A537">
+        <v>24</v>
+      </c>
+      <c r="C537" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D537" t="s">
+        <v>48</v>
+      </c>
+      <c r="E537" t="s">
+        <v>101</v>
+      </c>
+      <c r="F537" t="s">
+        <v>102</v>
+      </c>
+      <c r="G537">
+        <v>0.6</v>
+      </c>
+      <c r="H537">
+        <v>400</v>
+      </c>
+      <c r="I537" s="2">
+        <v>240</v>
+      </c>
+      <c r="J537">
+        <v>1</v>
+      </c>
+      <c r="K537">
+        <v>200</v>
+      </c>
+      <c r="L537" s="2">
+        <v>200</v>
+      </c>
+      <c r="O537" s="2">
+        <v>0</v>
+      </c>
+      <c r="P537" s="2">
+        <v>440</v>
+      </c>
+      <c r="S537" s="2">
+        <v>440</v>
+      </c>
+      <c r="U537" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="538" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A538">
+        <v>24</v>
+      </c>
+      <c r="C538" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D538" t="s">
+        <v>48</v>
+      </c>
+      <c r="E538" t="s">
+        <v>101</v>
+      </c>
+      <c r="F538" t="s">
+        <v>102</v>
+      </c>
+      <c r="G538">
+        <v>4.24</v>
+      </c>
+      <c r="H538">
+        <v>700</v>
+      </c>
+      <c r="I538" s="2">
+        <v>2968</v>
+      </c>
+      <c r="J538">
+        <v>1</v>
+      </c>
+      <c r="K538">
+        <v>250</v>
+      </c>
+      <c r="L538" s="2">
+        <v>250</v>
+      </c>
+      <c r="O538" s="2">
+        <v>0</v>
+      </c>
+      <c r="P538" s="2">
+        <v>3218</v>
+      </c>
+      <c r="Q538" s="2">
+        <v>400</v>
+      </c>
+      <c r="S538" s="2">
+        <v>3618</v>
+      </c>
+      <c r="U538" s="2">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="539" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A539">
+        <v>24</v>
+      </c>
+      <c r="C539" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D539" t="s">
+        <v>63</v>
+      </c>
+      <c r="E539" t="s">
+        <v>101</v>
+      </c>
+      <c r="F539" t="s">
+        <v>102</v>
+      </c>
+      <c r="G539">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H539">
+        <v>700</v>
+      </c>
+      <c r="I539" s="2">
+        <v>1770.9999999999998</v>
+      </c>
+      <c r="J539">
+        <v>3.2</v>
+      </c>
+      <c r="K539">
+        <v>700</v>
+      </c>
+      <c r="L539" s="2">
+        <v>2240</v>
+      </c>
+      <c r="O539" s="2">
+        <v>0</v>
+      </c>
+      <c r="P539" s="2">
+        <v>4011</v>
+      </c>
+      <c r="Q539" s="2">
+        <v>100</v>
+      </c>
+      <c r="S539" s="2">
+        <v>4111</v>
+      </c>
+      <c r="U539" s="2">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="540" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A540">
+        <v>24</v>
+      </c>
+      <c r="C540" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D540" t="s">
+        <v>81</v>
+      </c>
+      <c r="E540" t="s">
+        <v>101</v>
+      </c>
+      <c r="F540" t="s">
+        <v>102</v>
+      </c>
+      <c r="G540">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="H540">
+        <v>700</v>
+      </c>
+      <c r="I540" s="2">
+        <v>1599.5</v>
+      </c>
+      <c r="J540">
+        <v>1</v>
+      </c>
+      <c r="K540">
+        <v>700</v>
+      </c>
+      <c r="L540" s="2">
+        <v>700</v>
+      </c>
+      <c r="O540" s="2">
+        <v>0</v>
+      </c>
+      <c r="P540" s="2">
+        <v>2299.5</v>
+      </c>
+      <c r="S540" s="2">
+        <v>2299.5</v>
+      </c>
+      <c r="U540" s="2">
+        <v>2299.5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A541">
+        <v>24</v>
+      </c>
+      <c r="C541" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D541" t="s">
+        <v>81</v>
+      </c>
+      <c r="E541" t="s">
+        <v>101</v>
+      </c>
+      <c r="F541" t="s">
+        <v>102</v>
+      </c>
+      <c r="I541" s="2">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>0.2</v>
+      </c>
+      <c r="K541">
+        <v>1600</v>
+      </c>
+      <c r="L541" s="2">
+        <v>320</v>
+      </c>
+      <c r="O541" s="2">
+        <v>0</v>
+      </c>
+      <c r="P541" s="2">
+        <v>320</v>
+      </c>
+      <c r="S541" s="2">
+        <v>320</v>
+      </c>
+      <c r="U541" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="542" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A542">
+        <v>24</v>
+      </c>
+      <c r="C542" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D542" t="s">
+        <v>81</v>
+      </c>
+      <c r="E542" t="s">
+        <v>101</v>
+      </c>
+      <c r="F542" t="s">
+        <v>102</v>
+      </c>
+      <c r="I542" s="2">
+        <v>0</v>
+      </c>
+      <c r="J542">
+        <v>1</v>
+      </c>
+      <c r="K542">
+        <v>700</v>
+      </c>
+      <c r="L542" s="2">
+        <v>700</v>
+      </c>
+      <c r="O542" s="2">
+        <v>0</v>
+      </c>
+      <c r="P542" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q542" s="2">
+        <v>400</v>
+      </c>
+      <c r="S542" s="2">
+        <v>1100</v>
+      </c>
+      <c r="U542" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="543" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A543">
+        <v>24</v>
+      </c>
+      <c r="C543" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D543" t="s">
+        <v>44</v>
+      </c>
+      <c r="E543" t="s">
+        <v>39</v>
+      </c>
+      <c r="F543" t="s">
+        <v>40</v>
+      </c>
+      <c r="I543" s="2">
+        <v>0</v>
+      </c>
+      <c r="J543">
+        <v>1</v>
+      </c>
+      <c r="K543">
+        <v>500</v>
+      </c>
+      <c r="L543" s="2">
+        <v>500</v>
+      </c>
+      <c r="M543">
+        <v>0.75</v>
+      </c>
+      <c r="N543">
+        <v>1083.33</v>
+      </c>
+      <c r="O543" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P543" s="2">
+        <v>1312.4974999999999</v>
+      </c>
+      <c r="S543" s="2">
+        <v>1312.4974999999999</v>
+      </c>
+      <c r="U543" s="2">
+        <v>1312.4974999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A544">
+        <v>24</v>
+      </c>
+      <c r="C544" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D544" t="s">
+        <v>44</v>
+      </c>
+      <c r="E544" t="s">
+        <v>39</v>
+      </c>
+      <c r="F544" t="s">
+        <v>40</v>
+      </c>
+      <c r="I544" s="2">
+        <v>0</v>
+      </c>
+      <c r="J544">
+        <v>2</v>
+      </c>
+      <c r="K544">
+        <v>100</v>
+      </c>
+      <c r="L544" s="2">
+        <v>200</v>
+      </c>
+      <c r="M544">
+        <v>0.5</v>
+      </c>
+      <c r="N544">
+        <v>1083.33</v>
+      </c>
+      <c r="O544" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P544" s="2">
+        <v>741.66499999999996</v>
+      </c>
+      <c r="S544" s="2">
+        <v>741.66499999999996</v>
+      </c>
+      <c r="U544" s="2">
+        <v>741.66499999999996</v>
+      </c>
+    </row>
+    <row r="545" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A545">
+        <v>24</v>
+      </c>
+      <c r="C545" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D545" t="s">
+        <v>44</v>
+      </c>
+      <c r="E545" t="s">
+        <v>39</v>
+      </c>
+      <c r="F545" t="s">
+        <v>40</v>
+      </c>
+      <c r="I545" s="2">
+        <v>0</v>
+      </c>
+      <c r="L545" s="2">
+        <v>0</v>
+      </c>
+      <c r="M545">
+        <v>0.2</v>
+      </c>
+      <c r="N545">
+        <v>1083.33</v>
+      </c>
+      <c r="O545" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="P545" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="S545" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="U545" s="2">
+        <v>216.666</v>
+      </c>
+    </row>
+    <row r="546" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A546">
+        <v>24</v>
+      </c>
+      <c r="C546" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D546" t="s">
+        <v>44</v>
+      </c>
+      <c r="E546" t="s">
+        <v>39</v>
+      </c>
+      <c r="F546" t="s">
+        <v>40</v>
+      </c>
+      <c r="I546" s="2">
+        <v>0</v>
+      </c>
+      <c r="L546" s="2">
+        <v>0</v>
+      </c>
+      <c r="M546">
+        <v>0.2</v>
+      </c>
+      <c r="N546">
+        <v>1083.33</v>
+      </c>
+      <c r="O546" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="P546" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="S546" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="U546" s="2">
+        <v>216.666</v>
+      </c>
+    </row>
+    <row r="547" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A547">
+        <v>24</v>
+      </c>
+      <c r="C547" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D547" t="s">
+        <v>44</v>
+      </c>
+      <c r="E547" t="s">
+        <v>39</v>
+      </c>
+      <c r="F547" t="s">
+        <v>40</v>
+      </c>
+      <c r="I547" s="2">
+        <v>0</v>
+      </c>
+      <c r="L547" s="2">
+        <v>0</v>
+      </c>
+      <c r="M547">
+        <v>0.5</v>
+      </c>
+      <c r="N547">
+        <v>1083.33</v>
+      </c>
+      <c r="O547" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P547" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="Q547" s="2">
+        <v>500</v>
+      </c>
+      <c r="S547" s="2">
+        <v>1041.665</v>
+      </c>
+      <c r="U547" s="2">
+        <v>1041.665</v>
+      </c>
+    </row>
+    <row r="548" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A548">
+        <v>24</v>
+      </c>
+      <c r="C548" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D548" t="s">
+        <v>78</v>
+      </c>
+      <c r="E548" t="s">
+        <v>79</v>
+      </c>
+      <c r="F548" t="s">
+        <v>80</v>
+      </c>
+      <c r="G548">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="H548">
+        <v>700</v>
+      </c>
+      <c r="I548" s="2">
+        <v>907.9</v>
+      </c>
+      <c r="L548" s="2">
+        <v>0</v>
+      </c>
+      <c r="M548">
+        <v>0.35</v>
+      </c>
+      <c r="N548">
+        <v>1083.33</v>
+      </c>
+      <c r="O548" s="2">
+        <v>379.16549999999995</v>
+      </c>
+      <c r="P548" s="2">
+        <v>1287.0654999999999</v>
+      </c>
+      <c r="S548" s="2">
+        <v>1287.0654999999999</v>
+      </c>
+      <c r="U548" s="2">
+        <v>1287.0654999999999</v>
+      </c>
+    </row>
+    <row r="549" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A549">
+        <v>24</v>
+      </c>
+      <c r="C549" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D549" t="s">
+        <v>78</v>
+      </c>
+      <c r="E549" t="s">
+        <v>79</v>
+      </c>
+      <c r="F549" t="s">
+        <v>80</v>
+      </c>
+      <c r="I549" s="2">
+        <v>0</v>
+      </c>
+      <c r="L549" s="2">
+        <v>0</v>
+      </c>
+      <c r="M549">
+        <v>0.5</v>
+      </c>
+      <c r="N549">
+        <v>1083.33</v>
+      </c>
+      <c r="O549" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P549" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="S549" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="U549" s="2">
+        <v>541.66499999999996</v>
+      </c>
+    </row>
+    <row r="550" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A550">
+        <v>24</v>
+      </c>
+      <c r="C550" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D550" t="s">
+        <v>78</v>
+      </c>
+      <c r="E550" t="s">
+        <v>79</v>
+      </c>
+      <c r="F550" t="s">
+        <v>80</v>
+      </c>
+      <c r="I550" s="2">
+        <v>0</v>
+      </c>
+      <c r="L550" s="2">
+        <v>0</v>
+      </c>
+      <c r="M550">
+        <v>0.75</v>
+      </c>
+      <c r="N550">
+        <v>1083.33</v>
+      </c>
+      <c r="O550" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P550" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="Q550" s="2">
+        <v>400</v>
+      </c>
+      <c r="S550" s="2">
+        <v>1212.4974999999999</v>
+      </c>
+      <c r="U550" s="2">
+        <v>1212.4974999999999</v>
+      </c>
+    </row>
+    <row r="551" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A551">
+        <v>24</v>
+      </c>
+      <c r="C551" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D551" t="s">
+        <v>45</v>
+      </c>
+      <c r="E551" t="s">
+        <v>79</v>
+      </c>
+      <c r="F551" t="s">
+        <v>80</v>
+      </c>
+      <c r="I551" s="2">
+        <v>0</v>
+      </c>
+      <c r="J551">
+        <v>1</v>
+      </c>
+      <c r="K551">
+        <v>500</v>
+      </c>
+      <c r="L551" s="2">
+        <v>500</v>
+      </c>
+      <c r="M551">
+        <v>0.5</v>
+      </c>
+      <c r="N551">
+        <v>1083.33</v>
+      </c>
+      <c r="O551" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P551" s="2">
+        <v>1041.665</v>
+      </c>
+      <c r="S551" s="2">
+        <v>1041.665</v>
+      </c>
+      <c r="U551" s="2">
+        <v>1041.665</v>
+      </c>
+    </row>
+    <row r="552" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A552">
+        <v>24</v>
+      </c>
+      <c r="C552" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D552" t="s">
+        <v>45</v>
+      </c>
+      <c r="E552" t="s">
+        <v>79</v>
+      </c>
+      <c r="F552" t="s">
+        <v>80</v>
+      </c>
+      <c r="I552" s="2">
+        <v>0</v>
+      </c>
+      <c r="L552" s="2">
+        <v>0</v>
+      </c>
+      <c r="M552">
+        <v>0.75</v>
+      </c>
+      <c r="N552">
+        <v>1083.33</v>
+      </c>
+      <c r="O552" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P552" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="S552" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="U552" s="2">
+        <v>812.49749999999995</v>
+      </c>
+    </row>
+    <row r="553" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A553">
+        <v>24</v>
+      </c>
+      <c r="C553" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D553" t="s">
+        <v>45</v>
+      </c>
+      <c r="E553" t="s">
+        <v>79</v>
+      </c>
+      <c r="F553" t="s">
+        <v>80</v>
+      </c>
+      <c r="I553" s="2">
+        <v>0</v>
+      </c>
+      <c r="L553" s="2">
+        <v>0</v>
+      </c>
+      <c r="M553">
+        <v>0.5</v>
+      </c>
+      <c r="N553">
+        <v>1083.33</v>
+      </c>
+      <c r="O553" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P553" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="Q553" s="2">
+        <v>300</v>
+      </c>
+      <c r="S553" s="2">
+        <v>841.66499999999996</v>
+      </c>
+      <c r="U553" s="2">
+        <v>841.66499999999996</v>
+      </c>
+    </row>
+    <row r="554" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A554">
+        <v>24</v>
+      </c>
+      <c r="C554" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D554" t="s">
+        <v>56</v>
+      </c>
+      <c r="E554" t="s">
+        <v>76</v>
+      </c>
+      <c r="F554" t="s">
+        <v>77</v>
+      </c>
+      <c r="I554" s="2">
+        <v>0</v>
+      </c>
+      <c r="J554">
+        <v>1</v>
+      </c>
+      <c r="K554">
+        <v>500</v>
+      </c>
+      <c r="L554" s="2">
+        <v>500</v>
+      </c>
+      <c r="M554">
+        <v>0.5</v>
+      </c>
+      <c r="N554">
+        <v>1083.33</v>
+      </c>
+      <c r="O554" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P554" s="2">
+        <v>1041.665</v>
+      </c>
+      <c r="S554" s="2">
+        <v>1041.665</v>
+      </c>
+      <c r="U554" s="2">
+        <v>1041.665</v>
+      </c>
+    </row>
+    <row r="555" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A555">
+        <v>24</v>
+      </c>
+      <c r="C555" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D555" t="s">
+        <v>56</v>
+      </c>
+      <c r="E555" t="s">
+        <v>76</v>
+      </c>
+      <c r="F555" t="s">
+        <v>77</v>
+      </c>
+      <c r="I555" s="2">
+        <v>0</v>
+      </c>
+      <c r="J555">
+        <v>1</v>
+      </c>
+      <c r="K555">
+        <v>600</v>
+      </c>
+      <c r="L555" s="2">
+        <v>600</v>
+      </c>
+      <c r="M555">
+        <v>0.35</v>
+      </c>
+      <c r="N555">
+        <v>1083.33</v>
+      </c>
+      <c r="O555" s="2">
+        <v>379.16549999999995</v>
+      </c>
+      <c r="P555" s="2">
+        <v>979.16549999999995</v>
+      </c>
+      <c r="S555" s="2">
+        <v>979.16549999999995</v>
+      </c>
+      <c r="U555" s="2">
+        <v>979.16549999999995</v>
+      </c>
+    </row>
+    <row r="556" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A556">
+        <v>24</v>
+      </c>
+      <c r="C556" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D556" t="s">
+        <v>56</v>
+      </c>
+      <c r="E556" t="s">
+        <v>76</v>
+      </c>
+      <c r="F556" t="s">
+        <v>77</v>
+      </c>
+      <c r="I556" s="2">
+        <v>0</v>
+      </c>
+      <c r="J556">
+        <v>1</v>
+      </c>
+      <c r="K556">
+        <v>500</v>
+      </c>
+      <c r="L556" s="2">
+        <v>500</v>
+      </c>
+      <c r="O556" s="2">
+        <v>0</v>
+      </c>
+      <c r="P556" s="2">
+        <v>500</v>
+      </c>
+      <c r="S556" s="2">
+        <v>500</v>
+      </c>
+      <c r="U556" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="557" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A557">
+        <v>24</v>
+      </c>
+      <c r="C557" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D557" t="s">
+        <v>56</v>
+      </c>
+      <c r="E557" t="s">
+        <v>76</v>
+      </c>
+      <c r="F557" t="s">
+        <v>77</v>
+      </c>
+      <c r="I557" s="2">
+        <v>0</v>
+      </c>
+      <c r="J557">
+        <v>1</v>
+      </c>
+      <c r="K557">
+        <v>350</v>
+      </c>
+      <c r="L557" s="2">
+        <v>350</v>
+      </c>
+      <c r="O557" s="2">
+        <v>0</v>
+      </c>
+      <c r="P557" s="2">
+        <v>350</v>
+      </c>
+      <c r="S557" s="2">
+        <v>350</v>
+      </c>
+      <c r="U557" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="558" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A558">
+        <v>24</v>
+      </c>
+      <c r="C558" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D558" t="s">
+        <v>56</v>
+      </c>
+      <c r="E558" t="s">
+        <v>76</v>
+      </c>
+      <c r="F558" t="s">
+        <v>77</v>
+      </c>
+      <c r="I558" s="2">
+        <v>0</v>
+      </c>
+      <c r="J558">
+        <v>1</v>
+      </c>
+      <c r="K558">
+        <v>350</v>
+      </c>
+      <c r="L558" s="2">
+        <v>350</v>
+      </c>
+      <c r="O558" s="2">
+        <v>0</v>
+      </c>
+      <c r="P558" s="2">
+        <v>350</v>
+      </c>
+      <c r="S558" s="2">
+        <v>350</v>
+      </c>
+      <c r="U558" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="559" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A559">
+        <v>24</v>
+      </c>
+      <c r="C559" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D559" t="s">
+        <v>56</v>
+      </c>
+      <c r="E559" t="s">
+        <v>76</v>
+      </c>
+      <c r="F559" t="s">
+        <v>77</v>
+      </c>
+      <c r="I559" s="2">
+        <v>0</v>
+      </c>
+      <c r="J559">
+        <v>1</v>
+      </c>
+      <c r="K559">
+        <v>900</v>
+      </c>
+      <c r="L559" s="2">
+        <v>900</v>
+      </c>
+      <c r="O559" s="2">
+        <v>0</v>
+      </c>
+      <c r="P559" s="2">
+        <v>900</v>
+      </c>
+      <c r="Q559" s="2">
+        <v>500</v>
+      </c>
+      <c r="S559" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U559" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="560" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A560">
+        <v>24</v>
+      </c>
+      <c r="C560" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D560" t="s">
+        <v>38</v>
+      </c>
+      <c r="E560" t="s">
+        <v>39</v>
+      </c>
+      <c r="F560" t="s">
+        <v>40</v>
+      </c>
+      <c r="I560" s="2">
+        <v>0</v>
+      </c>
+      <c r="J560">
+        <v>1</v>
+      </c>
+      <c r="K560">
+        <v>200</v>
+      </c>
+      <c r="L560" s="2">
+        <v>200</v>
+      </c>
+      <c r="M560">
+        <v>0.5</v>
+      </c>
+      <c r="N560">
+        <v>1083.33</v>
+      </c>
+      <c r="O560" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P560" s="2">
+        <v>741.66499999999996</v>
+      </c>
+      <c r="S560" s="2">
+        <v>741.66499999999996</v>
+      </c>
+      <c r="U560" s="2">
+        <v>741.66499999999996</v>
+      </c>
+    </row>
+    <row r="561" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A561">
+        <v>24</v>
+      </c>
+      <c r="C561" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D561" t="s">
+        <v>38</v>
+      </c>
+      <c r="E561" t="s">
+        <v>39</v>
+      </c>
+      <c r="F561" t="s">
+        <v>40</v>
+      </c>
+      <c r="I561" s="2">
+        <v>0</v>
+      </c>
+      <c r="L561" s="2">
+        <v>0</v>
+      </c>
+      <c r="M561">
+        <v>0.65</v>
+      </c>
+      <c r="N561">
+        <v>1083.33</v>
+      </c>
+      <c r="O561" s="2">
+        <v>704.16449999999998</v>
+      </c>
+      <c r="P561" s="2">
+        <v>704.16449999999998</v>
+      </c>
+      <c r="S561" s="2">
+        <v>704.16449999999998</v>
+      </c>
+      <c r="U561" s="2">
+        <v>704.16449999999998</v>
+      </c>
+    </row>
+    <row r="562" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A562">
+        <v>24</v>
+      </c>
+      <c r="C562" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D562" t="s">
+        <v>38</v>
+      </c>
+      <c r="E562" t="s">
+        <v>39</v>
+      </c>
+      <c r="F562" t="s">
+        <v>40</v>
+      </c>
+      <c r="I562" s="2">
+        <v>0</v>
+      </c>
+      <c r="L562" s="2">
+        <v>0</v>
+      </c>
+      <c r="M562">
+        <v>0.2</v>
+      </c>
+      <c r="N562">
+        <v>1083.33</v>
+      </c>
+      <c r="O562" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="P562" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="Q562" s="2">
+        <v>300</v>
+      </c>
+      <c r="S562" s="2">
+        <v>516.66599999999994</v>
+      </c>
+      <c r="U562" s="2">
+        <v>516.66599999999994</v>
+      </c>
+    </row>
+    <row r="563" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A563">
+        <v>24</v>
+      </c>
+      <c r="C563" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D563" t="s">
+        <v>34</v>
+      </c>
+      <c r="E563" t="s">
+        <v>95</v>
+      </c>
+      <c r="F563" t="s">
+        <v>96</v>
+      </c>
+      <c r="G563">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H563">
+        <v>700</v>
+      </c>
+      <c r="I563" s="2">
+        <v>3080.0000000000005</v>
+      </c>
+      <c r="J563">
+        <v>1</v>
+      </c>
+      <c r="K563">
+        <v>250</v>
+      </c>
+      <c r="L563" s="2">
+        <v>250</v>
+      </c>
+      <c r="O563" s="2">
+        <v>0</v>
+      </c>
+      <c r="P563" s="2">
+        <v>3330.0000000000005</v>
+      </c>
+      <c r="S563" s="2">
+        <v>3330.0000000000005</v>
+      </c>
+      <c r="U563" s="2">
+        <v>3330.0000000000005</v>
+      </c>
+    </row>
+    <row r="564" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A564">
+        <v>24</v>
+      </c>
+      <c r="C564" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D564" t="s">
+        <v>34</v>
+      </c>
+      <c r="E564" t="s">
+        <v>95</v>
+      </c>
+      <c r="F564" t="s">
+        <v>96</v>
+      </c>
+      <c r="G564">
+        <v>5.75</v>
+      </c>
+      <c r="H564">
+        <v>250</v>
+      </c>
+      <c r="I564" s="2">
+        <v>1437.5</v>
+      </c>
+      <c r="J564">
+        <v>1</v>
+      </c>
+      <c r="K564">
+        <v>250</v>
+      </c>
+      <c r="L564" s="2">
+        <v>250</v>
+      </c>
+      <c r="O564" s="2">
+        <v>0</v>
+      </c>
+      <c r="P564" s="2">
+        <v>1687.5</v>
+      </c>
+      <c r="S564" s="2">
+        <v>1687.5</v>
+      </c>
+      <c r="U564" s="2">
+        <v>1687.5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A565">
+        <v>24</v>
+      </c>
+      <c r="C565" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D565" t="s">
+        <v>34</v>
+      </c>
+      <c r="E565" t="s">
+        <v>95</v>
+      </c>
+      <c r="F565" t="s">
+        <v>96</v>
+      </c>
+      <c r="I565" s="2">
+        <v>0</v>
+      </c>
+      <c r="J565">
+        <v>1</v>
+      </c>
+      <c r="K565">
+        <v>200</v>
+      </c>
+      <c r="L565" s="2">
+        <v>200</v>
+      </c>
+      <c r="O565" s="2">
+        <v>0</v>
+      </c>
+      <c r="P565" s="2">
+        <v>200</v>
+      </c>
+      <c r="S565" s="2">
+        <v>200</v>
+      </c>
+      <c r="U565" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="566" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A566">
+        <v>24</v>
+      </c>
+      <c r="C566" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D566" t="s">
+        <v>34</v>
+      </c>
+      <c r="E566" t="s">
+        <v>95</v>
+      </c>
+      <c r="F566" t="s">
+        <v>96</v>
+      </c>
+      <c r="I566" s="2">
+        <v>0</v>
+      </c>
+      <c r="J566">
+        <v>1</v>
+      </c>
+      <c r="K566">
+        <v>200</v>
+      </c>
+      <c r="L566" s="2">
+        <v>200</v>
+      </c>
+      <c r="O566" s="2">
+        <v>0</v>
+      </c>
+      <c r="P566" s="2">
+        <v>200</v>
+      </c>
+      <c r="S566" s="2">
+        <v>200</v>
+      </c>
+      <c r="U566" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="567" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A567">
+        <v>24</v>
+      </c>
+      <c r="C567" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D567" t="s">
+        <v>34</v>
+      </c>
+      <c r="E567" t="s">
+        <v>95</v>
+      </c>
+      <c r="F567" t="s">
+        <v>96</v>
+      </c>
+      <c r="I567" s="2">
+        <v>0</v>
+      </c>
+      <c r="J567">
+        <v>1</v>
+      </c>
+      <c r="K567">
+        <v>1800</v>
+      </c>
+      <c r="L567" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O567" s="2">
+        <v>0</v>
+      </c>
+      <c r="P567" s="2">
+        <v>1800</v>
+      </c>
+      <c r="Q567" s="2">
+        <v>400</v>
+      </c>
+      <c r="S567" s="2">
+        <v>2200</v>
+      </c>
+      <c r="U567" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="568" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A568">
+        <v>24</v>
+      </c>
+      <c r="C568" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D568" t="s">
+        <v>34</v>
+      </c>
+      <c r="E568" t="s">
+        <v>95</v>
+      </c>
+      <c r="F568" t="s">
+        <v>96</v>
+      </c>
+      <c r="I568" s="2">
+        <v>0</v>
+      </c>
+      <c r="L568" s="2">
+        <v>0</v>
+      </c>
+      <c r="M568">
+        <v>0.1</v>
+      </c>
+      <c r="N568">
+        <v>1083.33</v>
+      </c>
+      <c r="O568" s="2">
+        <v>108.333</v>
+      </c>
+      <c r="P568" s="2">
+        <v>108.333</v>
+      </c>
+      <c r="S568" s="2">
+        <v>108.333</v>
+      </c>
+      <c r="U568" s="2">
+        <v>108.333</v>
+      </c>
+    </row>
+    <row r="569" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A569">
+        <v>24</v>
+      </c>
+      <c r="C569" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D569" t="s">
+        <v>34</v>
+      </c>
+      <c r="E569" t="s">
+        <v>95</v>
+      </c>
+      <c r="F569" t="s">
+        <v>96</v>
+      </c>
+      <c r="G569">
+        <v>5.75</v>
+      </c>
+      <c r="H569">
+        <v>250</v>
+      </c>
+      <c r="I569" s="2">
+        <v>1437.5</v>
+      </c>
+      <c r="J569">
+        <v>1</v>
+      </c>
+      <c r="K569">
+        <v>850</v>
+      </c>
+      <c r="L569" s="2">
+        <v>850</v>
+      </c>
+      <c r="M569">
+        <v>0.1</v>
+      </c>
+      <c r="N569">
+        <v>1083.33</v>
+      </c>
+      <c r="O569" s="2">
+        <v>108.333</v>
+      </c>
+      <c r="P569" s="2">
+        <v>2395.8330000000001</v>
+      </c>
+      <c r="S569" s="2">
+        <v>2395.8330000000001</v>
+      </c>
+      <c r="U569" s="2">
+        <v>2395.8330000000001</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A570">
+        <v>24</v>
+      </c>
+      <c r="C570" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D570" t="s">
+        <v>62</v>
+      </c>
+      <c r="E570" t="s">
+        <v>95</v>
+      </c>
+      <c r="F570" t="s">
+        <v>96</v>
+      </c>
+      <c r="G570">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H570">
+        <v>400</v>
+      </c>
+      <c r="I570" s="2">
+        <v>182.4</v>
+      </c>
+      <c r="J570">
+        <v>1</v>
+      </c>
+      <c r="K570">
+        <v>1800</v>
+      </c>
+      <c r="L570" s="2">
+        <v>1800</v>
+      </c>
+      <c r="M570">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N570">
+        <v>750</v>
+      </c>
+      <c r="O570" s="2">
+        <v>105.00000000000001</v>
+      </c>
+      <c r="P570" s="2">
+        <v>2087.4</v>
+      </c>
+      <c r="S570" s="2">
+        <v>2087.4</v>
+      </c>
+      <c r="U570" s="2">
+        <v>2087.4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A571">
+        <v>24</v>
+      </c>
+      <c r="C571" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D571" t="s">
+        <v>62</v>
+      </c>
+      <c r="E571" t="s">
+        <v>95</v>
+      </c>
+      <c r="F571" t="s">
+        <v>96</v>
+      </c>
+      <c r="G571">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="H571">
+        <v>250</v>
+      </c>
+      <c r="I571" s="2">
+        <v>1436.25</v>
+      </c>
+      <c r="L571" s="2">
+        <v>0</v>
+      </c>
+      <c r="O571" s="2">
+        <v>0</v>
+      </c>
+      <c r="P571" s="2">
+        <v>1436.25</v>
+      </c>
+      <c r="Q571" s="2">
+        <v>500</v>
+      </c>
+      <c r="S571" s="2">
+        <v>1936.25</v>
+      </c>
+      <c r="U571" s="2">
+        <v>1936.25</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A572">
+        <v>24</v>
+      </c>
+      <c r="C572" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D572" t="s">
+        <v>37</v>
+      </c>
+      <c r="E572" t="s">
+        <v>95</v>
+      </c>
+      <c r="F572" t="s">
+        <v>96</v>
+      </c>
+      <c r="G572">
+        <v>3.44</v>
+      </c>
+      <c r="H572">
+        <v>250</v>
+      </c>
+      <c r="I572" s="2">
+        <v>860</v>
+      </c>
+      <c r="L572" s="2">
+        <v>0</v>
+      </c>
+      <c r="O572" s="2">
+        <v>0</v>
+      </c>
+      <c r="P572" s="2">
+        <v>860</v>
+      </c>
+      <c r="Q572" s="2">
+        <v>500</v>
+      </c>
+      <c r="S572" s="2">
+        <v>1360</v>
+      </c>
+      <c r="U572" s="2">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="573" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A573">
+        <v>24</v>
+      </c>
+      <c r="C573" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D573" t="s">
+        <v>37</v>
+      </c>
+      <c r="E573" t="s">
+        <v>95</v>
+      </c>
+      <c r="F573" t="s">
+        <v>96</v>
+      </c>
+      <c r="G573">
+        <v>11.49</v>
+      </c>
+      <c r="H573">
+        <v>250</v>
+      </c>
+      <c r="I573" s="2">
+        <v>2872.5</v>
+      </c>
+      <c r="J573">
+        <v>1</v>
+      </c>
+      <c r="K573">
+        <v>750</v>
+      </c>
+      <c r="L573" s="2">
+        <v>750</v>
+      </c>
+      <c r="O573" s="2">
+        <v>0</v>
+      </c>
+      <c r="P573" s="2">
+        <v>3622.5</v>
+      </c>
+      <c r="S573" s="2">
+        <v>3622.5</v>
+      </c>
+      <c r="U573" s="2">
+        <v>3622.5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A574">
+        <v>24</v>
+      </c>
+      <c r="C574" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D574" t="s">
+        <v>37</v>
+      </c>
+      <c r="E574" t="s">
+        <v>95</v>
+      </c>
+      <c r="F574" t="s">
+        <v>96</v>
+      </c>
+      <c r="I574" s="2">
+        <v>0</v>
+      </c>
+      <c r="J574">
+        <v>1</v>
+      </c>
+      <c r="K574">
+        <v>850</v>
+      </c>
+      <c r="L574" s="2">
+        <v>850</v>
+      </c>
+      <c r="O574" s="2">
+        <v>0</v>
+      </c>
+      <c r="P574" s="2">
+        <v>850</v>
+      </c>
+      <c r="S574" s="2">
+        <v>850</v>
+      </c>
+      <c r="U574" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="575" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A575">
+        <v>24</v>
+      </c>
+      <c r="C575" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D575" t="s">
+        <v>37</v>
+      </c>
+      <c r="E575" t="s">
+        <v>95</v>
+      </c>
+      <c r="F575" t="s">
+        <v>96</v>
+      </c>
+      <c r="I575" s="2">
+        <v>0</v>
+      </c>
+      <c r="J575">
+        <v>1</v>
+      </c>
+      <c r="K575">
+        <v>1800</v>
+      </c>
+      <c r="L575" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O575" s="2">
+        <v>0</v>
+      </c>
+      <c r="P575" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S575" s="2">
+        <v>1800</v>
+      </c>
+      <c r="U575" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="576" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A576">
+        <v>24</v>
+      </c>
+      <c r="C576" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D576" t="s">
+        <v>37</v>
+      </c>
+      <c r="E576" t="s">
+        <v>95</v>
+      </c>
+      <c r="F576" t="s">
+        <v>96</v>
+      </c>
+      <c r="G576">
+        <v>3.69</v>
+      </c>
+      <c r="H576">
+        <v>700</v>
+      </c>
+      <c r="I576" s="2">
+        <v>2583</v>
+      </c>
+      <c r="L576" s="2">
+        <v>0</v>
+      </c>
+      <c r="O576" s="2">
+        <v>0</v>
+      </c>
+      <c r="P576" s="2">
+        <v>2583</v>
+      </c>
+      <c r="S576" s="2">
+        <v>2583</v>
+      </c>
+      <c r="U576" s="2">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="577" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A577">
+        <v>24</v>
+      </c>
+      <c r="C577" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D577" t="s">
+        <v>37</v>
+      </c>
+      <c r="E577" t="s">
+        <v>95</v>
+      </c>
+      <c r="F577" t="s">
+        <v>96</v>
+      </c>
+      <c r="G577">
+        <v>1.86</v>
+      </c>
+      <c r="H577">
+        <v>700</v>
+      </c>
+      <c r="I577" s="2">
+        <v>1302</v>
+      </c>
+      <c r="L577" s="2">
+        <v>0</v>
+      </c>
+      <c r="O577" s="2">
+        <v>0</v>
+      </c>
+      <c r="P577" s="2">
+        <v>1302</v>
+      </c>
+      <c r="S577" s="2">
+        <v>1302</v>
+      </c>
+      <c r="U577" s="2">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="578" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A578">
+        <v>24</v>
+      </c>
+      <c r="C578" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D578" t="s">
+        <v>37</v>
+      </c>
+      <c r="E578" t="s">
+        <v>95</v>
+      </c>
+      <c r="F578" t="s">
+        <v>96</v>
+      </c>
+      <c r="G578">
+        <v>2.54</v>
+      </c>
+      <c r="H578">
+        <v>700</v>
+      </c>
+      <c r="I578" s="2">
+        <v>1778</v>
+      </c>
+      <c r="L578" s="2">
+        <v>0</v>
+      </c>
+      <c r="O578" s="2">
+        <v>0</v>
+      </c>
+      <c r="P578" s="2">
+        <v>1778</v>
+      </c>
+      <c r="S578" s="2">
+        <v>1778</v>
+      </c>
+      <c r="U578" s="2">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="579" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A579">
+        <v>24</v>
+      </c>
+      <c r="C579" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D579" t="s">
+        <v>37</v>
+      </c>
+      <c r="E579" t="s">
+        <v>95</v>
+      </c>
+      <c r="F579" t="s">
+        <v>96</v>
+      </c>
+      <c r="G579">
+        <v>12.74</v>
+      </c>
+      <c r="H579">
+        <v>300</v>
+      </c>
+      <c r="I579" s="2">
+        <v>3822</v>
+      </c>
+      <c r="J579">
+        <v>1</v>
+      </c>
+      <c r="K579">
+        <v>250</v>
+      </c>
+      <c r="L579" s="2">
+        <v>250</v>
+      </c>
+      <c r="O579" s="2">
+        <v>0</v>
+      </c>
+      <c r="P579" s="2">
+        <v>4072</v>
+      </c>
+      <c r="S579" s="2">
+        <v>4072</v>
+      </c>
+      <c r="U579" s="2">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="580" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A580">
+        <v>24</v>
+      </c>
+      <c r="C580" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D580" t="s">
+        <v>37</v>
+      </c>
+      <c r="E580" t="s">
+        <v>95</v>
+      </c>
+      <c r="F580" t="s">
+        <v>96</v>
+      </c>
+      <c r="G580">
+        <v>3.56</v>
+      </c>
+      <c r="H580">
+        <v>250</v>
+      </c>
+      <c r="I580" s="2">
+        <v>890</v>
+      </c>
+      <c r="J580">
+        <v>1</v>
+      </c>
+      <c r="K580">
+        <v>250</v>
+      </c>
+      <c r="L580" s="2">
+        <v>250</v>
+      </c>
+      <c r="O580" s="2">
+        <v>0</v>
+      </c>
+      <c r="P580" s="2">
+        <v>1140</v>
+      </c>
+      <c r="S580" s="2">
+        <v>1140</v>
+      </c>
+      <c r="U580" s="2">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="581" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A581">
+        <v>24</v>
+      </c>
+      <c r="C581" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D581" t="s">
+        <v>37</v>
+      </c>
+      <c r="E581" t="s">
+        <v>95</v>
+      </c>
+      <c r="F581" t="s">
+        <v>96</v>
+      </c>
+      <c r="I581" s="2">
+        <v>0</v>
+      </c>
+      <c r="J581">
+        <v>1</v>
+      </c>
+      <c r="K581">
+        <v>200</v>
+      </c>
+      <c r="L581" s="2">
+        <v>200</v>
+      </c>
+      <c r="O581" s="2">
+        <v>0</v>
+      </c>
+      <c r="P581" s="2">
+        <v>200</v>
+      </c>
+      <c r="S581" s="2">
+        <v>200</v>
+      </c>
+      <c r="U581" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="582" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A582">
+        <v>24</v>
+      </c>
+      <c r="C582" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D582" t="s">
+        <v>37</v>
+      </c>
+      <c r="E582" t="s">
+        <v>95</v>
+      </c>
+      <c r="F582" t="s">
+        <v>96</v>
+      </c>
+      <c r="I582" s="2">
+        <v>0</v>
+      </c>
+      <c r="J582">
+        <v>1</v>
+      </c>
+      <c r="K582">
+        <v>200</v>
+      </c>
+      <c r="L582" s="2">
+        <v>200</v>
+      </c>
+      <c r="O582" s="2">
+        <v>0</v>
+      </c>
+      <c r="P582" s="2">
+        <v>200</v>
+      </c>
+      <c r="S582" s="2">
+        <v>200</v>
+      </c>
+      <c r="U582" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="583" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A583">
+        <v>24</v>
+      </c>
+      <c r="C583" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D583" t="s">
+        <v>37</v>
+      </c>
+      <c r="E583" t="s">
+        <v>95</v>
+      </c>
+      <c r="F583" t="s">
+        <v>96</v>
+      </c>
+      <c r="I583" s="2">
+        <v>0</v>
+      </c>
+      <c r="J583">
+        <v>6</v>
+      </c>
+      <c r="K583">
+        <v>700</v>
+      </c>
+      <c r="L583" s="2">
+        <v>4200</v>
+      </c>
+      <c r="O583" s="2">
+        <v>0</v>
+      </c>
+      <c r="P583" s="2">
+        <v>4200</v>
+      </c>
+      <c r="S583" s="2">
+        <v>4200</v>
+      </c>
+      <c r="U583" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="584" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A584">
+        <v>24</v>
+      </c>
+      <c r="C584" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D584" t="s">
+        <v>37</v>
+      </c>
+      <c r="E584" t="s">
+        <v>95</v>
+      </c>
+      <c r="F584" t="s">
+        <v>96</v>
+      </c>
+      <c r="I584" s="2">
+        <v>0</v>
+      </c>
+      <c r="J584">
+        <v>2</v>
+      </c>
+      <c r="K584">
+        <v>750</v>
+      </c>
+      <c r="L584" s="2">
+        <v>1500</v>
+      </c>
+      <c r="O584" s="2">
+        <v>0</v>
+      </c>
+      <c r="P584" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S584" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U584" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="585" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A585">
+        <v>24</v>
+      </c>
+      <c r="C585" s="1">
+        <v>45456</v>
+      </c>
+      <c r="D585" t="s">
+        <v>37</v>
+      </c>
+      <c r="E585" t="s">
+        <v>95</v>
+      </c>
+      <c r="F585" t="s">
+        <v>96</v>
+      </c>
+      <c r="I585" s="2">
+        <v>0</v>
+      </c>
+      <c r="J585">
+        <v>1</v>
+      </c>
+      <c r="K585">
+        <v>850</v>
+      </c>
+      <c r="L585" s="2">
+        <v>850</v>
+      </c>
+      <c r="O585" s="2">
+        <v>0</v>
+      </c>
+      <c r="P585" s="2">
+        <v>850</v>
+      </c>
+      <c r="S585" s="2">
+        <v>850</v>
+      </c>
+      <c r="U585" s="2">
+        <v>850</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC4CAF70-AE05-48E7-B093-6F82834EC611}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6D4DEB-FF72-4A8A-9650-D4BBC7932F74}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="109">
   <si>
     <t>SEMANA</t>
   </si>
@@ -358,6 +358,12 @@
   <si>
     <t>CTVV 3066 - Cambio de Tono Casas Muestra Veronesa - Constructora H y G</t>
   </si>
+  <si>
+    <t>CTVV 2776</t>
+  </si>
+  <si>
+    <t>CTVV 2776 - Casa JML Primera Etapa - Miguel Maldonado</t>
+  </si>
 </sst>
 </file>
 
@@ -429,9 +435,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V585" totalsRowShown="0">
-  <autoFilter ref="A1:V585" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V623" totalsRowShown="0">
+  <autoFilter ref="A1:V623" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -777,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V585"/>
+  <dimension ref="A1:V623"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B526" sqref="B526"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A454" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F589" sqref="F589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26574,6 +26584,1705 @@
         <v>850</v>
       </c>
     </row>
+    <row r="586" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A586">
+        <v>25</v>
+      </c>
+      <c r="C586" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D586" t="s">
+        <v>53</v>
+      </c>
+      <c r="E586" t="s">
+        <v>107</v>
+      </c>
+      <c r="F586" t="s">
+        <v>108</v>
+      </c>
+      <c r="I586" s="2">
+        <v>0</v>
+      </c>
+      <c r="J586">
+        <v>2</v>
+      </c>
+      <c r="K586">
+        <v>1000</v>
+      </c>
+      <c r="L586" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O586" s="2">
+        <v>0</v>
+      </c>
+      <c r="P586" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Q586" s="2">
+        <v>200</v>
+      </c>
+      <c r="S586" s="2">
+        <v>2200</v>
+      </c>
+      <c r="U586" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="587" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A587">
+        <v>25</v>
+      </c>
+      <c r="C587" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D587" t="s">
+        <v>29</v>
+      </c>
+      <c r="E587" t="s">
+        <v>105</v>
+      </c>
+      <c r="F587" t="s">
+        <v>106</v>
+      </c>
+      <c r="G587">
+        <v>1.77</v>
+      </c>
+      <c r="H587">
+        <v>700</v>
+      </c>
+      <c r="I587" s="2">
+        <v>1239</v>
+      </c>
+      <c r="J587">
+        <v>1</v>
+      </c>
+      <c r="K587">
+        <v>200</v>
+      </c>
+      <c r="L587" s="2">
+        <v>200</v>
+      </c>
+      <c r="M587">
+        <v>3</v>
+      </c>
+      <c r="N587">
+        <v>750</v>
+      </c>
+      <c r="O587" s="2">
+        <v>2250</v>
+      </c>
+      <c r="P587" s="2">
+        <v>3689</v>
+      </c>
+      <c r="S587" s="2">
+        <v>3689</v>
+      </c>
+      <c r="U587" s="2">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="588" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A588">
+        <v>25</v>
+      </c>
+      <c r="C588" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D588" t="s">
+        <v>29</v>
+      </c>
+      <c r="E588" t="s">
+        <v>105</v>
+      </c>
+      <c r="F588" t="s">
+        <v>106</v>
+      </c>
+      <c r="G588">
+        <v>1.65</v>
+      </c>
+      <c r="H588">
+        <v>700</v>
+      </c>
+      <c r="I588" s="2">
+        <v>1155</v>
+      </c>
+      <c r="J588">
+        <v>1</v>
+      </c>
+      <c r="K588">
+        <v>200</v>
+      </c>
+      <c r="L588" s="2">
+        <v>200</v>
+      </c>
+      <c r="O588" s="2">
+        <v>0</v>
+      </c>
+      <c r="P588" s="2">
+        <v>1355</v>
+      </c>
+      <c r="S588" s="2">
+        <v>1355</v>
+      </c>
+      <c r="U588" s="2">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="589" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A589">
+        <v>25</v>
+      </c>
+      <c r="C589" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D589" t="s">
+        <v>29</v>
+      </c>
+      <c r="E589" t="s">
+        <v>105</v>
+      </c>
+      <c r="F589" t="s">
+        <v>106</v>
+      </c>
+      <c r="I589" s="2">
+        <v>0</v>
+      </c>
+      <c r="J589">
+        <v>1</v>
+      </c>
+      <c r="K589">
+        <v>200</v>
+      </c>
+      <c r="L589" s="2">
+        <v>200</v>
+      </c>
+      <c r="O589" s="2">
+        <v>0</v>
+      </c>
+      <c r="P589" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q589" s="2">
+        <v>500</v>
+      </c>
+      <c r="S589" s="2">
+        <v>700</v>
+      </c>
+      <c r="U589" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="590" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A590">
+        <v>25</v>
+      </c>
+      <c r="C590" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D590" t="s">
+        <v>59</v>
+      </c>
+      <c r="E590" t="s">
+        <v>105</v>
+      </c>
+      <c r="F590" t="s">
+        <v>106</v>
+      </c>
+      <c r="G590">
+        <v>2.4</v>
+      </c>
+      <c r="H590">
+        <v>700</v>
+      </c>
+      <c r="I590" s="2">
+        <v>1680</v>
+      </c>
+      <c r="L590" s="2">
+        <v>0</v>
+      </c>
+      <c r="M590">
+        <v>3</v>
+      </c>
+      <c r="N590">
+        <v>750</v>
+      </c>
+      <c r="O590" s="2">
+        <v>2250</v>
+      </c>
+      <c r="P590" s="2">
+        <v>3930</v>
+      </c>
+      <c r="S590" s="2">
+        <v>3930</v>
+      </c>
+      <c r="U590" s="2">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="591" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A591">
+        <v>25</v>
+      </c>
+      <c r="C591" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D591" t="s">
+        <v>59</v>
+      </c>
+      <c r="E591" t="s">
+        <v>105</v>
+      </c>
+      <c r="F591" t="s">
+        <v>106</v>
+      </c>
+      <c r="G591">
+        <v>0.51</v>
+      </c>
+      <c r="H591">
+        <v>700</v>
+      </c>
+      <c r="I591" s="2">
+        <v>357</v>
+      </c>
+      <c r="L591" s="2">
+        <v>0</v>
+      </c>
+      <c r="O591" s="2">
+        <v>0</v>
+      </c>
+      <c r="P591" s="2">
+        <v>357</v>
+      </c>
+      <c r="Q591" s="2">
+        <v>500</v>
+      </c>
+      <c r="S591" s="2">
+        <v>857</v>
+      </c>
+      <c r="U591" s="2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="592" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A592">
+        <v>25</v>
+      </c>
+      <c r="C592" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D592" t="s">
+        <v>41</v>
+      </c>
+      <c r="E592" t="s">
+        <v>105</v>
+      </c>
+      <c r="F592" t="s">
+        <v>106</v>
+      </c>
+      <c r="I592" s="2">
+        <v>0</v>
+      </c>
+      <c r="L592" s="2">
+        <v>0</v>
+      </c>
+      <c r="M592">
+        <v>4</v>
+      </c>
+      <c r="N592">
+        <v>1083.33</v>
+      </c>
+      <c r="O592" s="2">
+        <v>4333.32</v>
+      </c>
+      <c r="P592" s="2">
+        <v>4333.32</v>
+      </c>
+      <c r="S592" s="2">
+        <v>4333.32</v>
+      </c>
+      <c r="U592" s="2">
+        <v>4333.32</v>
+      </c>
+    </row>
+    <row r="593" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A593">
+        <v>25</v>
+      </c>
+      <c r="C593" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D593" t="s">
+        <v>81</v>
+      </c>
+      <c r="E593" t="s">
+        <v>105</v>
+      </c>
+      <c r="F593" t="s">
+        <v>106</v>
+      </c>
+      <c r="G593">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H593">
+        <v>700</v>
+      </c>
+      <c r="I593" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="L593" s="2">
+        <v>0</v>
+      </c>
+      <c r="O593" s="2">
+        <v>0</v>
+      </c>
+      <c r="P593" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="S593" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="U593" s="2">
+        <v>647.5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A594">
+        <v>25</v>
+      </c>
+      <c r="C594" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D594" t="s">
+        <v>81</v>
+      </c>
+      <c r="E594" t="s">
+        <v>105</v>
+      </c>
+      <c r="F594" t="s">
+        <v>106</v>
+      </c>
+      <c r="G594">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H594">
+        <v>700</v>
+      </c>
+      <c r="I594" s="2">
+        <v>549.5</v>
+      </c>
+      <c r="L594" s="2">
+        <v>0</v>
+      </c>
+      <c r="O594" s="2">
+        <v>0</v>
+      </c>
+      <c r="P594" s="2">
+        <v>549.5</v>
+      </c>
+      <c r="S594" s="2">
+        <v>549.5</v>
+      </c>
+      <c r="U594" s="2">
+        <v>549.5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A595">
+        <v>25</v>
+      </c>
+      <c r="C595" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D595" t="s">
+        <v>81</v>
+      </c>
+      <c r="E595" t="s">
+        <v>105</v>
+      </c>
+      <c r="F595" t="s">
+        <v>106</v>
+      </c>
+      <c r="G595">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H595">
+        <v>700</v>
+      </c>
+      <c r="I595" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="L595" s="2">
+        <v>0</v>
+      </c>
+      <c r="O595" s="2">
+        <v>0</v>
+      </c>
+      <c r="P595" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="Q595" s="2">
+        <v>200</v>
+      </c>
+      <c r="S595" s="2">
+        <v>847.5</v>
+      </c>
+      <c r="U595" s="2">
+        <v>847.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A596">
+        <v>25</v>
+      </c>
+      <c r="C596" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D596" t="s">
+        <v>81</v>
+      </c>
+      <c r="E596" t="s">
+        <v>54</v>
+      </c>
+      <c r="F596" t="s">
+        <v>55</v>
+      </c>
+      <c r="I596" s="2">
+        <v>0</v>
+      </c>
+      <c r="L596" s="2">
+        <v>0</v>
+      </c>
+      <c r="M596">
+        <v>1</v>
+      </c>
+      <c r="N596">
+        <v>750</v>
+      </c>
+      <c r="O596" s="2">
+        <v>750</v>
+      </c>
+      <c r="P596" s="2">
+        <v>750</v>
+      </c>
+      <c r="S596" s="2">
+        <v>750</v>
+      </c>
+      <c r="U596" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="597" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A597">
+        <v>25</v>
+      </c>
+      <c r="C597" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D597" t="s">
+        <v>63</v>
+      </c>
+      <c r="E597" t="s">
+        <v>101</v>
+      </c>
+      <c r="F597" t="s">
+        <v>102</v>
+      </c>
+      <c r="I597" s="2">
+        <v>0</v>
+      </c>
+      <c r="L597" s="2">
+        <v>0</v>
+      </c>
+      <c r="M597">
+        <v>0.75</v>
+      </c>
+      <c r="N597">
+        <v>1083.33</v>
+      </c>
+      <c r="O597" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P597" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="Q597" s="2">
+        <v>100</v>
+      </c>
+      <c r="S597" s="2">
+        <v>912.49749999999995</v>
+      </c>
+      <c r="U597" s="2">
+        <v>912.49749999999995</v>
+      </c>
+    </row>
+    <row r="598" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A598">
+        <v>25</v>
+      </c>
+      <c r="C598" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D598" t="s">
+        <v>62</v>
+      </c>
+      <c r="E598" t="s">
+        <v>95</v>
+      </c>
+      <c r="F598" t="s">
+        <v>96</v>
+      </c>
+      <c r="G598">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H598">
+        <v>400</v>
+      </c>
+      <c r="I598" s="2">
+        <v>911.99999999999989</v>
+      </c>
+      <c r="J598">
+        <v>1</v>
+      </c>
+      <c r="K598">
+        <v>250</v>
+      </c>
+      <c r="L598" s="2">
+        <v>250</v>
+      </c>
+      <c r="O598" s="2">
+        <v>0</v>
+      </c>
+      <c r="P598" s="2">
+        <v>1162</v>
+      </c>
+      <c r="S598" s="2">
+        <v>1162</v>
+      </c>
+      <c r="U598" s="2">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="599" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A599">
+        <v>25</v>
+      </c>
+      <c r="C599" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D599" t="s">
+        <v>62</v>
+      </c>
+      <c r="E599" t="s">
+        <v>95</v>
+      </c>
+      <c r="F599" t="s">
+        <v>96</v>
+      </c>
+      <c r="G599">
+        <v>1.84</v>
+      </c>
+      <c r="H599">
+        <v>700</v>
+      </c>
+      <c r="I599" s="2">
+        <v>1288</v>
+      </c>
+      <c r="J599">
+        <v>1</v>
+      </c>
+      <c r="K599">
+        <v>250</v>
+      </c>
+      <c r="L599" s="2">
+        <v>250</v>
+      </c>
+      <c r="O599" s="2">
+        <v>0</v>
+      </c>
+      <c r="P599" s="2">
+        <v>1538</v>
+      </c>
+      <c r="S599" s="2">
+        <v>1538</v>
+      </c>
+      <c r="U599" s="2">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="600" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A600">
+        <v>25</v>
+      </c>
+      <c r="C600" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D600" t="s">
+        <v>62</v>
+      </c>
+      <c r="E600" t="s">
+        <v>95</v>
+      </c>
+      <c r="F600" t="s">
+        <v>96</v>
+      </c>
+      <c r="G600">
+        <v>1.86</v>
+      </c>
+      <c r="H600">
+        <v>700</v>
+      </c>
+      <c r="I600" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J600">
+        <v>1</v>
+      </c>
+      <c r="K600">
+        <v>200</v>
+      </c>
+      <c r="L600" s="2">
+        <v>200</v>
+      </c>
+      <c r="O600" s="2">
+        <v>0</v>
+      </c>
+      <c r="P600" s="2">
+        <v>1502</v>
+      </c>
+      <c r="S600" s="2">
+        <v>1502</v>
+      </c>
+      <c r="U600" s="2">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="601" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A601">
+        <v>25</v>
+      </c>
+      <c r="C601" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D601" t="s">
+        <v>62</v>
+      </c>
+      <c r="E601" t="s">
+        <v>95</v>
+      </c>
+      <c r="F601" t="s">
+        <v>96</v>
+      </c>
+      <c r="G601">
+        <v>1.78</v>
+      </c>
+      <c r="H601">
+        <v>700</v>
+      </c>
+      <c r="I601" s="2">
+        <v>1246</v>
+      </c>
+      <c r="J601">
+        <v>1</v>
+      </c>
+      <c r="K601">
+        <v>200</v>
+      </c>
+      <c r="L601" s="2">
+        <v>200</v>
+      </c>
+      <c r="O601" s="2">
+        <v>0</v>
+      </c>
+      <c r="P601" s="2">
+        <v>1446</v>
+      </c>
+      <c r="Q601" s="2">
+        <v>500</v>
+      </c>
+      <c r="S601" s="2">
+        <v>1946</v>
+      </c>
+      <c r="U601" s="2">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="602" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A602">
+        <v>25</v>
+      </c>
+      <c r="C602" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D602" t="s">
+        <v>37</v>
+      </c>
+      <c r="E602" t="s">
+        <v>95</v>
+      </c>
+      <c r="F602" t="s">
+        <v>96</v>
+      </c>
+      <c r="G602">
+        <v>3.03</v>
+      </c>
+      <c r="H602">
+        <v>700</v>
+      </c>
+      <c r="I602" s="2">
+        <v>2121</v>
+      </c>
+      <c r="L602" s="2">
+        <v>0</v>
+      </c>
+      <c r="O602" s="2">
+        <v>0</v>
+      </c>
+      <c r="P602" s="2">
+        <v>2121</v>
+      </c>
+      <c r="S602" s="2">
+        <v>2121</v>
+      </c>
+      <c r="U602" s="2">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="603" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A603">
+        <v>25</v>
+      </c>
+      <c r="C603" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D603" t="s">
+        <v>37</v>
+      </c>
+      <c r="E603" t="s">
+        <v>95</v>
+      </c>
+      <c r="F603" t="s">
+        <v>96</v>
+      </c>
+      <c r="G603">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H603">
+        <v>400</v>
+      </c>
+      <c r="I603" s="2">
+        <v>811.99999999999989</v>
+      </c>
+      <c r="L603" s="2">
+        <v>0</v>
+      </c>
+      <c r="O603" s="2">
+        <v>0</v>
+      </c>
+      <c r="P603" s="2">
+        <v>811.99999999999989</v>
+      </c>
+      <c r="S603" s="2">
+        <v>811.99999999999989</v>
+      </c>
+      <c r="U603" s="2">
+        <v>811.99999999999989</v>
+      </c>
+    </row>
+    <row r="604" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A604">
+        <v>25</v>
+      </c>
+      <c r="C604" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D604" t="s">
+        <v>37</v>
+      </c>
+      <c r="E604" t="s">
+        <v>95</v>
+      </c>
+      <c r="F604" t="s">
+        <v>96</v>
+      </c>
+      <c r="G604">
+        <v>7.5</v>
+      </c>
+      <c r="H604">
+        <v>250</v>
+      </c>
+      <c r="I604" s="2">
+        <v>1875</v>
+      </c>
+      <c r="L604" s="2">
+        <v>0</v>
+      </c>
+      <c r="O604" s="2">
+        <v>0</v>
+      </c>
+      <c r="P604" s="2">
+        <v>1875</v>
+      </c>
+      <c r="S604" s="2">
+        <v>1875</v>
+      </c>
+      <c r="U604" s="2">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="605" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A605">
+        <v>25</v>
+      </c>
+      <c r="C605" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D605" t="s">
+        <v>37</v>
+      </c>
+      <c r="E605" t="s">
+        <v>95</v>
+      </c>
+      <c r="F605" t="s">
+        <v>96</v>
+      </c>
+      <c r="G605">
+        <v>16</v>
+      </c>
+      <c r="H605">
+        <v>300</v>
+      </c>
+      <c r="I605" s="2">
+        <v>4800</v>
+      </c>
+      <c r="J605">
+        <v>1</v>
+      </c>
+      <c r="K605">
+        <v>250</v>
+      </c>
+      <c r="L605" s="2">
+        <v>250</v>
+      </c>
+      <c r="O605" s="2">
+        <v>0</v>
+      </c>
+      <c r="P605" s="2">
+        <v>5050</v>
+      </c>
+      <c r="S605" s="2">
+        <v>5050</v>
+      </c>
+      <c r="U605" s="2">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="606" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A606">
+        <v>25</v>
+      </c>
+      <c r="C606" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D606" t="s">
+        <v>37</v>
+      </c>
+      <c r="E606" t="s">
+        <v>95</v>
+      </c>
+      <c r="F606" t="s">
+        <v>96</v>
+      </c>
+      <c r="G606">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H606">
+        <v>700</v>
+      </c>
+      <c r="I606" s="2">
+        <v>3080.0000000000005</v>
+      </c>
+      <c r="J606">
+        <v>1</v>
+      </c>
+      <c r="K606">
+        <v>200</v>
+      </c>
+      <c r="L606" s="2">
+        <v>200</v>
+      </c>
+      <c r="O606" s="2">
+        <v>0</v>
+      </c>
+      <c r="P606" s="2">
+        <v>3280.0000000000005</v>
+      </c>
+      <c r="S606" s="2">
+        <v>3280.0000000000005</v>
+      </c>
+      <c r="U606" s="2">
+        <v>3280.0000000000005</v>
+      </c>
+    </row>
+    <row r="607" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A607">
+        <v>25</v>
+      </c>
+      <c r="C607" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D607" t="s">
+        <v>37</v>
+      </c>
+      <c r="E607" t="s">
+        <v>95</v>
+      </c>
+      <c r="F607" t="s">
+        <v>96</v>
+      </c>
+      <c r="G607">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H607">
+        <v>400</v>
+      </c>
+      <c r="I607" s="2">
+        <v>911.99999999999989</v>
+      </c>
+      <c r="J607">
+        <v>1</v>
+      </c>
+      <c r="K607">
+        <v>200</v>
+      </c>
+      <c r="L607" s="2">
+        <v>200</v>
+      </c>
+      <c r="O607" s="2">
+        <v>0</v>
+      </c>
+      <c r="P607" s="2">
+        <v>1112</v>
+      </c>
+      <c r="S607" s="2">
+        <v>1112</v>
+      </c>
+      <c r="U607" s="2">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="608" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A608">
+        <v>25</v>
+      </c>
+      <c r="C608" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D608" t="s">
+        <v>37</v>
+      </c>
+      <c r="E608" t="s">
+        <v>95</v>
+      </c>
+      <c r="F608" t="s">
+        <v>96</v>
+      </c>
+      <c r="G608">
+        <v>11.16</v>
+      </c>
+      <c r="H608">
+        <v>250</v>
+      </c>
+      <c r="I608" s="2">
+        <v>2790</v>
+      </c>
+      <c r="J608">
+        <v>6</v>
+      </c>
+      <c r="K608">
+        <v>700</v>
+      </c>
+      <c r="L608" s="2">
+        <v>4200</v>
+      </c>
+      <c r="O608" s="2">
+        <v>0</v>
+      </c>
+      <c r="P608" s="2">
+        <v>6990</v>
+      </c>
+      <c r="S608" s="2">
+        <v>6990</v>
+      </c>
+      <c r="U608" s="2">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="609" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A609">
+        <v>25</v>
+      </c>
+      <c r="C609" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D609" t="s">
+        <v>37</v>
+      </c>
+      <c r="E609" t="s">
+        <v>95</v>
+      </c>
+      <c r="F609" t="s">
+        <v>96</v>
+      </c>
+      <c r="I609" s="2">
+        <v>0</v>
+      </c>
+      <c r="J609">
+        <v>1</v>
+      </c>
+      <c r="K609">
+        <v>750</v>
+      </c>
+      <c r="L609" s="2">
+        <v>750</v>
+      </c>
+      <c r="O609" s="2">
+        <v>0</v>
+      </c>
+      <c r="P609" s="2">
+        <v>750</v>
+      </c>
+      <c r="Q609" s="2">
+        <v>500</v>
+      </c>
+      <c r="S609" s="2">
+        <v>1250</v>
+      </c>
+      <c r="U609" s="2">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="610" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A610">
+        <v>25</v>
+      </c>
+      <c r="C610" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D610" t="s">
+        <v>34</v>
+      </c>
+      <c r="E610" t="s">
+        <v>95</v>
+      </c>
+      <c r="F610" t="s">
+        <v>96</v>
+      </c>
+      <c r="I610" s="2">
+        <v>0</v>
+      </c>
+      <c r="J610">
+        <v>1</v>
+      </c>
+      <c r="K610">
+        <v>200</v>
+      </c>
+      <c r="L610" s="2">
+        <v>200</v>
+      </c>
+      <c r="M610">
+        <v>0.15</v>
+      </c>
+      <c r="N610">
+        <v>1083.33</v>
+      </c>
+      <c r="O610" s="2">
+        <v>162.49949999999998</v>
+      </c>
+      <c r="P610" s="2">
+        <v>362.49950000000001</v>
+      </c>
+      <c r="S610" s="2">
+        <v>362.49950000000001</v>
+      </c>
+      <c r="U610" s="2">
+        <v>362.49950000000001</v>
+      </c>
+    </row>
+    <row r="611" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A611">
+        <v>25</v>
+      </c>
+      <c r="C611" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D611" t="s">
+        <v>34</v>
+      </c>
+      <c r="E611" t="s">
+        <v>95</v>
+      </c>
+      <c r="F611" t="s">
+        <v>96</v>
+      </c>
+      <c r="I611" s="2">
+        <v>0</v>
+      </c>
+      <c r="J611">
+        <v>1</v>
+      </c>
+      <c r="K611">
+        <v>850</v>
+      </c>
+      <c r="L611" s="2">
+        <v>850</v>
+      </c>
+      <c r="O611" s="2">
+        <v>0</v>
+      </c>
+      <c r="P611" s="2">
+        <v>850</v>
+      </c>
+      <c r="S611" s="2">
+        <v>850</v>
+      </c>
+      <c r="U611" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="612" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A612">
+        <v>25</v>
+      </c>
+      <c r="C612" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D612" t="s">
+        <v>34</v>
+      </c>
+      <c r="E612" t="s">
+        <v>95</v>
+      </c>
+      <c r="F612" t="s">
+        <v>96</v>
+      </c>
+      <c r="G612">
+        <v>3.03</v>
+      </c>
+      <c r="H612">
+        <v>700</v>
+      </c>
+      <c r="I612" s="2">
+        <v>2121</v>
+      </c>
+      <c r="L612" s="2">
+        <v>0</v>
+      </c>
+      <c r="O612" s="2">
+        <v>0</v>
+      </c>
+      <c r="P612" s="2">
+        <v>2121</v>
+      </c>
+      <c r="S612" s="2">
+        <v>2121</v>
+      </c>
+      <c r="U612" s="2">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="613" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A613">
+        <v>25</v>
+      </c>
+      <c r="C613" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D613" t="s">
+        <v>34</v>
+      </c>
+      <c r="E613" t="s">
+        <v>95</v>
+      </c>
+      <c r="F613" t="s">
+        <v>96</v>
+      </c>
+      <c r="G613">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H613">
+        <v>400</v>
+      </c>
+      <c r="I613" s="2">
+        <v>811.99999999999989</v>
+      </c>
+      <c r="L613" s="2">
+        <v>0</v>
+      </c>
+      <c r="O613" s="2">
+        <v>0</v>
+      </c>
+      <c r="P613" s="2">
+        <v>811.99999999999989</v>
+      </c>
+      <c r="S613" s="2">
+        <v>811.99999999999989</v>
+      </c>
+      <c r="U613" s="2">
+        <v>811.99999999999989</v>
+      </c>
+    </row>
+    <row r="614" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A614">
+        <v>25</v>
+      </c>
+      <c r="C614" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D614" t="s">
+        <v>34</v>
+      </c>
+      <c r="E614" t="s">
+        <v>95</v>
+      </c>
+      <c r="F614" t="s">
+        <v>96</v>
+      </c>
+      <c r="G614">
+        <v>3.71</v>
+      </c>
+      <c r="H614">
+        <v>700</v>
+      </c>
+      <c r="I614" s="2">
+        <v>2597</v>
+      </c>
+      <c r="L614" s="2">
+        <v>0</v>
+      </c>
+      <c r="O614" s="2">
+        <v>0</v>
+      </c>
+      <c r="P614" s="2">
+        <v>2597</v>
+      </c>
+      <c r="Q614" s="2">
+        <v>500</v>
+      </c>
+      <c r="S614" s="2">
+        <v>3097</v>
+      </c>
+      <c r="U614" s="2">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="615" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A615">
+        <v>25</v>
+      </c>
+      <c r="C615" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D615" t="s">
+        <v>56</v>
+      </c>
+      <c r="E615" t="s">
+        <v>76</v>
+      </c>
+      <c r="F615" t="s">
+        <v>77</v>
+      </c>
+      <c r="G615">
+        <v>0.72</v>
+      </c>
+      <c r="H615">
+        <v>500</v>
+      </c>
+      <c r="I615" s="2">
+        <v>360</v>
+      </c>
+      <c r="L615" s="2">
+        <v>0</v>
+      </c>
+      <c r="M615">
+        <v>0.75</v>
+      </c>
+      <c r="N615">
+        <v>1083.33</v>
+      </c>
+      <c r="O615" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P615" s="2">
+        <v>1172.4974999999999</v>
+      </c>
+      <c r="S615" s="2">
+        <v>1172.4974999999999</v>
+      </c>
+      <c r="U615" s="2">
+        <v>1172.4974999999999</v>
+      </c>
+    </row>
+    <row r="616" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A616">
+        <v>25</v>
+      </c>
+      <c r="C616" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D616" t="s">
+        <v>56</v>
+      </c>
+      <c r="E616" t="s">
+        <v>76</v>
+      </c>
+      <c r="F616" t="s">
+        <v>77</v>
+      </c>
+      <c r="G616">
+        <v>6.11</v>
+      </c>
+      <c r="H616">
+        <v>750</v>
+      </c>
+      <c r="I616" s="2">
+        <v>4582.5</v>
+      </c>
+      <c r="L616" s="2">
+        <v>0</v>
+      </c>
+      <c r="M616">
+        <v>0.5</v>
+      </c>
+      <c r="N616">
+        <v>1083.33</v>
+      </c>
+      <c r="O616" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P616" s="2">
+        <v>5124.165</v>
+      </c>
+      <c r="Q616" s="2">
+        <v>500</v>
+      </c>
+      <c r="S616" s="2">
+        <v>5624.165</v>
+      </c>
+      <c r="U616" s="2">
+        <v>5624.165</v>
+      </c>
+    </row>
+    <row r="617" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A617">
+        <v>25</v>
+      </c>
+      <c r="C617" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D617" t="s">
+        <v>38</v>
+      </c>
+      <c r="E617" t="s">
+        <v>39</v>
+      </c>
+      <c r="F617" t="s">
+        <v>40</v>
+      </c>
+      <c r="I617" s="2">
+        <v>0</v>
+      </c>
+      <c r="L617" s="2">
+        <v>0</v>
+      </c>
+      <c r="M617">
+        <v>0.75</v>
+      </c>
+      <c r="N617">
+        <v>1083.33</v>
+      </c>
+      <c r="O617" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P617" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="Q617" s="2">
+        <v>100</v>
+      </c>
+      <c r="S617" s="2">
+        <v>912.49749999999995</v>
+      </c>
+      <c r="U617" s="2">
+        <v>912.49749999999995</v>
+      </c>
+    </row>
+    <row r="618" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A618">
+        <v>25</v>
+      </c>
+      <c r="C618" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D618" t="s">
+        <v>45</v>
+      </c>
+      <c r="E618" t="s">
+        <v>79</v>
+      </c>
+      <c r="F618" t="s">
+        <v>80</v>
+      </c>
+      <c r="I618" s="2">
+        <v>0</v>
+      </c>
+      <c r="L618" s="2">
+        <v>0</v>
+      </c>
+      <c r="M618">
+        <v>0.2</v>
+      </c>
+      <c r="N618">
+        <v>1083.33</v>
+      </c>
+      <c r="O618" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="P618" s="2">
+        <v>216.666</v>
+      </c>
+      <c r="Q618" s="2">
+        <v>100</v>
+      </c>
+      <c r="S618" s="2">
+        <v>316.666</v>
+      </c>
+      <c r="U618" s="2">
+        <v>316.666</v>
+      </c>
+    </row>
+    <row r="619" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A619">
+        <v>25</v>
+      </c>
+      <c r="C619" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D619" t="s">
+        <v>78</v>
+      </c>
+      <c r="E619" t="s">
+        <v>79</v>
+      </c>
+      <c r="F619" t="s">
+        <v>80</v>
+      </c>
+      <c r="G619">
+        <v>4.1159999999999997</v>
+      </c>
+      <c r="H619">
+        <v>750</v>
+      </c>
+      <c r="I619" s="2">
+        <v>3086.9999999999995</v>
+      </c>
+      <c r="L619" s="2">
+        <v>0</v>
+      </c>
+      <c r="M619">
+        <v>0.7</v>
+      </c>
+      <c r="N619">
+        <v>1083.33</v>
+      </c>
+      <c r="O619" s="2">
+        <v>758.3309999999999</v>
+      </c>
+      <c r="P619" s="2">
+        <v>3845.3309999999992</v>
+      </c>
+      <c r="S619" s="2">
+        <v>3845.3309999999992</v>
+      </c>
+      <c r="U619" s="2">
+        <v>3845.3309999999992</v>
+      </c>
+    </row>
+    <row r="620" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A620">
+        <v>25</v>
+      </c>
+      <c r="C620" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D620" t="s">
+        <v>78</v>
+      </c>
+      <c r="E620" t="s">
+        <v>79</v>
+      </c>
+      <c r="F620" t="s">
+        <v>80</v>
+      </c>
+      <c r="G620">
+        <v>2.1905000000000001</v>
+      </c>
+      <c r="H620">
+        <v>400</v>
+      </c>
+      <c r="I620" s="2">
+        <v>876.2</v>
+      </c>
+      <c r="L620" s="2">
+        <v>0</v>
+      </c>
+      <c r="O620" s="2">
+        <v>0</v>
+      </c>
+      <c r="P620" s="2">
+        <v>876.2</v>
+      </c>
+      <c r="S620" s="2">
+        <v>876.2</v>
+      </c>
+      <c r="U620" s="2">
+        <v>876.2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A621">
+        <v>25</v>
+      </c>
+      <c r="C621" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D621" t="s">
+        <v>78</v>
+      </c>
+      <c r="E621" t="s">
+        <v>79</v>
+      </c>
+      <c r="F621" t="s">
+        <v>80</v>
+      </c>
+      <c r="G621">
+        <v>4.3810000000000002</v>
+      </c>
+      <c r="H621">
+        <v>250</v>
+      </c>
+      <c r="I621" s="2">
+        <v>1095.25</v>
+      </c>
+      <c r="L621" s="2">
+        <v>0</v>
+      </c>
+      <c r="O621" s="2">
+        <v>0</v>
+      </c>
+      <c r="P621" s="2">
+        <v>1095.25</v>
+      </c>
+      <c r="Q621" s="2">
+        <v>400</v>
+      </c>
+      <c r="S621" s="2">
+        <v>1495.25</v>
+      </c>
+      <c r="U621" s="2">
+        <v>1495.25</v>
+      </c>
+    </row>
+    <row r="622" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A622">
+        <v>25</v>
+      </c>
+      <c r="C622" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D622" t="s">
+        <v>45</v>
+      </c>
+      <c r="E622" t="s">
+        <v>46</v>
+      </c>
+      <c r="F622" t="s">
+        <v>47</v>
+      </c>
+      <c r="I622" s="2">
+        <v>0</v>
+      </c>
+      <c r="J622">
+        <v>1</v>
+      </c>
+      <c r="K622">
+        <v>200</v>
+      </c>
+      <c r="L622" s="2">
+        <v>200</v>
+      </c>
+      <c r="M622">
+        <v>0.35</v>
+      </c>
+      <c r="N622">
+        <v>1083.33</v>
+      </c>
+      <c r="O622" s="2">
+        <v>379.16549999999995</v>
+      </c>
+      <c r="P622" s="2">
+        <v>579.16549999999995</v>
+      </c>
+      <c r="S622" s="2">
+        <v>579.16549999999995</v>
+      </c>
+      <c r="U622" s="2">
+        <v>579.16549999999995</v>
+      </c>
+    </row>
+    <row r="623" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A623">
+        <v>25</v>
+      </c>
+      <c r="C623" s="1">
+        <v>45463</v>
+      </c>
+      <c r="D623" t="s">
+        <v>44</v>
+      </c>
+      <c r="E623" t="s">
+        <v>39</v>
+      </c>
+      <c r="F623" t="s">
+        <v>40</v>
+      </c>
+      <c r="I623" s="2">
+        <v>0</v>
+      </c>
+      <c r="L623" s="2">
+        <v>0</v>
+      </c>
+      <c r="M623">
+        <v>1.75</v>
+      </c>
+      <c r="N623">
+        <v>1083.33</v>
+      </c>
+      <c r="O623" s="2">
+        <v>1895.8274999999999</v>
+      </c>
+      <c r="P623" s="2">
+        <v>1895.8274999999999</v>
+      </c>
+      <c r="Q623" s="2">
+        <v>200</v>
+      </c>
+      <c r="S623" s="2">
+        <v>2095.8274999999999</v>
+      </c>
+      <c r="U623" s="2">
+        <v>2095.8274999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6D4DEB-FF72-4A8A-9650-D4BBC7932F74}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15CB91EB-D8AB-49D0-8764-FDB2FABB80CD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="114">
   <si>
     <t>SEMANA</t>
   </si>
@@ -364,6 +364,21 @@
   <si>
     <t>CTVV 2776 - Casa JML Primera Etapa - Miguel Maldonado</t>
   </si>
+  <si>
+    <t>Jesus Soto Días</t>
+  </si>
+  <si>
+    <t>CTVV 2592</t>
+  </si>
+  <si>
+    <t>CTVV 2592 - 6 CASAS TURIN 2A ETAPA- MEDA CASA</t>
+  </si>
+  <si>
+    <t>CTVV 3065</t>
+  </si>
+  <si>
+    <t>CTVV 3065 - Forrado de elevadores - Armando Chávez</t>
+  </si>
 </sst>
 </file>
 
@@ -435,13 +450,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V623" totalsRowShown="0">
-  <autoFilter ref="A1:V623" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V675" totalsRowShown="0">
+  <autoFilter ref="A1:V675" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -787,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V623"/>
+  <dimension ref="A1:V675"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A454" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F589" sqref="F589"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A647" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R651" sqref="R651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28283,6 +28294,2249 @@
         <v>2095.8274999999999</v>
       </c>
     </row>
+    <row r="624" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A624">
+        <v>26</v>
+      </c>
+      <c r="C624" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D624" t="s">
+        <v>62</v>
+      </c>
+      <c r="E624" t="s">
+        <v>95</v>
+      </c>
+      <c r="F624" t="s">
+        <v>96</v>
+      </c>
+      <c r="G624">
+        <v>3.52</v>
+      </c>
+      <c r="H624">
+        <v>700</v>
+      </c>
+      <c r="I624" s="2">
+        <v>2464</v>
+      </c>
+      <c r="J624">
+        <v>5</v>
+      </c>
+      <c r="K624">
+        <v>700</v>
+      </c>
+      <c r="L624" s="2">
+        <v>3500</v>
+      </c>
+      <c r="O624" s="2">
+        <v>0</v>
+      </c>
+      <c r="P624" s="2">
+        <v>5964</v>
+      </c>
+      <c r="S624" s="2">
+        <v>5964</v>
+      </c>
+      <c r="U624" s="2">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="625" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A625">
+        <v>26</v>
+      </c>
+      <c r="C625" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D625" t="s">
+        <v>62</v>
+      </c>
+      <c r="E625" t="s">
+        <v>95</v>
+      </c>
+      <c r="F625" t="s">
+        <v>96</v>
+      </c>
+      <c r="G625">
+        <v>1.84</v>
+      </c>
+      <c r="H625">
+        <v>700</v>
+      </c>
+      <c r="I625" s="2">
+        <v>1288</v>
+      </c>
+      <c r="J625">
+        <v>1</v>
+      </c>
+      <c r="K625">
+        <v>750</v>
+      </c>
+      <c r="L625" s="2">
+        <v>750</v>
+      </c>
+      <c r="O625" s="2">
+        <v>0</v>
+      </c>
+      <c r="P625" s="2">
+        <v>2038</v>
+      </c>
+      <c r="S625" s="2">
+        <v>2038</v>
+      </c>
+      <c r="U625" s="2">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="626" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A626">
+        <v>26</v>
+      </c>
+      <c r="C626" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D626" t="s">
+        <v>62</v>
+      </c>
+      <c r="E626" t="s">
+        <v>95</v>
+      </c>
+      <c r="F626" t="s">
+        <v>96</v>
+      </c>
+      <c r="G626">
+        <v>0.76</v>
+      </c>
+      <c r="H626">
+        <v>700</v>
+      </c>
+      <c r="I626" s="2">
+        <v>532</v>
+      </c>
+      <c r="L626" s="2">
+        <v>0</v>
+      </c>
+      <c r="O626" s="2">
+        <v>0</v>
+      </c>
+      <c r="P626" s="2">
+        <v>532</v>
+      </c>
+      <c r="Q626" s="2">
+        <v>500</v>
+      </c>
+      <c r="S626" s="2">
+        <v>1032</v>
+      </c>
+      <c r="U626" s="2">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="627" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A627">
+        <v>26</v>
+      </c>
+      <c r="C627" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D627" t="s">
+        <v>37</v>
+      </c>
+      <c r="E627" t="s">
+        <v>95</v>
+      </c>
+      <c r="F627" t="s">
+        <v>96</v>
+      </c>
+      <c r="G627">
+        <v>7.5</v>
+      </c>
+      <c r="H627">
+        <v>250</v>
+      </c>
+      <c r="I627" s="2">
+        <v>1875</v>
+      </c>
+      <c r="L627" s="2">
+        <v>0</v>
+      </c>
+      <c r="O627" s="2">
+        <v>0</v>
+      </c>
+      <c r="P627" s="2">
+        <v>1875</v>
+      </c>
+      <c r="S627" s="2">
+        <v>1875</v>
+      </c>
+      <c r="U627" s="2">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="628" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A628">
+        <v>26</v>
+      </c>
+      <c r="C628" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D628" t="s">
+        <v>37</v>
+      </c>
+      <c r="E628" t="s">
+        <v>95</v>
+      </c>
+      <c r="F628" t="s">
+        <v>96</v>
+      </c>
+      <c r="G628">
+        <v>3.71</v>
+      </c>
+      <c r="H628">
+        <v>700</v>
+      </c>
+      <c r="I628" s="2">
+        <v>2597</v>
+      </c>
+      <c r="L628" s="2">
+        <v>0</v>
+      </c>
+      <c r="O628" s="2">
+        <v>0</v>
+      </c>
+      <c r="P628" s="2">
+        <v>2597</v>
+      </c>
+      <c r="S628" s="2">
+        <v>2597</v>
+      </c>
+      <c r="U628" s="2">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="629" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A629">
+        <v>26</v>
+      </c>
+      <c r="C629" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D629" t="s">
+        <v>37</v>
+      </c>
+      <c r="E629" t="s">
+        <v>95</v>
+      </c>
+      <c r="F629" t="s">
+        <v>96</v>
+      </c>
+      <c r="G629">
+        <v>2.95</v>
+      </c>
+      <c r="H629">
+        <v>700</v>
+      </c>
+      <c r="I629" s="2">
+        <v>2065</v>
+      </c>
+      <c r="L629" s="2">
+        <v>0</v>
+      </c>
+      <c r="O629" s="2">
+        <v>0</v>
+      </c>
+      <c r="P629" s="2">
+        <v>2065</v>
+      </c>
+      <c r="S629" s="2">
+        <v>2065</v>
+      </c>
+      <c r="U629" s="2">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="630" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A630">
+        <v>26</v>
+      </c>
+      <c r="C630" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D630" t="s">
+        <v>37</v>
+      </c>
+      <c r="E630" t="s">
+        <v>95</v>
+      </c>
+      <c r="F630" t="s">
+        <v>96</v>
+      </c>
+      <c r="G630">
+        <v>2.95</v>
+      </c>
+      <c r="H630">
+        <v>700</v>
+      </c>
+      <c r="I630" s="2">
+        <v>2065</v>
+      </c>
+      <c r="L630" s="2">
+        <v>0</v>
+      </c>
+      <c r="O630" s="2">
+        <v>0</v>
+      </c>
+      <c r="P630" s="2">
+        <v>2065</v>
+      </c>
+      <c r="S630" s="2">
+        <v>2065</v>
+      </c>
+      <c r="U630" s="2">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="631" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A631">
+        <v>26</v>
+      </c>
+      <c r="C631" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D631" t="s">
+        <v>37</v>
+      </c>
+      <c r="E631" t="s">
+        <v>95</v>
+      </c>
+      <c r="F631" t="s">
+        <v>96</v>
+      </c>
+      <c r="I631" s="2">
+        <v>0</v>
+      </c>
+      <c r="J631">
+        <v>1</v>
+      </c>
+      <c r="K631">
+        <v>1800</v>
+      </c>
+      <c r="L631" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O631" s="2">
+        <v>0</v>
+      </c>
+      <c r="P631" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S631" s="2">
+        <v>1800</v>
+      </c>
+      <c r="U631" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="632" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A632">
+        <v>26</v>
+      </c>
+      <c r="C632" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D632" t="s">
+        <v>37</v>
+      </c>
+      <c r="E632" t="s">
+        <v>95</v>
+      </c>
+      <c r="F632" t="s">
+        <v>96</v>
+      </c>
+      <c r="I632" s="2">
+        <v>0</v>
+      </c>
+      <c r="J632">
+        <v>1</v>
+      </c>
+      <c r="K632">
+        <v>250</v>
+      </c>
+      <c r="L632" s="2">
+        <v>250</v>
+      </c>
+      <c r="O632" s="2">
+        <v>0</v>
+      </c>
+      <c r="P632" s="2">
+        <v>250</v>
+      </c>
+      <c r="S632" s="2">
+        <v>250</v>
+      </c>
+      <c r="U632" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="633" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A633">
+        <v>26</v>
+      </c>
+      <c r="C633" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D633" t="s">
+        <v>37</v>
+      </c>
+      <c r="E633" t="s">
+        <v>95</v>
+      </c>
+      <c r="F633" t="s">
+        <v>96</v>
+      </c>
+      <c r="I633" s="2">
+        <v>0</v>
+      </c>
+      <c r="J633">
+        <v>1</v>
+      </c>
+      <c r="K633">
+        <v>200</v>
+      </c>
+      <c r="L633" s="2">
+        <v>200</v>
+      </c>
+      <c r="O633" s="2">
+        <v>0</v>
+      </c>
+      <c r="P633" s="2">
+        <v>200</v>
+      </c>
+      <c r="S633" s="2">
+        <v>200</v>
+      </c>
+      <c r="U633" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="634" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A634">
+        <v>26</v>
+      </c>
+      <c r="C634" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D634" t="s">
+        <v>37</v>
+      </c>
+      <c r="E634" t="s">
+        <v>95</v>
+      </c>
+      <c r="F634" t="s">
+        <v>96</v>
+      </c>
+      <c r="I634" s="2">
+        <v>0</v>
+      </c>
+      <c r="J634">
+        <v>1</v>
+      </c>
+      <c r="K634">
+        <v>750</v>
+      </c>
+      <c r="L634" s="2">
+        <v>750</v>
+      </c>
+      <c r="O634" s="2">
+        <v>0</v>
+      </c>
+      <c r="P634" s="2">
+        <v>750</v>
+      </c>
+      <c r="S634" s="2">
+        <v>750</v>
+      </c>
+      <c r="U634" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="635" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A635">
+        <v>26</v>
+      </c>
+      <c r="C635" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D635" t="s">
+        <v>37</v>
+      </c>
+      <c r="E635" t="s">
+        <v>95</v>
+      </c>
+      <c r="F635" t="s">
+        <v>96</v>
+      </c>
+      <c r="I635" s="2">
+        <v>0</v>
+      </c>
+      <c r="J635">
+        <v>1</v>
+      </c>
+      <c r="K635">
+        <v>850</v>
+      </c>
+      <c r="L635" s="2">
+        <v>850</v>
+      </c>
+      <c r="O635" s="2">
+        <v>0</v>
+      </c>
+      <c r="P635" s="2">
+        <v>850</v>
+      </c>
+      <c r="S635" s="2">
+        <v>850</v>
+      </c>
+      <c r="U635" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="636" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A636">
+        <v>26</v>
+      </c>
+      <c r="C636" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D636" t="s">
+        <v>37</v>
+      </c>
+      <c r="E636" t="s">
+        <v>95</v>
+      </c>
+      <c r="F636" t="s">
+        <v>96</v>
+      </c>
+      <c r="G636">
+        <v>7.5</v>
+      </c>
+      <c r="H636">
+        <v>250</v>
+      </c>
+      <c r="I636" s="2">
+        <v>1875</v>
+      </c>
+      <c r="L636" s="2">
+        <v>0</v>
+      </c>
+      <c r="O636" s="2">
+        <v>0</v>
+      </c>
+      <c r="P636" s="2">
+        <v>1875</v>
+      </c>
+      <c r="Q636" s="2">
+        <v>500</v>
+      </c>
+      <c r="S636" s="2">
+        <v>2375</v>
+      </c>
+      <c r="U636" s="2">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="637" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A637">
+        <v>26</v>
+      </c>
+      <c r="C637" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D637" t="s">
+        <v>37</v>
+      </c>
+      <c r="E637" t="s">
+        <v>95</v>
+      </c>
+      <c r="F637" t="s">
+        <v>96</v>
+      </c>
+      <c r="I637" s="2">
+        <v>0</v>
+      </c>
+      <c r="L637" s="2">
+        <v>0</v>
+      </c>
+      <c r="M637">
+        <v>1</v>
+      </c>
+      <c r="N637">
+        <v>1083.33</v>
+      </c>
+      <c r="O637" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P637" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="S637" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="U637" s="2">
+        <v>1083.33</v>
+      </c>
+    </row>
+    <row r="638" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A638">
+        <v>26</v>
+      </c>
+      <c r="C638" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D638" t="s">
+        <v>34</v>
+      </c>
+      <c r="E638" t="s">
+        <v>95</v>
+      </c>
+      <c r="F638" t="s">
+        <v>96</v>
+      </c>
+      <c r="G638">
+        <v>5.75</v>
+      </c>
+      <c r="H638">
+        <v>250</v>
+      </c>
+      <c r="I638" s="2">
+        <v>1437.5</v>
+      </c>
+      <c r="L638" s="2">
+        <v>0</v>
+      </c>
+      <c r="O638" s="2">
+        <v>0</v>
+      </c>
+      <c r="P638" s="2">
+        <v>1437.5</v>
+      </c>
+      <c r="S638" s="2">
+        <v>1437.5</v>
+      </c>
+      <c r="U638" s="2">
+        <v>1437.5</v>
+      </c>
+    </row>
+    <row r="639" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A639">
+        <v>26</v>
+      </c>
+      <c r="C639" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D639" t="s">
+        <v>34</v>
+      </c>
+      <c r="E639" t="s">
+        <v>95</v>
+      </c>
+      <c r="F639" t="s">
+        <v>96</v>
+      </c>
+      <c r="G639">
+        <v>2.36</v>
+      </c>
+      <c r="H639">
+        <v>700</v>
+      </c>
+      <c r="I639" s="2">
+        <v>1652</v>
+      </c>
+      <c r="J639">
+        <v>5</v>
+      </c>
+      <c r="K639">
+        <v>700</v>
+      </c>
+      <c r="L639" s="2">
+        <v>3500</v>
+      </c>
+      <c r="O639" s="2">
+        <v>0</v>
+      </c>
+      <c r="P639" s="2">
+        <v>5152</v>
+      </c>
+      <c r="S639" s="2">
+        <v>5152</v>
+      </c>
+      <c r="U639" s="2">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="640" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A640">
+        <v>26</v>
+      </c>
+      <c r="C640" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D640" t="s">
+        <v>34</v>
+      </c>
+      <c r="E640" t="s">
+        <v>95</v>
+      </c>
+      <c r="F640" t="s">
+        <v>96</v>
+      </c>
+      <c r="G640">
+        <v>3.68</v>
+      </c>
+      <c r="H640">
+        <v>250</v>
+      </c>
+      <c r="I640" s="2">
+        <v>920</v>
+      </c>
+      <c r="L640" s="2">
+        <v>0</v>
+      </c>
+      <c r="O640" s="2">
+        <v>0</v>
+      </c>
+      <c r="P640" s="2">
+        <v>920</v>
+      </c>
+      <c r="Q640" s="2">
+        <v>500</v>
+      </c>
+      <c r="S640" s="2">
+        <v>1420</v>
+      </c>
+      <c r="U640" s="2">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="641" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A641">
+        <v>26</v>
+      </c>
+      <c r="C641" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D641" t="s">
+        <v>56</v>
+      </c>
+      <c r="E641" t="s">
+        <v>76</v>
+      </c>
+      <c r="F641" t="s">
+        <v>77</v>
+      </c>
+      <c r="G641">
+        <v>0.72</v>
+      </c>
+      <c r="H641">
+        <v>500</v>
+      </c>
+      <c r="I641" s="2">
+        <v>360</v>
+      </c>
+      <c r="L641" s="2">
+        <v>0</v>
+      </c>
+      <c r="O641" s="2">
+        <v>0</v>
+      </c>
+      <c r="P641" s="2">
+        <v>360</v>
+      </c>
+      <c r="S641" s="2">
+        <v>360</v>
+      </c>
+      <c r="U641" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="642" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A642">
+        <v>26</v>
+      </c>
+      <c r="C642" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D642" t="s">
+        <v>56</v>
+      </c>
+      <c r="E642" t="s">
+        <v>76</v>
+      </c>
+      <c r="F642" t="s">
+        <v>77</v>
+      </c>
+      <c r="G642">
+        <v>6.11</v>
+      </c>
+      <c r="H642">
+        <v>750</v>
+      </c>
+      <c r="I642" s="2">
+        <v>4582.5</v>
+      </c>
+      <c r="L642" s="2">
+        <v>0</v>
+      </c>
+      <c r="O642" s="2">
+        <v>0</v>
+      </c>
+      <c r="P642" s="2">
+        <v>4582.5</v>
+      </c>
+      <c r="S642" s="2">
+        <v>4582.5</v>
+      </c>
+      <c r="U642" s="2">
+        <v>4582.5</v>
+      </c>
+    </row>
+    <row r="643" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A643">
+        <v>26</v>
+      </c>
+      <c r="C643" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D643" t="s">
+        <v>56</v>
+      </c>
+      <c r="E643" t="s">
+        <v>76</v>
+      </c>
+      <c r="F643" t="s">
+        <v>77</v>
+      </c>
+      <c r="G643">
+        <v>5.2</v>
+      </c>
+      <c r="H643">
+        <v>400</v>
+      </c>
+      <c r="I643" s="2">
+        <v>2080</v>
+      </c>
+      <c r="L643" s="2">
+        <v>0</v>
+      </c>
+      <c r="O643" s="2">
+        <v>0</v>
+      </c>
+      <c r="P643" s="2">
+        <v>2080</v>
+      </c>
+      <c r="Q643" s="2">
+        <v>500</v>
+      </c>
+      <c r="S643" s="2">
+        <v>2580</v>
+      </c>
+      <c r="U643" s="2">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="644" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A644">
+        <v>26</v>
+      </c>
+      <c r="C644" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D644" t="s">
+        <v>78</v>
+      </c>
+      <c r="E644" t="s">
+        <v>79</v>
+      </c>
+      <c r="F644" t="s">
+        <v>80</v>
+      </c>
+      <c r="G644">
+        <v>2.1905000000000001</v>
+      </c>
+      <c r="H644">
+        <v>400</v>
+      </c>
+      <c r="I644" s="2">
+        <v>876.2</v>
+      </c>
+      <c r="J644">
+        <v>1</v>
+      </c>
+      <c r="K644">
+        <v>300</v>
+      </c>
+      <c r="L644" s="2">
+        <v>300</v>
+      </c>
+      <c r="M644">
+        <v>1</v>
+      </c>
+      <c r="N644">
+        <v>1083.33</v>
+      </c>
+      <c r="O644" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P644" s="2">
+        <v>2259.5299999999997</v>
+      </c>
+      <c r="S644" s="2">
+        <v>2259.5299999999997</v>
+      </c>
+      <c r="U644" s="2">
+        <v>2259.5299999999997</v>
+      </c>
+    </row>
+    <row r="645" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A645">
+        <v>26</v>
+      </c>
+      <c r="C645" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D645" t="s">
+        <v>78</v>
+      </c>
+      <c r="E645" t="s">
+        <v>79</v>
+      </c>
+      <c r="F645" t="s">
+        <v>80</v>
+      </c>
+      <c r="G645">
+        <v>4.3810000000000002</v>
+      </c>
+      <c r="H645">
+        <v>250</v>
+      </c>
+      <c r="I645" s="2">
+        <v>1095.25</v>
+      </c>
+      <c r="L645" s="2">
+        <v>0</v>
+      </c>
+      <c r="M645">
+        <v>0.75</v>
+      </c>
+      <c r="N645">
+        <v>1083.33</v>
+      </c>
+      <c r="O645" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P645" s="2">
+        <v>1907.7474999999999</v>
+      </c>
+      <c r="S645" s="2">
+        <v>1907.7474999999999</v>
+      </c>
+      <c r="U645" s="2">
+        <v>1907.7474999999999</v>
+      </c>
+    </row>
+    <row r="646" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A646">
+        <v>26</v>
+      </c>
+      <c r="C646" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D646" t="s">
+        <v>78</v>
+      </c>
+      <c r="E646" t="s">
+        <v>79</v>
+      </c>
+      <c r="F646" t="s">
+        <v>80</v>
+      </c>
+      <c r="I646" s="2">
+        <v>0</v>
+      </c>
+      <c r="L646" s="2">
+        <v>0</v>
+      </c>
+      <c r="M646">
+        <v>0.35</v>
+      </c>
+      <c r="N646">
+        <v>1083.33</v>
+      </c>
+      <c r="O646" s="2">
+        <v>379.16549999999995</v>
+      </c>
+      <c r="P646" s="2">
+        <v>379.16549999999995</v>
+      </c>
+      <c r="S646" s="2">
+        <v>379.16549999999995</v>
+      </c>
+      <c r="U646" s="2">
+        <v>379.16549999999995</v>
+      </c>
+    </row>
+    <row r="647" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A647">
+        <v>26</v>
+      </c>
+      <c r="C647" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D647" t="s">
+        <v>78</v>
+      </c>
+      <c r="E647" t="s">
+        <v>79</v>
+      </c>
+      <c r="F647" t="s">
+        <v>80</v>
+      </c>
+      <c r="I647" s="2">
+        <v>0</v>
+      </c>
+      <c r="L647" s="2">
+        <v>0</v>
+      </c>
+      <c r="M647">
+        <v>0.35</v>
+      </c>
+      <c r="N647">
+        <v>1083.33</v>
+      </c>
+      <c r="O647" s="2">
+        <v>379.16549999999995</v>
+      </c>
+      <c r="P647" s="2">
+        <v>379.16549999999995</v>
+      </c>
+      <c r="Q647" s="2">
+        <v>500</v>
+      </c>
+      <c r="S647" s="2">
+        <v>879.16549999999995</v>
+      </c>
+      <c r="U647" s="2">
+        <v>879.16549999999995</v>
+      </c>
+    </row>
+    <row r="648" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A648">
+        <v>26</v>
+      </c>
+      <c r="C648" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D648" t="s">
+        <v>38</v>
+      </c>
+      <c r="E648" t="s">
+        <v>107</v>
+      </c>
+      <c r="F648" t="s">
+        <v>108</v>
+      </c>
+      <c r="G648">
+        <v>1.5</v>
+      </c>
+      <c r="H648">
+        <v>800</v>
+      </c>
+      <c r="I648" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L648" s="2">
+        <v>0</v>
+      </c>
+      <c r="O648" s="2">
+        <v>0</v>
+      </c>
+      <c r="P648" s="2">
+        <v>1200</v>
+      </c>
+      <c r="S648" s="2">
+        <v>1200</v>
+      </c>
+      <c r="U648" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="649" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A649">
+        <v>26</v>
+      </c>
+      <c r="C649" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D649" t="s">
+        <v>53</v>
+      </c>
+      <c r="E649" t="s">
+        <v>107</v>
+      </c>
+      <c r="F649" t="s">
+        <v>108</v>
+      </c>
+      <c r="I649" s="2">
+        <v>0</v>
+      </c>
+      <c r="J649">
+        <v>1</v>
+      </c>
+      <c r="K649">
+        <v>1200</v>
+      </c>
+      <c r="L649" s="2">
+        <v>1200</v>
+      </c>
+      <c r="O649" s="2">
+        <v>0</v>
+      </c>
+      <c r="P649" s="2">
+        <v>1200</v>
+      </c>
+      <c r="Q649" s="2">
+        <v>100</v>
+      </c>
+      <c r="S649" s="2">
+        <v>1300</v>
+      </c>
+      <c r="U649" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="650" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A650">
+        <v>26</v>
+      </c>
+      <c r="C650" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D650" t="s">
+        <v>109</v>
+      </c>
+      <c r="E650" t="s">
+        <v>110</v>
+      </c>
+      <c r="F650" t="s">
+        <v>111</v>
+      </c>
+      <c r="G650">
+        <v>2.83</v>
+      </c>
+      <c r="H650">
+        <v>700</v>
+      </c>
+      <c r="I650" s="2">
+        <v>1981</v>
+      </c>
+      <c r="L650" s="2">
+        <v>0</v>
+      </c>
+      <c r="O650" s="2">
+        <v>0</v>
+      </c>
+      <c r="P650" s="2">
+        <v>1981</v>
+      </c>
+      <c r="S650" s="2">
+        <v>1981</v>
+      </c>
+      <c r="U650" s="2">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="651" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A651">
+        <v>26</v>
+      </c>
+      <c r="C651" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D651" t="s">
+        <v>29</v>
+      </c>
+      <c r="E651" t="s">
+        <v>84</v>
+      </c>
+      <c r="F651" t="s">
+        <v>85</v>
+      </c>
+      <c r="I651" s="2">
+        <v>0</v>
+      </c>
+      <c r="J651">
+        <v>1</v>
+      </c>
+      <c r="K651">
+        <v>150</v>
+      </c>
+      <c r="L651" s="2">
+        <v>150</v>
+      </c>
+      <c r="O651" s="2">
+        <v>0</v>
+      </c>
+      <c r="P651" s="2">
+        <v>150</v>
+      </c>
+      <c r="S651" s="2">
+        <v>150</v>
+      </c>
+      <c r="U651" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="652" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A652">
+        <v>26</v>
+      </c>
+      <c r="C652" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D652" t="s">
+        <v>29</v>
+      </c>
+      <c r="E652" t="s">
+        <v>84</v>
+      </c>
+      <c r="F652" t="s">
+        <v>85</v>
+      </c>
+      <c r="I652" s="2">
+        <v>0</v>
+      </c>
+      <c r="J652">
+        <v>1</v>
+      </c>
+      <c r="K652">
+        <v>150</v>
+      </c>
+      <c r="L652" s="2">
+        <v>150</v>
+      </c>
+      <c r="O652" s="2">
+        <v>0</v>
+      </c>
+      <c r="P652" s="2">
+        <v>150</v>
+      </c>
+      <c r="S652" s="2">
+        <v>150</v>
+      </c>
+      <c r="U652" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="653" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A653">
+        <v>26</v>
+      </c>
+      <c r="C653" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D653" t="s">
+        <v>29</v>
+      </c>
+      <c r="E653" t="s">
+        <v>84</v>
+      </c>
+      <c r="F653" t="s">
+        <v>85</v>
+      </c>
+      <c r="I653" s="2">
+        <v>0</v>
+      </c>
+      <c r="J653">
+        <v>1</v>
+      </c>
+      <c r="K653">
+        <v>150</v>
+      </c>
+      <c r="L653" s="2">
+        <v>150</v>
+      </c>
+      <c r="O653" s="2">
+        <v>0</v>
+      </c>
+      <c r="P653" s="2">
+        <v>150</v>
+      </c>
+      <c r="S653" s="2">
+        <v>150</v>
+      </c>
+      <c r="U653" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="654" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A654">
+        <v>26</v>
+      </c>
+      <c r="C654" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D654" t="s">
+        <v>29</v>
+      </c>
+      <c r="E654" t="s">
+        <v>84</v>
+      </c>
+      <c r="F654" t="s">
+        <v>85</v>
+      </c>
+      <c r="I654" s="2">
+        <v>0</v>
+      </c>
+      <c r="J654">
+        <v>1</v>
+      </c>
+      <c r="K654">
+        <v>150</v>
+      </c>
+      <c r="L654" s="2">
+        <v>150</v>
+      </c>
+      <c r="O654" s="2">
+        <v>0</v>
+      </c>
+      <c r="P654" s="2">
+        <v>150</v>
+      </c>
+      <c r="S654" s="2">
+        <v>150</v>
+      </c>
+      <c r="U654" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="655" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A655">
+        <v>26</v>
+      </c>
+      <c r="C655" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D655" t="s">
+        <v>29</v>
+      </c>
+      <c r="E655" t="s">
+        <v>84</v>
+      </c>
+      <c r="F655" t="s">
+        <v>85</v>
+      </c>
+      <c r="I655" s="2">
+        <v>0</v>
+      </c>
+      <c r="J655">
+        <v>1</v>
+      </c>
+      <c r="K655">
+        <v>150</v>
+      </c>
+      <c r="L655" s="2">
+        <v>150</v>
+      </c>
+      <c r="O655" s="2">
+        <v>0</v>
+      </c>
+      <c r="P655" s="2">
+        <v>150</v>
+      </c>
+      <c r="S655" s="2">
+        <v>150</v>
+      </c>
+      <c r="U655" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="656" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A656">
+        <v>26</v>
+      </c>
+      <c r="C656" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D656" t="s">
+        <v>29</v>
+      </c>
+      <c r="E656" t="s">
+        <v>84</v>
+      </c>
+      <c r="F656" t="s">
+        <v>85</v>
+      </c>
+      <c r="I656" s="2">
+        <v>0</v>
+      </c>
+      <c r="J656">
+        <v>1</v>
+      </c>
+      <c r="K656">
+        <v>150</v>
+      </c>
+      <c r="L656" s="2">
+        <v>150</v>
+      </c>
+      <c r="O656" s="2">
+        <v>0</v>
+      </c>
+      <c r="P656" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q656" s="2">
+        <v>200</v>
+      </c>
+      <c r="S656" s="2">
+        <v>350</v>
+      </c>
+      <c r="U656" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="657" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A657">
+        <v>26</v>
+      </c>
+      <c r="C657" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D657" t="s">
+        <v>22</v>
+      </c>
+      <c r="E657" t="s">
+        <v>23</v>
+      </c>
+      <c r="F657" t="s">
+        <v>24</v>
+      </c>
+      <c r="I657" s="2">
+        <v>0</v>
+      </c>
+      <c r="J657">
+        <v>10</v>
+      </c>
+      <c r="K657">
+        <v>140</v>
+      </c>
+      <c r="L657" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O657" s="2">
+        <v>0</v>
+      </c>
+      <c r="P657" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S657" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U657" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="658" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A658">
+        <v>26</v>
+      </c>
+      <c r="C658" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D658" t="s">
+        <v>41</v>
+      </c>
+      <c r="E658" t="s">
+        <v>105</v>
+      </c>
+      <c r="F658" t="s">
+        <v>106</v>
+      </c>
+      <c r="G658">
+        <v>1.17</v>
+      </c>
+      <c r="H658">
+        <v>700</v>
+      </c>
+      <c r="I658" s="2">
+        <v>819</v>
+      </c>
+      <c r="J658">
+        <v>1</v>
+      </c>
+      <c r="K658">
+        <v>500</v>
+      </c>
+      <c r="L658" s="2">
+        <v>500</v>
+      </c>
+      <c r="O658" s="2">
+        <v>0</v>
+      </c>
+      <c r="P658" s="2">
+        <v>1319</v>
+      </c>
+      <c r="S658" s="2">
+        <v>1319</v>
+      </c>
+      <c r="U658" s="2">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="659" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A659">
+        <v>26</v>
+      </c>
+      <c r="C659" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D659" t="s">
+        <v>41</v>
+      </c>
+      <c r="E659" t="s">
+        <v>105</v>
+      </c>
+      <c r="F659" t="s">
+        <v>106</v>
+      </c>
+      <c r="G659">
+        <v>1.95</v>
+      </c>
+      <c r="H659">
+        <v>300</v>
+      </c>
+      <c r="I659" s="2">
+        <v>585</v>
+      </c>
+      <c r="L659" s="2">
+        <v>0</v>
+      </c>
+      <c r="O659" s="2">
+        <v>0</v>
+      </c>
+      <c r="P659" s="2">
+        <v>585</v>
+      </c>
+      <c r="S659" s="2">
+        <v>585</v>
+      </c>
+      <c r="U659" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="660" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A660">
+        <v>26</v>
+      </c>
+      <c r="C660" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D660" t="s">
+        <v>59</v>
+      </c>
+      <c r="E660" t="s">
+        <v>105</v>
+      </c>
+      <c r="F660" t="s">
+        <v>106</v>
+      </c>
+      <c r="G660">
+        <v>1.17</v>
+      </c>
+      <c r="H660">
+        <v>700</v>
+      </c>
+      <c r="I660" s="2">
+        <v>819</v>
+      </c>
+      <c r="L660" s="2">
+        <v>0</v>
+      </c>
+      <c r="O660" s="2">
+        <v>0</v>
+      </c>
+      <c r="P660" s="2">
+        <v>819</v>
+      </c>
+      <c r="S660" s="2">
+        <v>819</v>
+      </c>
+      <c r="U660" s="2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="661" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A661">
+        <v>26</v>
+      </c>
+      <c r="C661" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D661" t="s">
+        <v>59</v>
+      </c>
+      <c r="E661" t="s">
+        <v>105</v>
+      </c>
+      <c r="F661" t="s">
+        <v>106</v>
+      </c>
+      <c r="G661">
+        <v>1.95</v>
+      </c>
+      <c r="H661">
+        <v>300</v>
+      </c>
+      <c r="I661" s="2">
+        <v>585</v>
+      </c>
+      <c r="L661" s="2">
+        <v>0</v>
+      </c>
+      <c r="O661" s="2">
+        <v>0</v>
+      </c>
+      <c r="P661" s="2">
+        <v>585</v>
+      </c>
+      <c r="S661" s="2">
+        <v>585</v>
+      </c>
+      <c r="U661" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="662" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A662">
+        <v>26</v>
+      </c>
+      <c r="C662" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D662" t="s">
+        <v>81</v>
+      </c>
+      <c r="E662" t="s">
+        <v>105</v>
+      </c>
+      <c r="F662" t="s">
+        <v>106</v>
+      </c>
+      <c r="G662">
+        <v>2.34</v>
+      </c>
+      <c r="H662">
+        <v>700</v>
+      </c>
+      <c r="I662" s="2">
+        <v>1638</v>
+      </c>
+      <c r="J662">
+        <v>1</v>
+      </c>
+      <c r="K662">
+        <v>250</v>
+      </c>
+      <c r="L662" s="2">
+        <v>250</v>
+      </c>
+      <c r="O662" s="2">
+        <v>0</v>
+      </c>
+      <c r="P662" s="2">
+        <v>1888</v>
+      </c>
+      <c r="S662" s="2">
+        <v>1888</v>
+      </c>
+      <c r="U662" s="2">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="663" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A663">
+        <v>26</v>
+      </c>
+      <c r="C663" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D663" t="s">
+        <v>81</v>
+      </c>
+      <c r="E663" t="s">
+        <v>105</v>
+      </c>
+      <c r="F663" t="s">
+        <v>106</v>
+      </c>
+      <c r="G663">
+        <v>2.4</v>
+      </c>
+      <c r="H663">
+        <v>300</v>
+      </c>
+      <c r="I663" s="2">
+        <v>720</v>
+      </c>
+      <c r="J663">
+        <v>1</v>
+      </c>
+      <c r="K663">
+        <v>200</v>
+      </c>
+      <c r="L663" s="2">
+        <v>200</v>
+      </c>
+      <c r="O663" s="2">
+        <v>0</v>
+      </c>
+      <c r="P663" s="2">
+        <v>920</v>
+      </c>
+      <c r="S663" s="2">
+        <v>920</v>
+      </c>
+      <c r="U663" s="2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="664" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A664">
+        <v>26</v>
+      </c>
+      <c r="C664" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D664" t="s">
+        <v>81</v>
+      </c>
+      <c r="E664" t="s">
+        <v>105</v>
+      </c>
+      <c r="F664" t="s">
+        <v>106</v>
+      </c>
+      <c r="G664">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H664">
+        <v>700</v>
+      </c>
+      <c r="I664" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="J664">
+        <v>1</v>
+      </c>
+      <c r="K664">
+        <v>200</v>
+      </c>
+      <c r="L664" s="2">
+        <v>200</v>
+      </c>
+      <c r="O664" s="2">
+        <v>0</v>
+      </c>
+      <c r="P664" s="2">
+        <v>847.5</v>
+      </c>
+      <c r="S664" s="2">
+        <v>847.5</v>
+      </c>
+      <c r="U664" s="2">
+        <v>847.5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A665">
+        <v>26</v>
+      </c>
+      <c r="C665" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D665" t="s">
+        <v>81</v>
+      </c>
+      <c r="E665" t="s">
+        <v>105</v>
+      </c>
+      <c r="F665" t="s">
+        <v>106</v>
+      </c>
+      <c r="G665">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H665">
+        <v>700</v>
+      </c>
+      <c r="I665" s="2">
+        <v>549.5</v>
+      </c>
+      <c r="L665" s="2">
+        <v>0</v>
+      </c>
+      <c r="O665" s="2">
+        <v>0</v>
+      </c>
+      <c r="P665" s="2">
+        <v>549.5</v>
+      </c>
+      <c r="S665" s="2">
+        <v>549.5</v>
+      </c>
+      <c r="U665" s="2">
+        <v>549.5</v>
+      </c>
+    </row>
+    <row r="666" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A666">
+        <v>26</v>
+      </c>
+      <c r="C666" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D666" t="s">
+        <v>81</v>
+      </c>
+      <c r="E666" t="s">
+        <v>105</v>
+      </c>
+      <c r="F666" t="s">
+        <v>106</v>
+      </c>
+      <c r="G666">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H666">
+        <v>700</v>
+      </c>
+      <c r="I666" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="L666" s="2">
+        <v>0</v>
+      </c>
+      <c r="O666" s="2">
+        <v>0</v>
+      </c>
+      <c r="P666" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="S666" s="2">
+        <v>647.5</v>
+      </c>
+      <c r="U666" s="2">
+        <v>647.5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A667">
+        <v>26</v>
+      </c>
+      <c r="C667" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D667" t="s">
+        <v>81</v>
+      </c>
+      <c r="E667" t="s">
+        <v>105</v>
+      </c>
+      <c r="F667" t="s">
+        <v>106</v>
+      </c>
+      <c r="G667">
+        <v>0.73</v>
+      </c>
+      <c r="H667">
+        <v>700</v>
+      </c>
+      <c r="I667" s="2">
+        <v>511</v>
+      </c>
+      <c r="L667" s="2">
+        <v>0</v>
+      </c>
+      <c r="O667" s="2">
+        <v>0</v>
+      </c>
+      <c r="P667" s="2">
+        <v>511</v>
+      </c>
+      <c r="Q667" s="2">
+        <v>500</v>
+      </c>
+      <c r="S667" s="2">
+        <v>1011</v>
+      </c>
+      <c r="U667" s="2">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="668" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A668">
+        <v>26</v>
+      </c>
+      <c r="C668" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D668" t="s">
+        <v>34</v>
+      </c>
+      <c r="E668" t="s">
+        <v>84</v>
+      </c>
+      <c r="F668" t="s">
+        <v>85</v>
+      </c>
+      <c r="G668">
+        <v>2</v>
+      </c>
+      <c r="H668">
+        <v>700</v>
+      </c>
+      <c r="I668" s="2">
+        <v>1400</v>
+      </c>
+      <c r="L668" s="2">
+        <v>0</v>
+      </c>
+      <c r="O668" s="2">
+        <v>0</v>
+      </c>
+      <c r="P668" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S668" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U668" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="669" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A669">
+        <v>26</v>
+      </c>
+      <c r="C669" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D669" t="s">
+        <v>34</v>
+      </c>
+      <c r="E669" t="s">
+        <v>84</v>
+      </c>
+      <c r="F669" t="s">
+        <v>85</v>
+      </c>
+      <c r="G669">
+        <v>2</v>
+      </c>
+      <c r="H669">
+        <v>700</v>
+      </c>
+      <c r="I669" s="2">
+        <v>1400</v>
+      </c>
+      <c r="L669" s="2">
+        <v>0</v>
+      </c>
+      <c r="O669" s="2">
+        <v>0</v>
+      </c>
+      <c r="P669" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S669" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U669" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="670" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A670">
+        <v>26</v>
+      </c>
+      <c r="C670" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D670" t="s">
+        <v>44</v>
+      </c>
+      <c r="E670" t="s">
+        <v>39</v>
+      </c>
+      <c r="F670" t="s">
+        <v>40</v>
+      </c>
+      <c r="I670" s="2">
+        <v>0</v>
+      </c>
+      <c r="L670" s="2">
+        <v>0</v>
+      </c>
+      <c r="M670">
+        <v>0.65</v>
+      </c>
+      <c r="N670">
+        <v>1083.33</v>
+      </c>
+      <c r="O670" s="2">
+        <v>704.16449999999998</v>
+      </c>
+      <c r="P670" s="2">
+        <v>704.16449999999998</v>
+      </c>
+      <c r="S670" s="2">
+        <v>704.16449999999998</v>
+      </c>
+      <c r="U670" s="2">
+        <v>704.16449999999998</v>
+      </c>
+    </row>
+    <row r="671" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A671">
+        <v>26</v>
+      </c>
+      <c r="C671" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D671" t="s">
+        <v>44</v>
+      </c>
+      <c r="E671" t="s">
+        <v>39</v>
+      </c>
+      <c r="F671" t="s">
+        <v>40</v>
+      </c>
+      <c r="I671" s="2">
+        <v>0</v>
+      </c>
+      <c r="L671" s="2">
+        <v>0</v>
+      </c>
+      <c r="M671">
+        <v>0.5</v>
+      </c>
+      <c r="N671">
+        <v>1083.33</v>
+      </c>
+      <c r="O671" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P671" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="Q671" s="2">
+        <v>100</v>
+      </c>
+      <c r="S671" s="2">
+        <v>641.66499999999996</v>
+      </c>
+      <c r="U671" s="2">
+        <v>641.66499999999996</v>
+      </c>
+    </row>
+    <row r="672" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A672">
+        <v>26</v>
+      </c>
+      <c r="C672" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D672" t="s">
+        <v>48</v>
+      </c>
+      <c r="E672" t="s">
+        <v>105</v>
+      </c>
+      <c r="F672" t="s">
+        <v>106</v>
+      </c>
+      <c r="G672">
+        <v>2.96</v>
+      </c>
+      <c r="H672">
+        <v>700</v>
+      </c>
+      <c r="I672" s="2">
+        <v>2072</v>
+      </c>
+      <c r="J672">
+        <v>1</v>
+      </c>
+      <c r="K672">
+        <v>200</v>
+      </c>
+      <c r="L672" s="2">
+        <v>200</v>
+      </c>
+      <c r="O672" s="2">
+        <v>0</v>
+      </c>
+      <c r="P672" s="2">
+        <v>2272</v>
+      </c>
+      <c r="S672" s="2">
+        <v>2272</v>
+      </c>
+      <c r="U672" s="2">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="673" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A673">
+        <v>26</v>
+      </c>
+      <c r="C673" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D673" t="s">
+        <v>48</v>
+      </c>
+      <c r="E673" t="s">
+        <v>105</v>
+      </c>
+      <c r="F673" t="s">
+        <v>106</v>
+      </c>
+      <c r="G673">
+        <v>1.74</v>
+      </c>
+      <c r="H673">
+        <v>700</v>
+      </c>
+      <c r="I673" s="2">
+        <v>1218</v>
+      </c>
+      <c r="J673">
+        <v>1</v>
+      </c>
+      <c r="K673">
+        <v>200</v>
+      </c>
+      <c r="L673" s="2">
+        <v>200</v>
+      </c>
+      <c r="O673" s="2">
+        <v>0</v>
+      </c>
+      <c r="P673" s="2">
+        <v>1418</v>
+      </c>
+      <c r="S673" s="2">
+        <v>1418</v>
+      </c>
+      <c r="U673" s="2">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="674" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A674">
+        <v>26</v>
+      </c>
+      <c r="C674" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D674" t="s">
+        <v>48</v>
+      </c>
+      <c r="E674" t="s">
+        <v>105</v>
+      </c>
+      <c r="F674" t="s">
+        <v>106</v>
+      </c>
+      <c r="G674">
+        <v>1.66</v>
+      </c>
+      <c r="H674">
+        <v>700</v>
+      </c>
+      <c r="I674" s="2">
+        <v>1162</v>
+      </c>
+      <c r="J674">
+        <v>1</v>
+      </c>
+      <c r="K674">
+        <v>200</v>
+      </c>
+      <c r="L674" s="2">
+        <v>200</v>
+      </c>
+      <c r="O674" s="2">
+        <v>0</v>
+      </c>
+      <c r="P674" s="2">
+        <v>1362</v>
+      </c>
+      <c r="Q674" s="2">
+        <v>500</v>
+      </c>
+      <c r="S674" s="2">
+        <v>1862</v>
+      </c>
+      <c r="U674" s="2">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="675" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A675">
+        <v>26</v>
+      </c>
+      <c r="C675" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D675" t="s">
+        <v>59</v>
+      </c>
+      <c r="E675" t="s">
+        <v>112</v>
+      </c>
+      <c r="F675" t="s">
+        <v>113</v>
+      </c>
+      <c r="I675" s="2">
+        <v>0</v>
+      </c>
+      <c r="L675" s="2">
+        <v>0</v>
+      </c>
+      <c r="M675">
+        <v>2</v>
+      </c>
+      <c r="N675">
+        <v>750</v>
+      </c>
+      <c r="O675" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P675" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Q675" s="2">
+        <v>100</v>
+      </c>
+      <c r="S675" s="2">
+        <v>1600</v>
+      </c>
+      <c r="U675" s="2">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4533F26B-BEAB-40F4-99BC-2219DF79CD57}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BEAFD22-68DA-4736-88A0-3E20D2FE4C32}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="128">
   <si>
     <t>SEMANA</t>
   </si>
@@ -492,9 +492,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V977" totalsRowShown="0">
-  <autoFilter ref="A1:V977" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1011" totalsRowShown="0">
+  <autoFilter ref="A1:V1011" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -840,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V977"/>
+  <dimension ref="A1:V1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A867" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A873" sqref="A873:V977"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A960" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F969" sqref="F969"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43756,6 +43760,1505 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="978" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A978">
+        <v>35</v>
+      </c>
+      <c r="C978" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D978" t="s">
+        <v>62</v>
+      </c>
+      <c r="E978" t="s">
+        <v>95</v>
+      </c>
+      <c r="F978" t="s">
+        <v>96</v>
+      </c>
+      <c r="G978">
+        <v>3.2</v>
+      </c>
+      <c r="H978">
+        <v>250</v>
+      </c>
+      <c r="I978" s="2">
+        <v>800</v>
+      </c>
+      <c r="J978">
+        <v>1</v>
+      </c>
+      <c r="K978">
+        <v>120</v>
+      </c>
+      <c r="L978" s="2">
+        <v>120</v>
+      </c>
+      <c r="O978" s="2">
+        <v>0</v>
+      </c>
+      <c r="P978" s="2">
+        <v>920</v>
+      </c>
+      <c r="S978" s="2">
+        <v>920</v>
+      </c>
+      <c r="U978" s="2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="979" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A979">
+        <v>35</v>
+      </c>
+      <c r="C979" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D979" t="s">
+        <v>34</v>
+      </c>
+      <c r="E979" t="s">
+        <v>122</v>
+      </c>
+      <c r="F979" t="s">
+        <v>123</v>
+      </c>
+      <c r="G979">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="H979">
+        <v>700</v>
+      </c>
+      <c r="I979" s="2">
+        <v>2706.2000000000003</v>
+      </c>
+      <c r="J979">
+        <v>1</v>
+      </c>
+      <c r="K979">
+        <v>400</v>
+      </c>
+      <c r="L979" s="2">
+        <v>400</v>
+      </c>
+      <c r="O979" s="2">
+        <v>0</v>
+      </c>
+      <c r="P979" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+      <c r="S979" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+      <c r="U979" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+    </row>
+    <row r="980" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A980">
+        <v>35</v>
+      </c>
+      <c r="C980" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D980" t="s">
+        <v>34</v>
+      </c>
+      <c r="E980" t="s">
+        <v>122</v>
+      </c>
+      <c r="F980" t="s">
+        <v>123</v>
+      </c>
+      <c r="I980" s="2">
+        <v>0</v>
+      </c>
+      <c r="J980">
+        <v>1</v>
+      </c>
+      <c r="K980">
+        <v>200</v>
+      </c>
+      <c r="L980" s="2">
+        <v>200</v>
+      </c>
+      <c r="O980" s="2">
+        <v>0</v>
+      </c>
+      <c r="P980" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q980" s="2">
+        <v>200</v>
+      </c>
+      <c r="S980" s="2">
+        <v>400</v>
+      </c>
+      <c r="U980" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="981" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A981">
+        <v>35</v>
+      </c>
+      <c r="C981" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D981" t="s">
+        <v>45</v>
+      </c>
+      <c r="E981" t="s">
+        <v>122</v>
+      </c>
+      <c r="F981" t="s">
+        <v>123</v>
+      </c>
+      <c r="G981">
+        <v>1.806</v>
+      </c>
+      <c r="H981">
+        <v>700</v>
+      </c>
+      <c r="I981" s="2">
+        <v>1264.2</v>
+      </c>
+      <c r="J981">
+        <v>1</v>
+      </c>
+      <c r="K981">
+        <v>200</v>
+      </c>
+      <c r="L981" s="2">
+        <v>200</v>
+      </c>
+      <c r="O981" s="2">
+        <v>0</v>
+      </c>
+      <c r="P981" s="2">
+        <v>1464.2</v>
+      </c>
+      <c r="S981" s="2">
+        <v>1464.2</v>
+      </c>
+      <c r="U981" s="2">
+        <v>1464.2</v>
+      </c>
+    </row>
+    <row r="982" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A982">
+        <v>35</v>
+      </c>
+      <c r="C982" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D982" t="s">
+        <v>45</v>
+      </c>
+      <c r="E982" t="s">
+        <v>122</v>
+      </c>
+      <c r="F982" t="s">
+        <v>123</v>
+      </c>
+      <c r="G982">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H982">
+        <v>700</v>
+      </c>
+      <c r="I982" s="2">
+        <v>1624</v>
+      </c>
+      <c r="L982" s="2">
+        <v>0</v>
+      </c>
+      <c r="O982" s="2">
+        <v>0</v>
+      </c>
+      <c r="P982" s="2">
+        <v>1624</v>
+      </c>
+      <c r="Q982" s="2">
+        <v>200</v>
+      </c>
+      <c r="S982" s="2">
+        <v>1824</v>
+      </c>
+      <c r="U982" s="2">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="983" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A983">
+        <v>35</v>
+      </c>
+      <c r="C983" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D983" t="s">
+        <v>37</v>
+      </c>
+      <c r="E983" t="s">
+        <v>122</v>
+      </c>
+      <c r="F983" t="s">
+        <v>123</v>
+      </c>
+      <c r="G983">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="H983">
+        <v>700</v>
+      </c>
+      <c r="I983" s="2">
+        <v>2706.2000000000003</v>
+      </c>
+      <c r="J983">
+        <v>1</v>
+      </c>
+      <c r="K983">
+        <v>400</v>
+      </c>
+      <c r="L983" s="2">
+        <v>400</v>
+      </c>
+      <c r="O983" s="2">
+        <v>0</v>
+      </c>
+      <c r="P983" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+      <c r="S983" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+      <c r="U983" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+    </row>
+    <row r="984" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A984">
+        <v>35</v>
+      </c>
+      <c r="C984" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D984" t="s">
+        <v>37</v>
+      </c>
+      <c r="E984" t="s">
+        <v>122</v>
+      </c>
+      <c r="F984" t="s">
+        <v>123</v>
+      </c>
+      <c r="G984">
+        <v>1.806</v>
+      </c>
+      <c r="H984">
+        <v>700</v>
+      </c>
+      <c r="I984" s="2">
+        <v>1264.2</v>
+      </c>
+      <c r="J984">
+        <v>1</v>
+      </c>
+      <c r="K984">
+        <v>200</v>
+      </c>
+      <c r="L984" s="2">
+        <v>200</v>
+      </c>
+      <c r="O984" s="2">
+        <v>0</v>
+      </c>
+      <c r="P984" s="2">
+        <v>1464.2</v>
+      </c>
+      <c r="S984" s="2">
+        <v>1464.2</v>
+      </c>
+      <c r="U984" s="2">
+        <v>1464.2</v>
+      </c>
+    </row>
+    <row r="985" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A985">
+        <v>35</v>
+      </c>
+      <c r="C985" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D985" t="s">
+        <v>37</v>
+      </c>
+      <c r="E985" t="s">
+        <v>122</v>
+      </c>
+      <c r="F985" t="s">
+        <v>123</v>
+      </c>
+      <c r="G985">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H985">
+        <v>700</v>
+      </c>
+      <c r="I985" s="2">
+        <v>1624</v>
+      </c>
+      <c r="J985">
+        <v>1</v>
+      </c>
+      <c r="K985">
+        <v>200</v>
+      </c>
+      <c r="L985" s="2">
+        <v>200</v>
+      </c>
+      <c r="O985" s="2">
+        <v>0</v>
+      </c>
+      <c r="P985" s="2">
+        <v>1824</v>
+      </c>
+      <c r="S985" s="2">
+        <v>1824</v>
+      </c>
+      <c r="U985" s="2">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="986" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A986">
+        <v>35</v>
+      </c>
+      <c r="C986" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D986" t="s">
+        <v>37</v>
+      </c>
+      <c r="E986" t="s">
+        <v>122</v>
+      </c>
+      <c r="F986" t="s">
+        <v>123</v>
+      </c>
+      <c r="G986">
+        <v>1.806</v>
+      </c>
+      <c r="H986">
+        <v>700</v>
+      </c>
+      <c r="I986" s="2">
+        <v>1264.2</v>
+      </c>
+      <c r="J986">
+        <v>1</v>
+      </c>
+      <c r="K986">
+        <v>200</v>
+      </c>
+      <c r="L986" s="2">
+        <v>200</v>
+      </c>
+      <c r="O986" s="2">
+        <v>0</v>
+      </c>
+      <c r="P986" s="2">
+        <v>1464.2</v>
+      </c>
+      <c r="S986" s="2">
+        <v>1464.2</v>
+      </c>
+      <c r="U986" s="2">
+        <v>1464.2</v>
+      </c>
+    </row>
+    <row r="987" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A987">
+        <v>35</v>
+      </c>
+      <c r="C987" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D987" t="s">
+        <v>37</v>
+      </c>
+      <c r="E987" t="s">
+        <v>122</v>
+      </c>
+      <c r="F987" t="s">
+        <v>123</v>
+      </c>
+      <c r="G987">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H987">
+        <v>700</v>
+      </c>
+      <c r="I987" s="2">
+        <v>1624</v>
+      </c>
+      <c r="J987">
+        <v>1</v>
+      </c>
+      <c r="K987">
+        <v>200</v>
+      </c>
+      <c r="L987" s="2">
+        <v>200</v>
+      </c>
+      <c r="O987" s="2">
+        <v>0</v>
+      </c>
+      <c r="P987" s="2">
+        <v>1824</v>
+      </c>
+      <c r="Q987" s="2">
+        <v>500</v>
+      </c>
+      <c r="S987" s="2">
+        <v>2324</v>
+      </c>
+      <c r="U987" s="2">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="988" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A988">
+        <v>35</v>
+      </c>
+      <c r="C988" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D988" t="s">
+        <v>37</v>
+      </c>
+      <c r="E988" t="s">
+        <v>95</v>
+      </c>
+      <c r="F988" t="s">
+        <v>96</v>
+      </c>
+      <c r="I988" s="2">
+        <v>0</v>
+      </c>
+      <c r="J988">
+        <v>1</v>
+      </c>
+      <c r="K988">
+        <v>750</v>
+      </c>
+      <c r="L988" s="2">
+        <v>750</v>
+      </c>
+      <c r="O988" s="2">
+        <v>0</v>
+      </c>
+      <c r="P988" s="2">
+        <v>750</v>
+      </c>
+      <c r="S988" s="2">
+        <v>750</v>
+      </c>
+      <c r="U988" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="989" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A989">
+        <v>35</v>
+      </c>
+      <c r="C989" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D989" t="s">
+        <v>37</v>
+      </c>
+      <c r="E989" t="s">
+        <v>95</v>
+      </c>
+      <c r="F989" t="s">
+        <v>96</v>
+      </c>
+      <c r="I989" s="2">
+        <v>0</v>
+      </c>
+      <c r="J989">
+        <v>1</v>
+      </c>
+      <c r="K989">
+        <v>850</v>
+      </c>
+      <c r="L989" s="2">
+        <v>850</v>
+      </c>
+      <c r="O989" s="2">
+        <v>0</v>
+      </c>
+      <c r="P989" s="2">
+        <v>850</v>
+      </c>
+      <c r="S989" s="2">
+        <v>850</v>
+      </c>
+      <c r="U989" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="990" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A990">
+        <v>35</v>
+      </c>
+      <c r="C990" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D990" t="s">
+        <v>37</v>
+      </c>
+      <c r="E990" t="s">
+        <v>95</v>
+      </c>
+      <c r="F990" t="s">
+        <v>96</v>
+      </c>
+      <c r="I990" s="2">
+        <v>0</v>
+      </c>
+      <c r="J990">
+        <v>1</v>
+      </c>
+      <c r="K990">
+        <v>750</v>
+      </c>
+      <c r="L990" s="2">
+        <v>750</v>
+      </c>
+      <c r="O990" s="2">
+        <v>0</v>
+      </c>
+      <c r="P990" s="2">
+        <v>750</v>
+      </c>
+      <c r="S990" s="2">
+        <v>750</v>
+      </c>
+      <c r="U990" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="991" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A991">
+        <v>35</v>
+      </c>
+      <c r="C991" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D991" t="s">
+        <v>37</v>
+      </c>
+      <c r="E991" t="s">
+        <v>95</v>
+      </c>
+      <c r="F991" t="s">
+        <v>96</v>
+      </c>
+      <c r="I991" s="2">
+        <v>0</v>
+      </c>
+      <c r="J991">
+        <v>1</v>
+      </c>
+      <c r="K991">
+        <v>850</v>
+      </c>
+      <c r="L991" s="2">
+        <v>850</v>
+      </c>
+      <c r="O991" s="2">
+        <v>0</v>
+      </c>
+      <c r="P991" s="2">
+        <v>850</v>
+      </c>
+      <c r="S991" s="2">
+        <v>850</v>
+      </c>
+      <c r="U991" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="992" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A992">
+        <v>35</v>
+      </c>
+      <c r="C992" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D992" t="s">
+        <v>37</v>
+      </c>
+      <c r="E992" t="s">
+        <v>95</v>
+      </c>
+      <c r="F992" t="s">
+        <v>96</v>
+      </c>
+      <c r="I992" s="2">
+        <v>0</v>
+      </c>
+      <c r="J992">
+        <v>1</v>
+      </c>
+      <c r="K992">
+        <v>1800</v>
+      </c>
+      <c r="L992" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O992" s="2">
+        <v>0</v>
+      </c>
+      <c r="P992" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S992" s="2">
+        <v>1800</v>
+      </c>
+      <c r="U992" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="993" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A993">
+        <v>35</v>
+      </c>
+      <c r="C993" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D993" t="s">
+        <v>37</v>
+      </c>
+      <c r="E993" t="s">
+        <v>95</v>
+      </c>
+      <c r="F993" t="s">
+        <v>96</v>
+      </c>
+      <c r="G993">
+        <v>12.46</v>
+      </c>
+      <c r="H993">
+        <v>300</v>
+      </c>
+      <c r="I993" s="2">
+        <v>3738.0000000000005</v>
+      </c>
+      <c r="L993" s="2">
+        <v>0</v>
+      </c>
+      <c r="O993" s="2">
+        <v>0</v>
+      </c>
+      <c r="P993" s="2">
+        <v>3738.0000000000005</v>
+      </c>
+      <c r="S993" s="2">
+        <v>3738.0000000000005</v>
+      </c>
+      <c r="U993" s="2">
+        <v>3738.0000000000005</v>
+      </c>
+    </row>
+    <row r="994" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A994">
+        <v>35</v>
+      </c>
+      <c r="C994" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D994" t="s">
+        <v>38</v>
+      </c>
+      <c r="E994" t="s">
+        <v>107</v>
+      </c>
+      <c r="F994" t="s">
+        <v>108</v>
+      </c>
+      <c r="G994">
+        <v>11.16</v>
+      </c>
+      <c r="H994">
+        <v>700</v>
+      </c>
+      <c r="I994" s="2">
+        <v>7812</v>
+      </c>
+      <c r="L994" s="2">
+        <v>0</v>
+      </c>
+      <c r="O994" s="2">
+        <v>0</v>
+      </c>
+      <c r="P994" s="2">
+        <v>7812</v>
+      </c>
+      <c r="Q994" s="2">
+        <v>500</v>
+      </c>
+      <c r="S994" s="2">
+        <v>8312</v>
+      </c>
+      <c r="U994" s="2">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="995" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A995">
+        <v>35</v>
+      </c>
+      <c r="C995" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D995" t="s">
+        <v>29</v>
+      </c>
+      <c r="E995" t="s">
+        <v>120</v>
+      </c>
+      <c r="F995" t="s">
+        <v>121</v>
+      </c>
+      <c r="G995">
+        <v>1.27</v>
+      </c>
+      <c r="H995">
+        <v>700</v>
+      </c>
+      <c r="I995" s="2">
+        <v>889</v>
+      </c>
+      <c r="J995">
+        <v>1</v>
+      </c>
+      <c r="K995">
+        <v>200</v>
+      </c>
+      <c r="L995" s="2">
+        <v>200</v>
+      </c>
+      <c r="O995" s="2">
+        <v>0</v>
+      </c>
+      <c r="P995" s="2">
+        <v>1089</v>
+      </c>
+      <c r="S995" s="2">
+        <v>1089</v>
+      </c>
+      <c r="U995" s="2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="996" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A996">
+        <v>35</v>
+      </c>
+      <c r="C996" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D996" t="s">
+        <v>29</v>
+      </c>
+      <c r="E996" t="s">
+        <v>120</v>
+      </c>
+      <c r="F996" t="s">
+        <v>121</v>
+      </c>
+      <c r="G996">
+        <v>2.54</v>
+      </c>
+      <c r="H996">
+        <v>700</v>
+      </c>
+      <c r="I996" s="2">
+        <v>1778</v>
+      </c>
+      <c r="J996">
+        <v>1</v>
+      </c>
+      <c r="K996">
+        <v>200</v>
+      </c>
+      <c r="L996" s="2">
+        <v>200</v>
+      </c>
+      <c r="O996" s="2">
+        <v>0</v>
+      </c>
+      <c r="P996" s="2">
+        <v>1978</v>
+      </c>
+      <c r="S996" s="2">
+        <v>1978</v>
+      </c>
+      <c r="U996" s="2">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="997" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A997">
+        <v>35</v>
+      </c>
+      <c r="C997" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D997" t="s">
+        <v>29</v>
+      </c>
+      <c r="E997" t="s">
+        <v>120</v>
+      </c>
+      <c r="F997" t="s">
+        <v>121</v>
+      </c>
+      <c r="I997" s="2">
+        <v>0</v>
+      </c>
+      <c r="J997">
+        <v>1</v>
+      </c>
+      <c r="K997">
+        <v>200</v>
+      </c>
+      <c r="L997" s="2">
+        <v>200</v>
+      </c>
+      <c r="O997" s="2">
+        <v>0</v>
+      </c>
+      <c r="P997" s="2">
+        <v>200</v>
+      </c>
+      <c r="S997" s="2">
+        <v>200</v>
+      </c>
+      <c r="U997" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="998" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A998">
+        <v>35</v>
+      </c>
+      <c r="C998" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D998" t="s">
+        <v>29</v>
+      </c>
+      <c r="E998" t="s">
+        <v>120</v>
+      </c>
+      <c r="F998" t="s">
+        <v>121</v>
+      </c>
+      <c r="I998" s="2">
+        <v>0</v>
+      </c>
+      <c r="J998">
+        <v>1</v>
+      </c>
+      <c r="K998">
+        <v>200</v>
+      </c>
+      <c r="L998" s="2">
+        <v>200</v>
+      </c>
+      <c r="O998" s="2">
+        <v>0</v>
+      </c>
+      <c r="P998" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q998" s="2">
+        <v>500</v>
+      </c>
+      <c r="S998" s="2">
+        <v>700</v>
+      </c>
+      <c r="U998" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="999" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A999">
+        <v>35</v>
+      </c>
+      <c r="C999" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D999" t="s">
+        <v>56</v>
+      </c>
+      <c r="E999" t="s">
+        <v>76</v>
+      </c>
+      <c r="F999" t="s">
+        <v>77</v>
+      </c>
+      <c r="I999" s="2">
+        <v>0</v>
+      </c>
+      <c r="L999" s="2">
+        <v>0</v>
+      </c>
+      <c r="M999">
+        <v>3.5</v>
+      </c>
+      <c r="N999">
+        <v>1083.33</v>
+      </c>
+      <c r="O999" s="2">
+        <v>3791.6549999999997</v>
+      </c>
+      <c r="P999" s="2">
+        <v>3791.6549999999997</v>
+      </c>
+      <c r="Q999" s="2">
+        <v>500</v>
+      </c>
+      <c r="S999" s="2">
+        <v>4291.6549999999997</v>
+      </c>
+      <c r="U999" s="2">
+        <v>4291.6549999999997</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1000">
+        <v>35</v>
+      </c>
+      <c r="C1000" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1000" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1000" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1000">
+        <v>0.25</v>
+      </c>
+      <c r="N1000">
+        <v>750</v>
+      </c>
+      <c r="O1000" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="P1000" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="S1000" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="U1000" s="2">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1001">
+        <v>35</v>
+      </c>
+      <c r="C1001" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1001">
+        <v>1.26</v>
+      </c>
+      <c r="H1001">
+        <v>700</v>
+      </c>
+      <c r="I1001" s="2">
+        <v>882</v>
+      </c>
+      <c r="L1001" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1001">
+        <v>0.75</v>
+      </c>
+      <c r="N1001">
+        <v>750</v>
+      </c>
+      <c r="O1001" s="2">
+        <v>562.5</v>
+      </c>
+      <c r="P1001" s="2">
+        <v>1444.5</v>
+      </c>
+      <c r="S1001" s="2">
+        <v>1444.5</v>
+      </c>
+      <c r="U1001" s="2">
+        <v>1444.5</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1002">
+        <v>35</v>
+      </c>
+      <c r="C1002" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1002">
+        <v>1.98</v>
+      </c>
+      <c r="H1002">
+        <v>350</v>
+      </c>
+      <c r="I1002" s="2">
+        <v>693</v>
+      </c>
+      <c r="L1002" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1002" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1002" s="2">
+        <v>693</v>
+      </c>
+      <c r="Q1002" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1002" s="2">
+        <v>993</v>
+      </c>
+      <c r="U1002" s="2">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1003">
+        <v>35</v>
+      </c>
+      <c r="C1003" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1003" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1003">
+        <v>2</v>
+      </c>
+      <c r="K1003">
+        <v>800</v>
+      </c>
+      <c r="L1003" s="2">
+        <v>1600</v>
+      </c>
+      <c r="O1003" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1003" s="2">
+        <v>1600</v>
+      </c>
+      <c r="Q1003" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1003" s="2">
+        <v>2000</v>
+      </c>
+      <c r="U1003" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1004">
+        <v>35</v>
+      </c>
+      <c r="C1004" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1004">
+        <v>1</v>
+      </c>
+      <c r="H1004">
+        <v>400</v>
+      </c>
+      <c r="I1004" s="2">
+        <v>400</v>
+      </c>
+      <c r="J1004">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K1004">
+        <v>250</v>
+      </c>
+      <c r="L1004" s="2">
+        <v>285</v>
+      </c>
+      <c r="O1004" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1004" s="2">
+        <v>685</v>
+      </c>
+      <c r="S1004" s="2">
+        <v>685</v>
+      </c>
+      <c r="U1004" s="2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1005">
+        <v>35</v>
+      </c>
+      <c r="C1005" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1005">
+        <v>2.5</v>
+      </c>
+      <c r="H1005">
+        <v>450</v>
+      </c>
+      <c r="I1005" s="2">
+        <v>1125</v>
+      </c>
+      <c r="L1005" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1005" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1005" s="2">
+        <v>1125</v>
+      </c>
+      <c r="S1005" s="2">
+        <v>1125</v>
+      </c>
+      <c r="U1005" s="2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1006">
+        <v>35</v>
+      </c>
+      <c r="C1006" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1006">
+        <v>2.5</v>
+      </c>
+      <c r="H1006">
+        <v>320</v>
+      </c>
+      <c r="I1006" s="2">
+        <v>800</v>
+      </c>
+      <c r="L1006" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1006" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1006" s="2">
+        <v>800</v>
+      </c>
+      <c r="S1006" s="2">
+        <v>800</v>
+      </c>
+      <c r="U1006" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1007">
+        <v>35</v>
+      </c>
+      <c r="C1007" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1007">
+        <v>2.95</v>
+      </c>
+      <c r="H1007">
+        <v>700</v>
+      </c>
+      <c r="I1007" s="2">
+        <v>2065</v>
+      </c>
+      <c r="L1007" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1007" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1007" s="2">
+        <v>2065</v>
+      </c>
+      <c r="S1007" s="2">
+        <v>2065</v>
+      </c>
+      <c r="U1007" s="2">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1008">
+        <v>35</v>
+      </c>
+      <c r="C1008" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1008">
+        <v>11.8</v>
+      </c>
+      <c r="H1008">
+        <v>320</v>
+      </c>
+      <c r="I1008" s="2">
+        <v>3776</v>
+      </c>
+      <c r="L1008" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1008">
+        <v>0.15</v>
+      </c>
+      <c r="N1008">
+        <v>1083.33</v>
+      </c>
+      <c r="O1008" s="2">
+        <v>162.49949999999998</v>
+      </c>
+      <c r="P1008" s="2">
+        <v>3938.4994999999999</v>
+      </c>
+      <c r="Q1008" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1008" s="2">
+        <v>4138.4994999999999</v>
+      </c>
+      <c r="U1008" s="2">
+        <v>4138.4994999999999</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1009">
+        <v>35</v>
+      </c>
+      <c r="C1009" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1009" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1009" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1009">
+        <v>1.25</v>
+      </c>
+      <c r="N1009">
+        <v>1483.33</v>
+      </c>
+      <c r="O1009" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="P1009" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="S1009" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="U1009" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1010">
+        <v>35</v>
+      </c>
+      <c r="C1010" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1010" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1010" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1010">
+        <v>1.25</v>
+      </c>
+      <c r="N1010">
+        <v>1483.33</v>
+      </c>
+      <c r="O1010" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="P1010" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="S1010" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="U1010" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1011">
+        <v>35</v>
+      </c>
+      <c r="C1011" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1011" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1011" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1011">
+        <v>1</v>
+      </c>
+      <c r="N1011">
+        <v>750</v>
+      </c>
+      <c r="O1011" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1011" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1011" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1011" s="2">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BEAFD22-68DA-4736-88A0-3E20D2FE4C32}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08FE5F97-3760-4DD0-AD5C-164592EF62A0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="130">
   <si>
     <t>SEMANA</t>
   </si>
@@ -421,6 +421,12 @@
   <si>
     <t>CTVV 2487- CASA ACUEDUCTO</t>
   </si>
+  <si>
+    <t>CTVV 3092</t>
+  </si>
+  <si>
+    <t>CTVV 3092 - Remodelación Casa Mata - José Luis Ramírez</t>
+  </si>
 </sst>
 </file>
 
@@ -492,13 +498,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1011" totalsRowShown="0">
-  <autoFilter ref="A1:V1011" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1039" totalsRowShown="0">
+  <autoFilter ref="A1:V1039" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -844,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V1011"/>
+  <dimension ref="A1:V1039"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A960" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F969" sqref="F969"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A985" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F998" sqref="F998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45259,6 +45261,1250 @@
         <v>750</v>
       </c>
     </row>
+    <row r="1012" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1012">
+        <v>36</v>
+      </c>
+      <c r="C1012" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1012">
+        <v>3.286</v>
+      </c>
+      <c r="H1012">
+        <v>700</v>
+      </c>
+      <c r="I1012" s="2">
+        <v>2300.1999999999998</v>
+      </c>
+      <c r="J1012">
+        <v>1</v>
+      </c>
+      <c r="K1012">
+        <v>400</v>
+      </c>
+      <c r="L1012" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1012" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1012" s="2">
+        <v>2700.2</v>
+      </c>
+      <c r="S1012" s="2">
+        <v>2700.2</v>
+      </c>
+      <c r="U1012" s="2">
+        <v>2700.2</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1013">
+        <v>36</v>
+      </c>
+      <c r="C1013" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1013" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1013">
+        <v>1</v>
+      </c>
+      <c r="K1013">
+        <v>200</v>
+      </c>
+      <c r="L1013" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1013" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1013" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1013" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1013" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1014">
+        <v>36</v>
+      </c>
+      <c r="C1014" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1014">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H1014">
+        <v>700</v>
+      </c>
+      <c r="I1014" s="2">
+        <v>632.1</v>
+      </c>
+      <c r="J1014">
+        <v>1</v>
+      </c>
+      <c r="K1014">
+        <v>200</v>
+      </c>
+      <c r="L1014" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1014" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1014" s="2">
+        <v>832.1</v>
+      </c>
+      <c r="Q1014" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1014" s="2">
+        <v>1232.0999999999999</v>
+      </c>
+      <c r="U1014" s="2">
+        <v>1232.0999999999999</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1015">
+        <v>36</v>
+      </c>
+      <c r="C1015" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1015">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H1015">
+        <v>700</v>
+      </c>
+      <c r="I1015" s="2">
+        <v>632.1</v>
+      </c>
+      <c r="J1015">
+        <v>1</v>
+      </c>
+      <c r="K1015">
+        <v>200</v>
+      </c>
+      <c r="L1015" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1015" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1015" s="2">
+        <v>832.1</v>
+      </c>
+      <c r="S1015" s="2">
+        <v>832.1</v>
+      </c>
+      <c r="U1015" s="2">
+        <v>832.1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1016">
+        <v>36</v>
+      </c>
+      <c r="C1016" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1016">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H1016">
+        <v>700</v>
+      </c>
+      <c r="I1016" s="2">
+        <v>1624</v>
+      </c>
+      <c r="L1016" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1016" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1016" s="2">
+        <v>1624</v>
+      </c>
+      <c r="Q1016" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1016" s="2">
+        <v>2024</v>
+      </c>
+      <c r="U1016" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1017">
+        <v>36</v>
+      </c>
+      <c r="C1017" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1017" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1017" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1017">
+        <v>0.5</v>
+      </c>
+      <c r="N1017">
+        <v>1083.33</v>
+      </c>
+      <c r="O1017" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P1017" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="S1017" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="U1017" s="2">
+        <v>541.66499999999996</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1018">
+        <v>36</v>
+      </c>
+      <c r="C1018" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1018" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1018" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1018">
+        <v>1</v>
+      </c>
+      <c r="N1018">
+        <v>1083.33</v>
+      </c>
+      <c r="O1018" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P1018" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="S1018" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="U1018" s="2">
+        <v>1083.33</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1019">
+        <v>36</v>
+      </c>
+      <c r="C1019" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1019">
+        <v>3.8650000000000002</v>
+      </c>
+      <c r="H1019">
+        <v>700</v>
+      </c>
+      <c r="I1019" s="2">
+        <v>2705.5</v>
+      </c>
+      <c r="J1019">
+        <v>1</v>
+      </c>
+      <c r="K1019">
+        <v>400</v>
+      </c>
+      <c r="L1019" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1019" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1019" s="2">
+        <v>3105.5</v>
+      </c>
+      <c r="S1019" s="2">
+        <v>3105.5</v>
+      </c>
+      <c r="U1019" s="2">
+        <v>3105.5</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1020">
+        <v>36</v>
+      </c>
+      <c r="C1020" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1020">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="H1020">
+        <v>700</v>
+      </c>
+      <c r="I1020" s="2">
+        <v>1264.8999999999999</v>
+      </c>
+      <c r="J1020">
+        <v>1</v>
+      </c>
+      <c r="K1020">
+        <v>200</v>
+      </c>
+      <c r="L1020" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1020" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1020" s="2">
+        <v>1464.8999999999999</v>
+      </c>
+      <c r="S1020" s="2">
+        <v>1464.8999999999999</v>
+      </c>
+      <c r="U1020" s="2">
+        <v>1464.8999999999999</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1021">
+        <v>36</v>
+      </c>
+      <c r="C1021" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1021">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H1021">
+        <v>700</v>
+      </c>
+      <c r="I1021" s="2">
+        <v>1624</v>
+      </c>
+      <c r="J1021">
+        <v>1</v>
+      </c>
+      <c r="K1021">
+        <v>200</v>
+      </c>
+      <c r="L1021" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1021" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1021" s="2">
+        <v>1824</v>
+      </c>
+      <c r="S1021" s="2">
+        <v>1824</v>
+      </c>
+      <c r="U1021" s="2">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1022">
+        <v>36</v>
+      </c>
+      <c r="C1022" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1022">
+        <v>3.8650000000000002</v>
+      </c>
+      <c r="H1022">
+        <v>700</v>
+      </c>
+      <c r="I1022" s="2">
+        <v>2705.5</v>
+      </c>
+      <c r="J1022">
+        <v>1</v>
+      </c>
+      <c r="K1022">
+        <v>400</v>
+      </c>
+      <c r="L1022" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1022" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1022" s="2">
+        <v>3105.5</v>
+      </c>
+      <c r="S1022" s="2">
+        <v>3105.5</v>
+      </c>
+      <c r="U1022" s="2">
+        <v>3105.5</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1023">
+        <v>36</v>
+      </c>
+      <c r="C1023" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1023">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H1023">
+        <v>700</v>
+      </c>
+      <c r="I1023" s="2">
+        <v>1624</v>
+      </c>
+      <c r="J1023">
+        <v>1</v>
+      </c>
+      <c r="K1023">
+        <v>200</v>
+      </c>
+      <c r="L1023" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1023" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1023" s="2">
+        <v>1824</v>
+      </c>
+      <c r="S1023" s="2">
+        <v>1824</v>
+      </c>
+      <c r="U1023" s="2">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1024">
+        <v>36</v>
+      </c>
+      <c r="C1024" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1024">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="H1024">
+        <v>700</v>
+      </c>
+      <c r="I1024" s="2">
+        <v>2706.2000000000003</v>
+      </c>
+      <c r="J1024">
+        <v>1</v>
+      </c>
+      <c r="K1024">
+        <v>400</v>
+      </c>
+      <c r="L1024" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1024" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1024" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+      <c r="S1024" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+      <c r="U1024" s="2">
+        <v>3106.2000000000003</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1025">
+        <v>36</v>
+      </c>
+      <c r="C1025" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1025" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1025" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1025">
+        <v>1</v>
+      </c>
+      <c r="N1025">
+        <v>1083.33</v>
+      </c>
+      <c r="O1025" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P1025" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="Q1025" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1025" s="2">
+        <v>1183.33</v>
+      </c>
+      <c r="U1025" s="2">
+        <v>1183.33</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1026">
+        <v>36</v>
+      </c>
+      <c r="C1026" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1026">
+        <v>2.952</v>
+      </c>
+      <c r="H1026">
+        <v>700</v>
+      </c>
+      <c r="I1026" s="2">
+        <v>2066.4</v>
+      </c>
+      <c r="L1026" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1026" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1026" s="2">
+        <v>2066.4</v>
+      </c>
+      <c r="S1026" s="2">
+        <v>2066.4</v>
+      </c>
+      <c r="U1026" s="2">
+        <v>2066.4</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1027">
+        <v>36</v>
+      </c>
+      <c r="C1027" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1027" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1027" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1027">
+        <v>1</v>
+      </c>
+      <c r="N1027">
+        <v>1083.33</v>
+      </c>
+      <c r="O1027" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P1027" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="S1027" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="U1027" s="2">
+        <v>1083.33</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1028">
+        <v>36</v>
+      </c>
+      <c r="C1028" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1028">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H1028">
+        <v>450</v>
+      </c>
+      <c r="I1028" s="2">
+        <v>1957.4999999999998</v>
+      </c>
+      <c r="J1028">
+        <v>1</v>
+      </c>
+      <c r="K1028">
+        <v>100</v>
+      </c>
+      <c r="L1028" s="2">
+        <v>100</v>
+      </c>
+      <c r="M1028">
+        <v>0.25</v>
+      </c>
+      <c r="N1028">
+        <v>750</v>
+      </c>
+      <c r="O1028" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="P1028" s="2">
+        <v>2245</v>
+      </c>
+      <c r="S1028" s="2">
+        <v>2245</v>
+      </c>
+      <c r="U1028" s="2">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1029">
+        <v>36</v>
+      </c>
+      <c r="C1029" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1029">
+        <v>8.67</v>
+      </c>
+      <c r="H1029">
+        <v>320</v>
+      </c>
+      <c r="I1029" s="2">
+        <v>2774.4</v>
+      </c>
+      <c r="J1029">
+        <v>2</v>
+      </c>
+      <c r="K1029">
+        <v>200</v>
+      </c>
+      <c r="L1029" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1029" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1029" s="2">
+        <v>3174.4</v>
+      </c>
+      <c r="S1029" s="2">
+        <v>3174.4</v>
+      </c>
+      <c r="U1029" s="2">
+        <v>3174.4</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1030">
+        <v>36</v>
+      </c>
+      <c r="C1030" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1030">
+        <v>1.27</v>
+      </c>
+      <c r="H1030">
+        <v>450</v>
+      </c>
+      <c r="I1030" s="2">
+        <v>571.5</v>
+      </c>
+      <c r="L1030" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1030" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1030" s="2">
+        <v>571.5</v>
+      </c>
+      <c r="S1030" s="2">
+        <v>571.5</v>
+      </c>
+      <c r="U1030" s="2">
+        <v>571.5</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1031">
+        <v>36</v>
+      </c>
+      <c r="C1031" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1031">
+        <v>5.82</v>
+      </c>
+      <c r="H1031">
+        <v>250</v>
+      </c>
+      <c r="I1031" s="2">
+        <v>1455</v>
+      </c>
+      <c r="L1031" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1031" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1031" s="2">
+        <v>1455</v>
+      </c>
+      <c r="S1031" s="2">
+        <v>1455</v>
+      </c>
+      <c r="U1031" s="2">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1032">
+        <v>36</v>
+      </c>
+      <c r="C1032" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1032">
+        <v>7.47</v>
+      </c>
+      <c r="H1032">
+        <v>700</v>
+      </c>
+      <c r="I1032" s="2">
+        <v>5229</v>
+      </c>
+      <c r="L1032" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1032" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1032" s="2">
+        <v>5229</v>
+      </c>
+      <c r="Q1032" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1032" s="2">
+        <v>5429</v>
+      </c>
+      <c r="U1032" s="2">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1033">
+        <v>36</v>
+      </c>
+      <c r="C1033" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1033" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1033" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1033">
+        <v>1.25</v>
+      </c>
+      <c r="N1033">
+        <v>1483.33</v>
+      </c>
+      <c r="O1033" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="P1033" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="S1033" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+      <c r="U1033" s="2">
+        <v>1854.1624999999999</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1034">
+        <v>36</v>
+      </c>
+      <c r="C1034" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1034" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1034" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1034">
+        <v>2.5</v>
+      </c>
+      <c r="N1034">
+        <v>1483.33</v>
+      </c>
+      <c r="O1034" s="2">
+        <v>3708.3249999999998</v>
+      </c>
+      <c r="P1034" s="2">
+        <v>3708.3249999999998</v>
+      </c>
+      <c r="Q1034" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1034" s="2">
+        <v>4108.3249999999998</v>
+      </c>
+      <c r="U1034" s="2">
+        <v>4108.3249999999998</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1035">
+        <v>36</v>
+      </c>
+      <c r="C1035" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1035" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1035" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1035">
+        <v>2</v>
+      </c>
+      <c r="N1035">
+        <v>750</v>
+      </c>
+      <c r="O1035" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P1035" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S1035" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U1035" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1036">
+        <v>36</v>
+      </c>
+      <c r="C1036" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1036" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1036" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1036">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="N1036">
+        <v>750</v>
+      </c>
+      <c r="O1036" s="2">
+        <v>490.5</v>
+      </c>
+      <c r="P1036" s="2">
+        <v>490.5</v>
+      </c>
+      <c r="Q1036" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1036" s="2">
+        <v>690.5</v>
+      </c>
+      <c r="U1036" s="2">
+        <v>690.5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1037">
+        <v>36</v>
+      </c>
+      <c r="C1037" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1037" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1037">
+        <v>1</v>
+      </c>
+      <c r="K1037">
+        <v>200</v>
+      </c>
+      <c r="L1037" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1037" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1037" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1037" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1037" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1038">
+        <v>36</v>
+      </c>
+      <c r="C1038" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1038" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1038">
+        <v>1</v>
+      </c>
+      <c r="K1038">
+        <v>200</v>
+      </c>
+      <c r="L1038" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1038" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1038" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q1038" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1038" s="2">
+        <v>400</v>
+      </c>
+      <c r="U1038" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1039">
+        <v>36</v>
+      </c>
+      <c r="C1039" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1039">
+        <v>11.16</v>
+      </c>
+      <c r="H1039">
+        <v>700</v>
+      </c>
+      <c r="I1039" s="2">
+        <v>7812</v>
+      </c>
+      <c r="L1039" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1039" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1039" s="2">
+        <v>7812</v>
+      </c>
+      <c r="Q1039" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1039" s="2">
+        <v>8312</v>
+      </c>
+      <c r="U1039" s="2">
+        <v>8312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08FE5F97-3760-4DD0-AD5C-164592EF62A0}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FCFB52-4134-40DE-97AC-0B36385E13F5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="134">
   <si>
     <t>SEMANA</t>
   </si>
@@ -427,6 +427,18 @@
   <si>
     <t>CTVV 3092 - Remodelación Casa Mata - José Luis Ramírez</t>
   </si>
+  <si>
+    <t>CTVV 3078</t>
+  </si>
+  <si>
+    <t>CTVV 3078 - Piso 5 Centro Capital Oficina 02 LN - Canaco</t>
+  </si>
+  <si>
+    <t>CTVV 1176</t>
+  </si>
+  <si>
+    <t>CTVV 1176 - CASA ANDREA SANCHEZ - ANDREA SANCHEZ</t>
+  </si>
 </sst>
 </file>
 
@@ -498,9 +510,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1039" totalsRowShown="0">
-  <autoFilter ref="A1:V1039" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1079" totalsRowShown="0">
+  <autoFilter ref="A1:V1079" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -846,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V1039"/>
+  <dimension ref="A1:V1079"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A985" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F998" sqref="F998"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1057" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1069" sqref="F1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -46505,6 +46521,1754 @@
         <v>8312</v>
       </c>
     </row>
+    <row r="1040" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1040">
+        <v>37</v>
+      </c>
+      <c r="C1040" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1040">
+        <v>3.25</v>
+      </c>
+      <c r="H1040">
+        <v>200</v>
+      </c>
+      <c r="I1040" s="2">
+        <v>650</v>
+      </c>
+      <c r="L1040" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1040" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1040" s="2">
+        <v>650</v>
+      </c>
+      <c r="S1040" s="2">
+        <v>650</v>
+      </c>
+      <c r="U1040" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1041">
+        <v>37</v>
+      </c>
+      <c r="C1041" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1041" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1041" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1041">
+        <v>5</v>
+      </c>
+      <c r="N1041">
+        <v>1083</v>
+      </c>
+      <c r="O1041" s="2">
+        <v>5415</v>
+      </c>
+      <c r="P1041" s="2">
+        <v>5415</v>
+      </c>
+      <c r="S1041" s="2">
+        <v>5415</v>
+      </c>
+      <c r="U1041" s="2">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1042">
+        <v>37</v>
+      </c>
+      <c r="C1042" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1042">
+        <v>1.17</v>
+      </c>
+      <c r="H1042">
+        <v>700</v>
+      </c>
+      <c r="I1042" s="2">
+        <v>819</v>
+      </c>
+      <c r="L1042" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1042" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1042" s="2">
+        <v>819</v>
+      </c>
+      <c r="S1042" s="2">
+        <v>819</v>
+      </c>
+      <c r="U1042" s="2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1043">
+        <v>37</v>
+      </c>
+      <c r="C1043" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1043">
+        <v>3.9</v>
+      </c>
+      <c r="H1043">
+        <v>300</v>
+      </c>
+      <c r="I1043" s="2">
+        <v>1170</v>
+      </c>
+      <c r="L1043" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1043" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1043" s="2">
+        <v>1170</v>
+      </c>
+      <c r="Q1043" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1043" s="2">
+        <v>1370</v>
+      </c>
+      <c r="U1043" s="2">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1044">
+        <v>37</v>
+      </c>
+      <c r="C1044" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1044">
+        <v>3.23</v>
+      </c>
+      <c r="H1044">
+        <v>700</v>
+      </c>
+      <c r="I1044" s="2">
+        <v>2261</v>
+      </c>
+      <c r="J1044">
+        <v>1</v>
+      </c>
+      <c r="K1044">
+        <v>300</v>
+      </c>
+      <c r="L1044" s="2">
+        <v>300</v>
+      </c>
+      <c r="O1044" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1044" s="2">
+        <v>2561</v>
+      </c>
+      <c r="S1044" s="2">
+        <v>2561</v>
+      </c>
+      <c r="U1044" s="2">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1045">
+        <v>37</v>
+      </c>
+      <c r="C1045" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1045">
+        <v>2.4</v>
+      </c>
+      <c r="H1045">
+        <v>700</v>
+      </c>
+      <c r="I1045" s="2">
+        <v>1680</v>
+      </c>
+      <c r="J1045">
+        <v>1</v>
+      </c>
+      <c r="K1045">
+        <v>300</v>
+      </c>
+      <c r="L1045" s="2">
+        <v>300</v>
+      </c>
+      <c r="O1045" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1045" s="2">
+        <v>1980</v>
+      </c>
+      <c r="S1045" s="2">
+        <v>1980</v>
+      </c>
+      <c r="U1045" s="2">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1046">
+        <v>37</v>
+      </c>
+      <c r="C1046" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1046">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H1046">
+        <v>700</v>
+      </c>
+      <c r="I1046" s="2">
+        <v>619.5</v>
+      </c>
+      <c r="L1046" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1046" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1046" s="2">
+        <v>619.5</v>
+      </c>
+      <c r="S1046" s="2">
+        <v>619.5</v>
+      </c>
+      <c r="U1046" s="2">
+        <v>619.5</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1047">
+        <v>37</v>
+      </c>
+      <c r="C1047" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1047">
+        <v>0.51</v>
+      </c>
+      <c r="H1047">
+        <v>700</v>
+      </c>
+      <c r="I1047" s="2">
+        <v>357</v>
+      </c>
+      <c r="L1047" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1047" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1047" s="2">
+        <v>357</v>
+      </c>
+      <c r="Q1047" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1047" s="2">
+        <v>557</v>
+      </c>
+      <c r="U1047" s="2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1048">
+        <v>37</v>
+      </c>
+      <c r="C1048" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1048" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1048">
+        <v>1</v>
+      </c>
+      <c r="K1048">
+        <v>500</v>
+      </c>
+      <c r="L1048" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1048" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1048" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1048" s="2">
+        <v>500</v>
+      </c>
+      <c r="U1048" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1049">
+        <v>37</v>
+      </c>
+      <c r="C1049" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1049" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1049">
+        <v>1</v>
+      </c>
+      <c r="K1049">
+        <v>250</v>
+      </c>
+      <c r="L1049" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1049" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1049" s="2">
+        <v>250</v>
+      </c>
+      <c r="S1049" s="2">
+        <v>250</v>
+      </c>
+      <c r="U1049" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1050">
+        <v>37</v>
+      </c>
+      <c r="C1050" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1050" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1050">
+        <v>1</v>
+      </c>
+      <c r="K1050">
+        <v>250</v>
+      </c>
+      <c r="L1050" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1050" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1050" s="2">
+        <v>250</v>
+      </c>
+      <c r="S1050" s="2">
+        <v>250</v>
+      </c>
+      <c r="U1050" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1051">
+        <v>37</v>
+      </c>
+      <c r="C1051" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1051" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1051">
+        <v>1</v>
+      </c>
+      <c r="K1051">
+        <v>200</v>
+      </c>
+      <c r="L1051" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1051" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1051" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1051" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1051" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1052">
+        <v>37</v>
+      </c>
+      <c r="C1052" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1052" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1052">
+        <v>1</v>
+      </c>
+      <c r="K1052">
+        <v>200</v>
+      </c>
+      <c r="L1052" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1052" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1052" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1052" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1052" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1053">
+        <v>37</v>
+      </c>
+      <c r="C1053" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1053" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1053">
+        <v>1</v>
+      </c>
+      <c r="K1053">
+        <v>500</v>
+      </c>
+      <c r="L1053" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1053" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1053" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1053" s="2">
+        <v>500</v>
+      </c>
+      <c r="U1053" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1054">
+        <v>37</v>
+      </c>
+      <c r="C1054" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1054" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1054">
+        <v>1</v>
+      </c>
+      <c r="K1054">
+        <v>850</v>
+      </c>
+      <c r="L1054" s="2">
+        <v>850</v>
+      </c>
+      <c r="O1054" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1054" s="2">
+        <v>850</v>
+      </c>
+      <c r="S1054" s="2">
+        <v>850</v>
+      </c>
+      <c r="U1054" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1055">
+        <v>37</v>
+      </c>
+      <c r="C1055" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1055">
+        <v>3.03</v>
+      </c>
+      <c r="H1055">
+        <v>700</v>
+      </c>
+      <c r="I1055" s="2">
+        <v>2121</v>
+      </c>
+      <c r="J1055">
+        <v>1</v>
+      </c>
+      <c r="K1055">
+        <v>250</v>
+      </c>
+      <c r="L1055" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1055" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1055" s="2">
+        <v>2371</v>
+      </c>
+      <c r="S1055" s="2">
+        <v>2371</v>
+      </c>
+      <c r="U1055" s="2">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1056">
+        <v>37</v>
+      </c>
+      <c r="C1056" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1056">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H1056">
+        <v>400</v>
+      </c>
+      <c r="I1056" s="2">
+        <v>811.99999999999989</v>
+      </c>
+      <c r="J1056">
+        <v>1</v>
+      </c>
+      <c r="K1056">
+        <v>250</v>
+      </c>
+      <c r="L1056" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1056" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1056" s="2">
+        <v>1062</v>
+      </c>
+      <c r="S1056" s="2">
+        <v>1062</v>
+      </c>
+      <c r="U1056" s="2">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1057">
+        <v>37</v>
+      </c>
+      <c r="C1057" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1057">
+        <v>7.5</v>
+      </c>
+      <c r="H1057">
+        <v>250</v>
+      </c>
+      <c r="I1057" s="2">
+        <v>1875</v>
+      </c>
+      <c r="J1057">
+        <v>1</v>
+      </c>
+      <c r="K1057">
+        <v>200</v>
+      </c>
+      <c r="L1057" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1057" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1057" s="2">
+        <v>2075</v>
+      </c>
+      <c r="S1057" s="2">
+        <v>2075</v>
+      </c>
+      <c r="U1057" s="2">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1058">
+        <v>37</v>
+      </c>
+      <c r="C1058" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1058">
+        <v>3.71</v>
+      </c>
+      <c r="H1058">
+        <v>700</v>
+      </c>
+      <c r="I1058" s="2">
+        <v>2597</v>
+      </c>
+      <c r="J1058">
+        <v>1</v>
+      </c>
+      <c r="K1058">
+        <v>200</v>
+      </c>
+      <c r="L1058" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1058" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1058" s="2">
+        <v>2797</v>
+      </c>
+      <c r="S1058" s="2">
+        <v>2797</v>
+      </c>
+      <c r="U1058" s="2">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1059">
+        <v>37</v>
+      </c>
+      <c r="C1059" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1059">
+        <v>2.95</v>
+      </c>
+      <c r="H1059">
+        <v>700</v>
+      </c>
+      <c r="I1059" s="2">
+        <v>2065</v>
+      </c>
+      <c r="L1059" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1059" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1059" s="2">
+        <v>2065</v>
+      </c>
+      <c r="S1059" s="2">
+        <v>2065</v>
+      </c>
+      <c r="U1059" s="2">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1060">
+        <v>37</v>
+      </c>
+      <c r="C1060" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1060">
+        <v>2.95</v>
+      </c>
+      <c r="H1060">
+        <v>700</v>
+      </c>
+      <c r="I1060" s="2">
+        <v>2065</v>
+      </c>
+      <c r="L1060" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1060" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1060" s="2">
+        <v>2065</v>
+      </c>
+      <c r="S1060" s="2">
+        <v>2065</v>
+      </c>
+      <c r="U1060" s="2">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1061">
+        <v>37</v>
+      </c>
+      <c r="C1061" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1061">
+        <v>3.4</v>
+      </c>
+      <c r="H1061">
+        <v>250</v>
+      </c>
+      <c r="I1061" s="2">
+        <v>850</v>
+      </c>
+      <c r="L1061" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1061" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1061" s="2">
+        <v>850</v>
+      </c>
+      <c r="S1061" s="2">
+        <v>850</v>
+      </c>
+      <c r="U1061" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1062">
+        <v>37</v>
+      </c>
+      <c r="C1062" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1062" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1062">
+        <v>1</v>
+      </c>
+      <c r="K1062">
+        <v>200</v>
+      </c>
+      <c r="L1062" s="2">
+        <v>200</v>
+      </c>
+      <c r="M1062">
+        <v>0.5</v>
+      </c>
+      <c r="N1062">
+        <v>1083.33</v>
+      </c>
+      <c r="O1062" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P1062" s="2">
+        <v>741.66499999999996</v>
+      </c>
+      <c r="S1062" s="2">
+        <v>741.66499999999996</v>
+      </c>
+      <c r="U1062" s="2">
+        <v>741.66499999999996</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1063">
+        <v>37</v>
+      </c>
+      <c r="C1063" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1063" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1063">
+        <v>1</v>
+      </c>
+      <c r="K1063">
+        <v>500</v>
+      </c>
+      <c r="L1063" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1063" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1063" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1063" s="2">
+        <v>500</v>
+      </c>
+      <c r="U1063" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1064">
+        <v>37</v>
+      </c>
+      <c r="C1064" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1064" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1064">
+        <v>1</v>
+      </c>
+      <c r="K1064">
+        <v>200</v>
+      </c>
+      <c r="L1064" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1064" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1064" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q1064" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1064" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1064" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1065">
+        <v>37</v>
+      </c>
+      <c r="C1065" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1065">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="H1065">
+        <v>900</v>
+      </c>
+      <c r="I1065" s="2">
+        <v>2930.3999999999996</v>
+      </c>
+      <c r="L1065" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1065" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1065" s="2">
+        <v>2930.3999999999996</v>
+      </c>
+      <c r="S1065" s="2">
+        <v>2930.3999999999996</v>
+      </c>
+      <c r="U1065" s="2">
+        <v>2930.3999999999996</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1066">
+        <v>37</v>
+      </c>
+      <c r="C1066" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1066">
+        <v>2.544</v>
+      </c>
+      <c r="H1066">
+        <v>400</v>
+      </c>
+      <c r="I1066" s="2">
+        <v>1017.6</v>
+      </c>
+      <c r="L1066" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1066" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1066" s="2">
+        <v>1017.6</v>
+      </c>
+      <c r="Q1066" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1066" s="2">
+        <v>1317.6</v>
+      </c>
+      <c r="U1066" s="2">
+        <v>1317.6</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1067">
+        <v>37</v>
+      </c>
+      <c r="C1067" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1067" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1067" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1067">
+        <v>0.75</v>
+      </c>
+      <c r="N1067">
+        <v>1083.33</v>
+      </c>
+      <c r="O1067" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P1067" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="Q1067" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1067" s="2">
+        <v>912.49749999999995</v>
+      </c>
+      <c r="U1067" s="2">
+        <v>912.49749999999995</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1068">
+        <v>37</v>
+      </c>
+      <c r="C1068" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1068" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1068" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1068">
+        <v>0.75</v>
+      </c>
+      <c r="N1068">
+        <v>1083.33</v>
+      </c>
+      <c r="O1068" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P1068" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="Q1068" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1068" s="2">
+        <v>912.49749999999995</v>
+      </c>
+      <c r="U1068" s="2">
+        <v>912.49749999999995</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1069">
+        <v>37</v>
+      </c>
+      <c r="C1069" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1069">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H1069">
+        <v>700</v>
+      </c>
+      <c r="I1069" s="2">
+        <v>516.6</v>
+      </c>
+      <c r="J1069">
+        <v>1</v>
+      </c>
+      <c r="K1069">
+        <v>200</v>
+      </c>
+      <c r="L1069" s="2">
+        <v>200</v>
+      </c>
+      <c r="M1069">
+        <v>0.25</v>
+      </c>
+      <c r="N1069">
+        <v>750</v>
+      </c>
+      <c r="O1069" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="P1069" s="2">
+        <v>904.1</v>
+      </c>
+      <c r="S1069" s="2">
+        <v>904.1</v>
+      </c>
+      <c r="U1069" s="2">
+        <v>904.1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1070">
+        <v>37</v>
+      </c>
+      <c r="C1070" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1070">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H1070">
+        <v>700</v>
+      </c>
+      <c r="I1070" s="2">
+        <v>692.3</v>
+      </c>
+      <c r="J1070">
+        <v>1</v>
+      </c>
+      <c r="K1070">
+        <v>200</v>
+      </c>
+      <c r="L1070" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1070" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1070" s="2">
+        <v>892.3</v>
+      </c>
+      <c r="S1070" s="2">
+        <v>892.3</v>
+      </c>
+      <c r="U1070" s="2">
+        <v>892.3</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1071">
+        <v>37</v>
+      </c>
+      <c r="C1071" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1071" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1071" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1071">
+        <v>2</v>
+      </c>
+      <c r="N1071">
+        <v>750</v>
+      </c>
+      <c r="O1071" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P1071" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S1071" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U1071" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1072">
+        <v>37</v>
+      </c>
+      <c r="C1072" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1072">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H1072">
+        <v>320</v>
+      </c>
+      <c r="I1072" s="2">
+        <v>716.80000000000007</v>
+      </c>
+      <c r="L1072" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1072">
+        <v>1</v>
+      </c>
+      <c r="N1072">
+        <v>750</v>
+      </c>
+      <c r="O1072" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1072" s="2">
+        <v>1466.8000000000002</v>
+      </c>
+      <c r="S1072" s="2">
+        <v>1466.8000000000002</v>
+      </c>
+      <c r="U1072" s="2">
+        <v>1466.8000000000002</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1073">
+        <v>37</v>
+      </c>
+      <c r="C1073" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1073">
+        <v>1.27</v>
+      </c>
+      <c r="H1073">
+        <v>450</v>
+      </c>
+      <c r="I1073" s="2">
+        <v>571.5</v>
+      </c>
+      <c r="J1073">
+        <v>1</v>
+      </c>
+      <c r="K1073">
+        <v>100</v>
+      </c>
+      <c r="L1073" s="2">
+        <v>100</v>
+      </c>
+      <c r="M1073">
+        <v>1</v>
+      </c>
+      <c r="N1073">
+        <v>1083.33</v>
+      </c>
+      <c r="O1073" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P1073" s="2">
+        <v>1754.83</v>
+      </c>
+      <c r="S1073" s="2">
+        <v>1754.83</v>
+      </c>
+      <c r="U1073" s="2">
+        <v>1754.83</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1074">
+        <v>37</v>
+      </c>
+      <c r="C1074" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1074">
+        <v>2.6</v>
+      </c>
+      <c r="H1074">
+        <v>400</v>
+      </c>
+      <c r="I1074" s="2">
+        <v>1040</v>
+      </c>
+      <c r="J1074">
+        <v>1</v>
+      </c>
+      <c r="K1074">
+        <v>850</v>
+      </c>
+      <c r="L1074" s="2">
+        <v>850</v>
+      </c>
+      <c r="O1074" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1074" s="2">
+        <v>1890</v>
+      </c>
+      <c r="S1074" s="2">
+        <v>1890</v>
+      </c>
+      <c r="U1074" s="2">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1075">
+        <v>37</v>
+      </c>
+      <c r="C1075" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1075">
+        <v>3.88</v>
+      </c>
+      <c r="H1075">
+        <v>320</v>
+      </c>
+      <c r="I1075" s="2">
+        <v>1241.5999999999999</v>
+      </c>
+      <c r="L1075" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1075" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1075" s="2">
+        <v>1241.5999999999999</v>
+      </c>
+      <c r="Q1075" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1075" s="2">
+        <v>1541.6</v>
+      </c>
+      <c r="U1075" s="2">
+        <v>1541.6</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1076">
+        <v>37</v>
+      </c>
+      <c r="C1076" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1076" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1076" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1076">
+        <v>2</v>
+      </c>
+      <c r="N1076">
+        <v>750</v>
+      </c>
+      <c r="O1076" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P1076" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Q1076" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1076" s="2">
+        <v>1900</v>
+      </c>
+      <c r="U1076" s="2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1077">
+        <v>37</v>
+      </c>
+      <c r="C1077" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1077" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1077" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1077">
+        <v>2.5</v>
+      </c>
+      <c r="N1077">
+        <v>750</v>
+      </c>
+      <c r="O1077" s="2">
+        <v>1875</v>
+      </c>
+      <c r="P1077" s="2">
+        <v>1875</v>
+      </c>
+      <c r="S1077" s="2">
+        <v>1875</v>
+      </c>
+      <c r="U1077" s="2">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1078">
+        <v>37</v>
+      </c>
+      <c r="C1078" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1078" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1078" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1078">
+        <v>0.5</v>
+      </c>
+      <c r="N1078">
+        <v>750</v>
+      </c>
+      <c r="O1078" s="2">
+        <v>375</v>
+      </c>
+      <c r="P1078" s="2">
+        <v>375</v>
+      </c>
+      <c r="S1078" s="2">
+        <v>375</v>
+      </c>
+      <c r="U1078" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1079">
+        <v>37</v>
+      </c>
+      <c r="C1079" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1079" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1079" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1079">
+        <v>1.25</v>
+      </c>
+      <c r="N1079">
+        <v>750</v>
+      </c>
+      <c r="O1079" s="2">
+        <v>937.5</v>
+      </c>
+      <c r="P1079" s="2">
+        <v>937.5</v>
+      </c>
+      <c r="S1079" s="2">
+        <v>937.5</v>
+      </c>
+      <c r="U1079" s="2">
+        <v>937.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FCFB52-4134-40DE-97AC-0B36385E13F5}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77968C0C-06E9-4BC6-9389-59168370758C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="142">
   <si>
     <t>SEMANA</t>
   </si>
@@ -439,6 +439,30 @@
   <si>
     <t>CTVV 1176 - CASA ANDREA SANCHEZ - ANDREA SANCHEZ</t>
   </si>
+  <si>
+    <t>CTVV 3142</t>
+  </si>
+  <si>
+    <t>CTVV 3142 - Propuesta Verona Zamora (10 casas) - Meda</t>
+  </si>
+  <si>
+    <t>CTVV 3161</t>
+  </si>
+  <si>
+    <t>CTVV 3161 - Reemplazo de Mobiliario - Hogares Deesa</t>
+  </si>
+  <si>
+    <t>CTVV 3073</t>
+  </si>
+  <si>
+    <t>CTVV 3073 - Librero Niño - Cristina Barba</t>
+  </si>
+  <si>
+    <t>CTVV 2319</t>
+  </si>
+  <si>
+    <t>CTVV 2319 - COCINA ALEJANDRO RUIZ</t>
+  </si>
 </sst>
 </file>
 
@@ -510,13 +534,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1079" totalsRowShown="0">
-  <autoFilter ref="A1:V1079" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1118" totalsRowShown="0">
+  <autoFilter ref="A1:V1118" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -862,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V1079"/>
+  <dimension ref="A1:V1118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1057" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1069" sqref="F1069"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1104" sqref="F1104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48269,6 +48289,1662 @@
         <v>937.5</v>
       </c>
     </row>
+    <row r="1080" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1080">
+        <v>38</v>
+      </c>
+      <c r="C1080" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1080">
+        <v>1.85</v>
+      </c>
+      <c r="H1080">
+        <v>700</v>
+      </c>
+      <c r="I1080" s="2">
+        <v>1295</v>
+      </c>
+      <c r="L1080" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1080" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1080" s="2">
+        <v>1295</v>
+      </c>
+      <c r="S1080" s="2">
+        <v>1295</v>
+      </c>
+      <c r="U1080" s="2">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1081">
+        <v>38</v>
+      </c>
+      <c r="C1081" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1081">
+        <v>1.57</v>
+      </c>
+      <c r="H1081">
+        <v>700</v>
+      </c>
+      <c r="I1081" s="2">
+        <v>1099</v>
+      </c>
+      <c r="L1081" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1081" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1081" s="2">
+        <v>1099</v>
+      </c>
+      <c r="S1081" s="2">
+        <v>1099</v>
+      </c>
+      <c r="U1081" s="2">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1082">
+        <v>38</v>
+      </c>
+      <c r="C1082" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1082">
+        <v>1.85</v>
+      </c>
+      <c r="H1082">
+        <v>700</v>
+      </c>
+      <c r="I1082" s="2">
+        <v>1295</v>
+      </c>
+      <c r="L1082" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1082" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1082" s="2">
+        <v>1295</v>
+      </c>
+      <c r="S1082" s="2">
+        <v>1295</v>
+      </c>
+      <c r="U1082" s="2">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1083">
+        <v>38</v>
+      </c>
+      <c r="C1083" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1083">
+        <v>0.73</v>
+      </c>
+      <c r="H1083">
+        <v>700</v>
+      </c>
+      <c r="I1083" s="2">
+        <v>511</v>
+      </c>
+      <c r="L1083" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1083" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1083" s="2">
+        <v>511</v>
+      </c>
+      <c r="S1083" s="2">
+        <v>511</v>
+      </c>
+      <c r="U1083" s="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1084">
+        <v>38</v>
+      </c>
+      <c r="C1084" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1084">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H1084">
+        <v>700</v>
+      </c>
+      <c r="I1084" s="2">
+        <v>619.5</v>
+      </c>
+      <c r="J1084">
+        <v>1</v>
+      </c>
+      <c r="K1084">
+        <v>350</v>
+      </c>
+      <c r="L1084" s="2">
+        <v>350</v>
+      </c>
+      <c r="O1084" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1084" s="2">
+        <v>969.5</v>
+      </c>
+      <c r="S1084" s="2">
+        <v>969.5</v>
+      </c>
+      <c r="U1084" s="2">
+        <v>969.5</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1085">
+        <v>38</v>
+      </c>
+      <c r="C1085" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1085">
+        <v>0.51</v>
+      </c>
+      <c r="H1085">
+        <v>700</v>
+      </c>
+      <c r="I1085" s="2">
+        <v>357</v>
+      </c>
+      <c r="L1085" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1085" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1085" s="2">
+        <v>357</v>
+      </c>
+      <c r="Q1085" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1085" s="2">
+        <v>857</v>
+      </c>
+      <c r="U1085" s="2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1086">
+        <v>38</v>
+      </c>
+      <c r="C1086" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1086" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1086" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1086">
+        <v>1.25</v>
+      </c>
+      <c r="N1086">
+        <v>750</v>
+      </c>
+      <c r="O1086" s="2">
+        <v>937.5</v>
+      </c>
+      <c r="P1086" s="2">
+        <v>937.5</v>
+      </c>
+      <c r="S1086" s="2">
+        <v>937.5</v>
+      </c>
+      <c r="U1086" s="2">
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1087">
+        <v>38</v>
+      </c>
+      <c r="C1087" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1087" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1087" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1087">
+        <v>5</v>
+      </c>
+      <c r="N1087">
+        <v>1083</v>
+      </c>
+      <c r="O1087" s="2">
+        <v>5415</v>
+      </c>
+      <c r="P1087" s="2">
+        <v>5415</v>
+      </c>
+      <c r="S1087" s="2">
+        <v>5415</v>
+      </c>
+      <c r="U1087" s="2">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1088">
+        <v>38</v>
+      </c>
+      <c r="C1088" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1088">
+        <v>2.8</v>
+      </c>
+      <c r="H1088">
+        <v>700</v>
+      </c>
+      <c r="I1088" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="L1088" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1088" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1088" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="S1088" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="U1088" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1089">
+        <v>38</v>
+      </c>
+      <c r="C1089" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1089">
+        <v>1.35</v>
+      </c>
+      <c r="H1089">
+        <v>400</v>
+      </c>
+      <c r="I1089" s="2">
+        <v>540</v>
+      </c>
+      <c r="J1089">
+        <v>1</v>
+      </c>
+      <c r="K1089">
+        <v>200</v>
+      </c>
+      <c r="L1089" s="2">
+        <v>200</v>
+      </c>
+      <c r="M1089">
+        <v>0.5</v>
+      </c>
+      <c r="N1089">
+        <v>750</v>
+      </c>
+      <c r="O1089" s="2">
+        <v>375</v>
+      </c>
+      <c r="P1089" s="2">
+        <v>1115</v>
+      </c>
+      <c r="S1089" s="2">
+        <v>1115</v>
+      </c>
+      <c r="U1089" s="2">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1090">
+        <v>38</v>
+      </c>
+      <c r="C1090" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1090">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H1090">
+        <v>700</v>
+      </c>
+      <c r="I1090" s="2">
+        <v>406</v>
+      </c>
+      <c r="L1090" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1090" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1090" s="2">
+        <v>406</v>
+      </c>
+      <c r="S1090" s="2">
+        <v>406</v>
+      </c>
+      <c r="U1090" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1091">
+        <v>38</v>
+      </c>
+      <c r="C1091" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1091">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H1091">
+        <v>700</v>
+      </c>
+      <c r="I1091" s="2">
+        <v>632.1</v>
+      </c>
+      <c r="L1091" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1091">
+        <v>1.5</v>
+      </c>
+      <c r="N1091">
+        <v>1083.33</v>
+      </c>
+      <c r="O1091" s="2">
+        <v>1624.9949999999999</v>
+      </c>
+      <c r="P1091" s="2">
+        <v>2257.0949999999998</v>
+      </c>
+      <c r="S1091" s="2">
+        <v>2257.0949999999998</v>
+      </c>
+      <c r="U1091" s="2">
+        <v>2257.0949999999998</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1092">
+        <v>38</v>
+      </c>
+      <c r="C1092" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1092">
+        <v>3.63</v>
+      </c>
+      <c r="H1092">
+        <v>800</v>
+      </c>
+      <c r="I1092" s="2">
+        <v>2904</v>
+      </c>
+      <c r="J1092">
+        <v>1</v>
+      </c>
+      <c r="K1092">
+        <v>200</v>
+      </c>
+      <c r="L1092" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1092" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1092" s="2">
+        <v>3104</v>
+      </c>
+      <c r="S1092" s="2">
+        <v>3104</v>
+      </c>
+      <c r="U1092" s="2">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1093">
+        <v>38</v>
+      </c>
+      <c r="C1093" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1093">
+        <v>0.8</v>
+      </c>
+      <c r="H1093">
+        <v>500</v>
+      </c>
+      <c r="I1093" s="2">
+        <v>400</v>
+      </c>
+      <c r="L1093" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1093" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1093" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1093" s="2">
+        <v>400</v>
+      </c>
+      <c r="U1093" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1094">
+        <v>38</v>
+      </c>
+      <c r="C1094" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1094">
+        <v>1.81</v>
+      </c>
+      <c r="H1094">
+        <v>350</v>
+      </c>
+      <c r="I1094" s="2">
+        <v>633.5</v>
+      </c>
+      <c r="L1094" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1094" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1094" s="2">
+        <v>633.5</v>
+      </c>
+      <c r="S1094" s="2">
+        <v>633.5</v>
+      </c>
+      <c r="U1094" s="2">
+        <v>633.5</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1095">
+        <v>38</v>
+      </c>
+      <c r="C1095" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1095">
+        <v>2.12</v>
+      </c>
+      <c r="H1095">
+        <v>170</v>
+      </c>
+      <c r="I1095" s="2">
+        <v>360.40000000000003</v>
+      </c>
+      <c r="L1095" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1095" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1095" s="2">
+        <v>360.40000000000003</v>
+      </c>
+      <c r="S1095" s="2">
+        <v>360.40000000000003</v>
+      </c>
+      <c r="U1095" s="2">
+        <v>360.40000000000003</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1096">
+        <v>38</v>
+      </c>
+      <c r="C1096" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1096" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1096">
+        <v>1</v>
+      </c>
+      <c r="K1096">
+        <v>1800</v>
+      </c>
+      <c r="L1096" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O1096" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1096" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S1096" s="2">
+        <v>1800</v>
+      </c>
+      <c r="U1096" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1097">
+        <v>38</v>
+      </c>
+      <c r="C1097" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1097">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="H1097">
+        <v>250</v>
+      </c>
+      <c r="I1097" s="2">
+        <v>753.75</v>
+      </c>
+      <c r="L1097" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1097" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1097" s="2">
+        <v>753.75</v>
+      </c>
+      <c r="S1097" s="2">
+        <v>753.75</v>
+      </c>
+      <c r="U1097" s="2">
+        <v>753.75</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1098">
+        <v>38</v>
+      </c>
+      <c r="C1098" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1098" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1098">
+        <v>6</v>
+      </c>
+      <c r="K1098">
+        <v>700</v>
+      </c>
+      <c r="L1098" s="2">
+        <v>4200</v>
+      </c>
+      <c r="O1098" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1098" s="2">
+        <v>4200</v>
+      </c>
+      <c r="S1098" s="2">
+        <v>4200</v>
+      </c>
+      <c r="U1098" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1099">
+        <v>38</v>
+      </c>
+      <c r="C1099" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1099" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1099">
+        <v>2</v>
+      </c>
+      <c r="K1099">
+        <v>750</v>
+      </c>
+      <c r="L1099" s="2">
+        <v>1500</v>
+      </c>
+      <c r="O1099" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1099" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S1099" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U1099" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1100">
+        <v>38</v>
+      </c>
+      <c r="C1100" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1100">
+        <v>1</v>
+      </c>
+      <c r="K1100">
+        <v>500</v>
+      </c>
+      <c r="L1100" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1100" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1100" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q1100" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1100" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U1100" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1101">
+        <v>38</v>
+      </c>
+      <c r="C1101" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1101">
+        <v>0.98</v>
+      </c>
+      <c r="H1101">
+        <v>600</v>
+      </c>
+      <c r="I1101" s="2">
+        <v>588</v>
+      </c>
+      <c r="L1101" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1101" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1101" s="2">
+        <v>588</v>
+      </c>
+      <c r="S1101" s="2">
+        <v>588</v>
+      </c>
+      <c r="U1101" s="2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1102">
+        <v>38</v>
+      </c>
+      <c r="C1102" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1102">
+        <v>3.18</v>
+      </c>
+      <c r="H1102">
+        <v>250</v>
+      </c>
+      <c r="I1102" s="2">
+        <v>795</v>
+      </c>
+      <c r="L1102" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1102" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1102" s="2">
+        <v>795</v>
+      </c>
+      <c r="S1102" s="2">
+        <v>795</v>
+      </c>
+      <c r="U1102" s="2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1103">
+        <v>38</v>
+      </c>
+      <c r="C1103" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1103">
+        <v>5.53</v>
+      </c>
+      <c r="H1103">
+        <v>300</v>
+      </c>
+      <c r="I1103" s="2">
+        <v>1659</v>
+      </c>
+      <c r="L1103" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1103" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1103" s="2">
+        <v>1659</v>
+      </c>
+      <c r="S1103" s="2">
+        <v>1659</v>
+      </c>
+      <c r="U1103" s="2">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1104">
+        <v>38</v>
+      </c>
+      <c r="C1104" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1104" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1104" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1104">
+        <v>1</v>
+      </c>
+      <c r="N1104">
+        <v>750</v>
+      </c>
+      <c r="O1104" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1104" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1104" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1104" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1105">
+        <v>38</v>
+      </c>
+      <c r="C1105" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1105" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1105" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1105">
+        <v>1</v>
+      </c>
+      <c r="N1105">
+        <v>750</v>
+      </c>
+      <c r="O1105" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1105" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1105" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1105" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1106">
+        <v>38</v>
+      </c>
+      <c r="C1106" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1106" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1106" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1106">
+        <v>4</v>
+      </c>
+      <c r="N1106">
+        <v>700</v>
+      </c>
+      <c r="O1106" s="2">
+        <v>2800</v>
+      </c>
+      <c r="P1106" s="2">
+        <v>2800</v>
+      </c>
+      <c r="Q1106" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1106" s="2">
+        <v>3200</v>
+      </c>
+      <c r="U1106" s="2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1107">
+        <v>38</v>
+      </c>
+      <c r="C1107" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1107">
+        <v>1</v>
+      </c>
+      <c r="K1107">
+        <v>700</v>
+      </c>
+      <c r="L1107" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1107" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1107" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1107" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1108">
+        <v>38</v>
+      </c>
+      <c r="C1108" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1108" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1108" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1108">
+        <v>0.5</v>
+      </c>
+      <c r="N1108">
+        <v>1083.33</v>
+      </c>
+      <c r="O1108" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P1108" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="Q1108" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1108" s="2">
+        <v>641.66499999999996</v>
+      </c>
+      <c r="U1108" s="2">
+        <v>641.66499999999996</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1109">
+        <v>38</v>
+      </c>
+      <c r="C1109" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1109" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1109">
+        <v>3</v>
+      </c>
+      <c r="K1109">
+        <v>850</v>
+      </c>
+      <c r="L1109" s="2">
+        <v>2550</v>
+      </c>
+      <c r="M1109">
+        <v>0.5</v>
+      </c>
+      <c r="N1109">
+        <v>1083.33</v>
+      </c>
+      <c r="O1109" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P1109" s="2">
+        <v>3091.665</v>
+      </c>
+      <c r="S1109" s="2">
+        <v>3091.665</v>
+      </c>
+      <c r="U1109" s="2">
+        <v>3091.665</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1110">
+        <v>38</v>
+      </c>
+      <c r="C1110" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1110">
+        <v>1</v>
+      </c>
+      <c r="K1110">
+        <v>700</v>
+      </c>
+      <c r="L1110" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1110" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1110" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1110" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1110" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1111">
+        <v>38</v>
+      </c>
+      <c r="C1111" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1111" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1111" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1111">
+        <v>1</v>
+      </c>
+      <c r="N1111">
+        <v>1083.33</v>
+      </c>
+      <c r="O1111" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P1111" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="Q1111" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1111" s="2">
+        <v>1183.33</v>
+      </c>
+      <c r="U1111" s="2">
+        <v>1183.33</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1112">
+        <v>38</v>
+      </c>
+      <c r="C1112" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1112" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1112">
+        <v>0.75</v>
+      </c>
+      <c r="N1112">
+        <v>1083.33</v>
+      </c>
+      <c r="O1112" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P1112" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="S1112" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="U1112" s="2">
+        <v>812.49749999999995</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1113">
+        <v>38</v>
+      </c>
+      <c r="C1113" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1113" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1113" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1113">
+        <v>0.125</v>
+      </c>
+      <c r="N1113">
+        <v>750</v>
+      </c>
+      <c r="O1113" s="2">
+        <v>93.75</v>
+      </c>
+      <c r="P1113" s="2">
+        <v>93.75</v>
+      </c>
+      <c r="S1113" s="2">
+        <v>93.75</v>
+      </c>
+      <c r="U1113" s="2">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1114">
+        <v>38</v>
+      </c>
+      <c r="C1114" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1114" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1114" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1114">
+        <v>1</v>
+      </c>
+      <c r="N1114">
+        <v>750</v>
+      </c>
+      <c r="O1114" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1114" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1114" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1114" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1115">
+        <v>38</v>
+      </c>
+      <c r="C1115" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1115">
+        <v>1.17</v>
+      </c>
+      <c r="H1115">
+        <v>700</v>
+      </c>
+      <c r="I1115" s="2">
+        <v>819</v>
+      </c>
+      <c r="J1115">
+        <v>1</v>
+      </c>
+      <c r="K1115">
+        <v>500</v>
+      </c>
+      <c r="L1115" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1115" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1115" s="2">
+        <v>1319</v>
+      </c>
+      <c r="S1115" s="2">
+        <v>1319</v>
+      </c>
+      <c r="U1115" s="2">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1116">
+        <v>38</v>
+      </c>
+      <c r="C1116" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1116">
+        <v>2.27</v>
+      </c>
+      <c r="H1116">
+        <v>320</v>
+      </c>
+      <c r="I1116" s="2">
+        <v>726.4</v>
+      </c>
+      <c r="L1116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1116" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1116" s="2">
+        <v>726.4</v>
+      </c>
+      <c r="S1116" s="2">
+        <v>726.4</v>
+      </c>
+      <c r="U1116" s="2">
+        <v>726.4</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1117">
+        <v>38</v>
+      </c>
+      <c r="C1117" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1117">
+        <v>1.65</v>
+      </c>
+      <c r="H1117">
+        <v>700</v>
+      </c>
+      <c r="I1117" s="2">
+        <v>1155</v>
+      </c>
+      <c r="L1117" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1117" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1117" s="2">
+        <v>1155</v>
+      </c>
+      <c r="S1117" s="2">
+        <v>1155</v>
+      </c>
+      <c r="U1117" s="2">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1118">
+        <v>38</v>
+      </c>
+      <c r="C1118" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1118">
+        <v>0.9</v>
+      </c>
+      <c r="H1118">
+        <v>700</v>
+      </c>
+      <c r="I1118" s="2">
+        <v>630</v>
+      </c>
+      <c r="L1118" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1118" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1118" s="2">
+        <v>630</v>
+      </c>
+      <c r="S1118" s="2">
+        <v>630</v>
+      </c>
+      <c r="U1118" s="2">
+        <v>630</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77968C0C-06E9-4BC6-9389-59168370758C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D62FE19D-DB05-4298-9ACB-D1379C8EF799}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="146">
   <si>
     <t>SEMANA</t>
   </si>
@@ -463,6 +463,18 @@
   <si>
     <t>CTVV 2319 - COCINA ALEJANDRO RUIZ</t>
   </si>
+  <si>
+    <t>CTVV 3144</t>
+  </si>
+  <si>
+    <t>CTVV 3144 - Torre Aria Prototipo A (2 departamentos) - Injesa</t>
+  </si>
+  <si>
+    <t>CTVV 3125</t>
+  </si>
+  <si>
+    <t>CTVV 3125 - Remodelación Puerta Sur - Verónica Erón</t>
+  </si>
 </sst>
 </file>
 
@@ -535,8 +547,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1118" totalsRowShown="0">
-  <autoFilter ref="A1:V1118" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1167" totalsRowShown="0">
+  <autoFilter ref="A1:V1167" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -882,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V1118"/>
+  <dimension ref="A1:V1167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1104" sqref="F1104"/>
+      <selection activeCell="E1113" sqref="E1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49945,6 +49957,2141 @@
         <v>630</v>
       </c>
     </row>
+    <row r="1119" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1119">
+        <v>39</v>
+      </c>
+      <c r="C1119" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1119" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1119" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1119">
+        <v>1</v>
+      </c>
+      <c r="N1119">
+        <v>750</v>
+      </c>
+      <c r="O1119" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1119" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1119" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1119" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1120">
+        <v>39</v>
+      </c>
+      <c r="C1120" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1120" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1120" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1120">
+        <v>1</v>
+      </c>
+      <c r="N1120">
+        <v>750</v>
+      </c>
+      <c r="O1120" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1120" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1120" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1120" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1121">
+        <v>39</v>
+      </c>
+      <c r="C1121" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1121" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1121">
+        <v>2</v>
+      </c>
+      <c r="K1121">
+        <v>700</v>
+      </c>
+      <c r="L1121" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O1121" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1121" s="2">
+        <v>1400</v>
+      </c>
+      <c r="Q1121" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1121" s="2">
+        <v>1800</v>
+      </c>
+      <c r="U1121" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1122">
+        <v>39</v>
+      </c>
+      <c r="C1122" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1122" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1122" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1122">
+        <v>1</v>
+      </c>
+      <c r="N1122">
+        <v>1050</v>
+      </c>
+      <c r="O1122" s="2">
+        <v>1050</v>
+      </c>
+      <c r="P1122" s="2">
+        <v>1050</v>
+      </c>
+      <c r="S1122" s="2">
+        <v>1050</v>
+      </c>
+      <c r="U1122" s="2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1123">
+        <v>39</v>
+      </c>
+      <c r="C1123" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1123" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1123" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1123">
+        <v>1</v>
+      </c>
+      <c r="N1123">
+        <v>750</v>
+      </c>
+      <c r="O1123" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1123" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1123" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1123" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1124">
+        <v>39</v>
+      </c>
+      <c r="C1124" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1124" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1124" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1124">
+        <v>1</v>
+      </c>
+      <c r="N1124">
+        <v>1125</v>
+      </c>
+      <c r="O1124" s="2">
+        <v>1125</v>
+      </c>
+      <c r="P1124" s="2">
+        <v>1125</v>
+      </c>
+      <c r="S1124" s="2">
+        <v>1125</v>
+      </c>
+      <c r="U1124" s="2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1125">
+        <v>39</v>
+      </c>
+      <c r="C1125" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1125">
+        <v>4.21</v>
+      </c>
+      <c r="H1125">
+        <v>800</v>
+      </c>
+      <c r="I1125" s="2">
+        <v>3368</v>
+      </c>
+      <c r="J1125">
+        <v>1</v>
+      </c>
+      <c r="K1125">
+        <v>200</v>
+      </c>
+      <c r="L1125" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1125" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1125" s="2">
+        <v>3568</v>
+      </c>
+      <c r="S1125" s="2">
+        <v>3568</v>
+      </c>
+      <c r="U1125" s="2">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1126">
+        <v>39</v>
+      </c>
+      <c r="C1126" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1126">
+        <v>2.6</v>
+      </c>
+      <c r="H1126">
+        <v>500</v>
+      </c>
+      <c r="I1126" s="2">
+        <v>1300</v>
+      </c>
+      <c r="J1126">
+        <v>1</v>
+      </c>
+      <c r="K1126">
+        <v>200</v>
+      </c>
+      <c r="L1126" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1126" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1126" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S1126" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U1126" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1127">
+        <v>39</v>
+      </c>
+      <c r="C1127" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1127">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H1127">
+        <v>500</v>
+      </c>
+      <c r="I1127" s="2">
+        <v>1225</v>
+      </c>
+      <c r="L1127" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1127" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1127" s="2">
+        <v>1225</v>
+      </c>
+      <c r="S1127" s="2">
+        <v>1225</v>
+      </c>
+      <c r="U1127" s="2">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1128">
+        <v>39</v>
+      </c>
+      <c r="C1128" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1128" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1128" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1128">
+        <v>5</v>
+      </c>
+      <c r="N1128">
+        <v>1083</v>
+      </c>
+      <c r="O1128" s="2">
+        <v>5415</v>
+      </c>
+      <c r="P1128" s="2">
+        <v>5415</v>
+      </c>
+      <c r="S1128" s="2">
+        <v>5415</v>
+      </c>
+      <c r="U1128" s="2">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1129">
+        <v>39</v>
+      </c>
+      <c r="C1129" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1129">
+        <v>2.16</v>
+      </c>
+      <c r="H1129">
+        <v>700</v>
+      </c>
+      <c r="I1129" s="2">
+        <v>1512</v>
+      </c>
+      <c r="J1129">
+        <v>1</v>
+      </c>
+      <c r="K1129">
+        <v>500</v>
+      </c>
+      <c r="L1129" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1129" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1129" s="2">
+        <v>2012</v>
+      </c>
+      <c r="S1129" s="2">
+        <v>2012</v>
+      </c>
+      <c r="U1129" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1130">
+        <v>39</v>
+      </c>
+      <c r="C1130" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1130">
+        <v>2.16</v>
+      </c>
+      <c r="H1130">
+        <v>700</v>
+      </c>
+      <c r="I1130" s="2">
+        <v>1512</v>
+      </c>
+      <c r="J1130">
+        <v>1</v>
+      </c>
+      <c r="K1130">
+        <v>500</v>
+      </c>
+      <c r="L1130" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1130" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1130" s="2">
+        <v>2012</v>
+      </c>
+      <c r="S1130" s="2">
+        <v>2012</v>
+      </c>
+      <c r="U1130" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1131">
+        <v>39</v>
+      </c>
+      <c r="C1131" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1131">
+        <v>2.8</v>
+      </c>
+      <c r="H1131">
+        <v>700</v>
+      </c>
+      <c r="I1131" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="J1131">
+        <v>1</v>
+      </c>
+      <c r="K1131">
+        <v>500</v>
+      </c>
+      <c r="L1131" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1131" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1131" s="2">
+        <v>2460</v>
+      </c>
+      <c r="S1131" s="2">
+        <v>2460</v>
+      </c>
+      <c r="U1131" s="2">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1132">
+        <v>39</v>
+      </c>
+      <c r="C1132" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1132">
+        <v>2.16</v>
+      </c>
+      <c r="H1132">
+        <v>700</v>
+      </c>
+      <c r="I1132" s="2">
+        <v>1512</v>
+      </c>
+      <c r="L1132" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1132" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1132" s="2">
+        <v>1512</v>
+      </c>
+      <c r="S1132" s="2">
+        <v>1512</v>
+      </c>
+      <c r="U1132" s="2">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1133">
+        <v>39</v>
+      </c>
+      <c r="C1133" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1133">
+        <v>2.16</v>
+      </c>
+      <c r="H1133">
+        <v>700</v>
+      </c>
+      <c r="I1133" s="2">
+        <v>1512</v>
+      </c>
+      <c r="L1133" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1133" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1133" s="2">
+        <v>1512</v>
+      </c>
+      <c r="S1133" s="2">
+        <v>1512</v>
+      </c>
+      <c r="U1133" s="2">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1134">
+        <v>39</v>
+      </c>
+      <c r="C1134" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1134">
+        <v>2.8</v>
+      </c>
+      <c r="H1134">
+        <v>700</v>
+      </c>
+      <c r="I1134" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="L1134" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1134" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1134" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="S1134" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="U1134" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1135">
+        <v>39</v>
+      </c>
+      <c r="C1135" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1135">
+        <v>2.16</v>
+      </c>
+      <c r="H1135">
+        <v>700</v>
+      </c>
+      <c r="I1135" s="2">
+        <v>1512</v>
+      </c>
+      <c r="L1135" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1135" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1135" s="2">
+        <v>1512</v>
+      </c>
+      <c r="S1135" s="2">
+        <v>1512</v>
+      </c>
+      <c r="U1135" s="2">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1136">
+        <v>39</v>
+      </c>
+      <c r="C1136" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1136">
+        <v>3.77</v>
+      </c>
+      <c r="H1136">
+        <v>700</v>
+      </c>
+      <c r="I1136" s="2">
+        <v>2639</v>
+      </c>
+      <c r="J1136">
+        <v>1</v>
+      </c>
+      <c r="K1136">
+        <v>200</v>
+      </c>
+      <c r="L1136" s="2">
+        <v>200</v>
+      </c>
+      <c r="M1136">
+        <v>1</v>
+      </c>
+      <c r="N1136">
+        <v>1083</v>
+      </c>
+      <c r="O1136" s="2">
+        <v>1083</v>
+      </c>
+      <c r="P1136" s="2">
+        <v>3922</v>
+      </c>
+      <c r="S1136" s="2">
+        <v>3922</v>
+      </c>
+      <c r="U1136" s="2">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1137">
+        <v>39</v>
+      </c>
+      <c r="C1137" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1137" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1137">
+        <v>1</v>
+      </c>
+      <c r="K1137">
+        <v>200</v>
+      </c>
+      <c r="L1137" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1137" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1137" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1137" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1137" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1138">
+        <v>39</v>
+      </c>
+      <c r="C1138" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1138" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1138">
+        <v>1</v>
+      </c>
+      <c r="K1138">
+        <v>250</v>
+      </c>
+      <c r="L1138" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1138" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1138" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q1138" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1138" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1138" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1139">
+        <v>39</v>
+      </c>
+      <c r="C1139" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1139">
+        <v>2.34</v>
+      </c>
+      <c r="H1139">
+        <v>700</v>
+      </c>
+      <c r="I1139" s="2">
+        <v>1638</v>
+      </c>
+      <c r="L1139" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1139" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1139" s="2">
+        <v>1638</v>
+      </c>
+      <c r="S1139" s="2">
+        <v>1638</v>
+      </c>
+      <c r="U1139" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1140">
+        <v>39</v>
+      </c>
+      <c r="C1140" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1140">
+        <v>3.9</v>
+      </c>
+      <c r="H1140">
+        <v>300</v>
+      </c>
+      <c r="I1140" s="2">
+        <v>1170</v>
+      </c>
+      <c r="L1140" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1140" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1140" s="2">
+        <v>1170</v>
+      </c>
+      <c r="S1140" s="2">
+        <v>1170</v>
+      </c>
+      <c r="U1140" s="2">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1141">
+        <v>39</v>
+      </c>
+      <c r="C1141" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1141" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1141" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1141">
+        <v>0.5</v>
+      </c>
+      <c r="N1141">
+        <v>1083</v>
+      </c>
+      <c r="O1141" s="2">
+        <v>541.5</v>
+      </c>
+      <c r="P1141" s="2">
+        <v>541.5</v>
+      </c>
+      <c r="S1141" s="2">
+        <v>541.5</v>
+      </c>
+      <c r="U1141" s="2">
+        <v>541.5</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1142">
+        <v>39</v>
+      </c>
+      <c r="C1142" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1142">
+        <v>1.9</v>
+      </c>
+      <c r="H1142">
+        <v>700</v>
+      </c>
+      <c r="I1142" s="2">
+        <v>1330</v>
+      </c>
+      <c r="J1142">
+        <v>2</v>
+      </c>
+      <c r="K1142">
+        <v>300</v>
+      </c>
+      <c r="L1142" s="2">
+        <v>600</v>
+      </c>
+      <c r="O1142" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1142" s="2">
+        <v>1930</v>
+      </c>
+      <c r="S1142" s="2">
+        <v>1930</v>
+      </c>
+      <c r="U1142" s="2">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1143">
+        <v>39</v>
+      </c>
+      <c r="C1143" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1143">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H1143">
+        <v>700</v>
+      </c>
+      <c r="I1143" s="2">
+        <v>763</v>
+      </c>
+      <c r="J1143">
+        <v>1</v>
+      </c>
+      <c r="K1143">
+        <v>100</v>
+      </c>
+      <c r="L1143" s="2">
+        <v>100</v>
+      </c>
+      <c r="O1143" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1143" s="2">
+        <v>863</v>
+      </c>
+      <c r="S1143" s="2">
+        <v>863</v>
+      </c>
+      <c r="U1143" s="2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1144">
+        <v>39</v>
+      </c>
+      <c r="C1144" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1144" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1144">
+        <v>2</v>
+      </c>
+      <c r="K1144">
+        <v>300</v>
+      </c>
+      <c r="L1144" s="2">
+        <v>600</v>
+      </c>
+      <c r="O1144" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1144" s="2">
+        <v>600</v>
+      </c>
+      <c r="S1144" s="2">
+        <v>600</v>
+      </c>
+      <c r="U1144" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1145">
+        <v>39</v>
+      </c>
+      <c r="C1145" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1145">
+        <v>1</v>
+      </c>
+      <c r="K1145">
+        <v>100</v>
+      </c>
+      <c r="L1145" s="2">
+        <v>100</v>
+      </c>
+      <c r="O1145" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1145" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q1145" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1145" s="2">
+        <v>400</v>
+      </c>
+      <c r="U1145" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1146">
+        <v>39</v>
+      </c>
+      <c r="C1146" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1146">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="H1146">
+        <v>700</v>
+      </c>
+      <c r="I1146" s="2">
+        <v>1265.6000000000001</v>
+      </c>
+      <c r="L1146" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1146" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1146" s="2">
+        <v>1265.6000000000001</v>
+      </c>
+      <c r="S1146" s="2">
+        <v>1265.6000000000001</v>
+      </c>
+      <c r="U1146" s="2">
+        <v>1265.6000000000001</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1147">
+        <v>39</v>
+      </c>
+      <c r="C1147" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1147">
+        <v>0.9</v>
+      </c>
+      <c r="H1147">
+        <v>700</v>
+      </c>
+      <c r="I1147" s="2">
+        <v>630</v>
+      </c>
+      <c r="L1147" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1147" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1147" s="2">
+        <v>630</v>
+      </c>
+      <c r="S1147" s="2">
+        <v>630</v>
+      </c>
+      <c r="U1147" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1148">
+        <v>39</v>
+      </c>
+      <c r="C1148" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1148">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H1148">
+        <v>700</v>
+      </c>
+      <c r="I1148" s="2">
+        <v>1624</v>
+      </c>
+      <c r="L1148" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1148" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1148" s="2">
+        <v>1624</v>
+      </c>
+      <c r="S1148" s="2">
+        <v>1624</v>
+      </c>
+      <c r="U1148" s="2">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1149">
+        <v>39</v>
+      </c>
+      <c r="C1149" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1149">
+        <v>0.9</v>
+      </c>
+      <c r="H1149">
+        <v>700</v>
+      </c>
+      <c r="I1149" s="2">
+        <v>630</v>
+      </c>
+      <c r="J1149">
+        <v>1</v>
+      </c>
+      <c r="K1149">
+        <v>200</v>
+      </c>
+      <c r="L1149" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1149" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1149" s="2">
+        <v>830</v>
+      </c>
+      <c r="S1149" s="2">
+        <v>830</v>
+      </c>
+      <c r="U1149" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1150">
+        <v>39</v>
+      </c>
+      <c r="C1150" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1150">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H1150">
+        <v>700</v>
+      </c>
+      <c r="I1150" s="2">
+        <v>1624</v>
+      </c>
+      <c r="J1150">
+        <v>1</v>
+      </c>
+      <c r="K1150">
+        <v>200</v>
+      </c>
+      <c r="L1150" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1150" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1150" s="2">
+        <v>1824</v>
+      </c>
+      <c r="S1150" s="2">
+        <v>1824</v>
+      </c>
+      <c r="U1150" s="2">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1151">
+        <v>39</v>
+      </c>
+      <c r="C1151" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1151">
+        <v>13.3</v>
+      </c>
+      <c r="H1151">
+        <v>300</v>
+      </c>
+      <c r="I1151" s="2">
+        <v>3990</v>
+      </c>
+      <c r="J1151">
+        <v>1</v>
+      </c>
+      <c r="K1151">
+        <v>250</v>
+      </c>
+      <c r="L1151" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1151" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1151" s="2">
+        <v>4240</v>
+      </c>
+      <c r="S1151" s="2">
+        <v>4240</v>
+      </c>
+      <c r="U1151" s="2">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1152">
+        <v>39</v>
+      </c>
+      <c r="C1152" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1152">
+        <v>3.03</v>
+      </c>
+      <c r="H1152">
+        <v>700</v>
+      </c>
+      <c r="I1152" s="2">
+        <v>2121</v>
+      </c>
+      <c r="J1152">
+        <v>1</v>
+      </c>
+      <c r="K1152">
+        <v>250</v>
+      </c>
+      <c r="L1152" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1152" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1152" s="2">
+        <v>2371</v>
+      </c>
+      <c r="S1152" s="2">
+        <v>2371</v>
+      </c>
+      <c r="U1152" s="2">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1153">
+        <v>39</v>
+      </c>
+      <c r="C1153" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1153">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H1153">
+        <v>400</v>
+      </c>
+      <c r="I1153" s="2">
+        <v>811.99999999999989</v>
+      </c>
+      <c r="J1153">
+        <v>1</v>
+      </c>
+      <c r="K1153">
+        <v>200</v>
+      </c>
+      <c r="L1153" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1153" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1153" s="2">
+        <v>1011.9999999999999</v>
+      </c>
+      <c r="S1153" s="2">
+        <v>1011.9999999999999</v>
+      </c>
+      <c r="U1153" s="2">
+        <v>1011.9999999999999</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1154">
+        <v>39</v>
+      </c>
+      <c r="C1154" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1154">
+        <v>7.5</v>
+      </c>
+      <c r="H1154">
+        <v>250</v>
+      </c>
+      <c r="I1154" s="2">
+        <v>1875</v>
+      </c>
+      <c r="J1154">
+        <v>1</v>
+      </c>
+      <c r="K1154">
+        <v>200</v>
+      </c>
+      <c r="L1154" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1154" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1154" s="2">
+        <v>2075</v>
+      </c>
+      <c r="S1154" s="2">
+        <v>2075</v>
+      </c>
+      <c r="U1154" s="2">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1155">
+        <v>39</v>
+      </c>
+      <c r="C1155" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1155">
+        <v>3.71</v>
+      </c>
+      <c r="H1155">
+        <v>700</v>
+      </c>
+      <c r="I1155" s="2">
+        <v>2597</v>
+      </c>
+      <c r="J1155">
+        <v>6</v>
+      </c>
+      <c r="K1155">
+        <v>700</v>
+      </c>
+      <c r="L1155" s="2">
+        <v>4200</v>
+      </c>
+      <c r="O1155" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1155" s="2">
+        <v>6797</v>
+      </c>
+      <c r="S1155" s="2">
+        <v>6797</v>
+      </c>
+      <c r="U1155" s="2">
+        <v>6797</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1156">
+        <v>39</v>
+      </c>
+      <c r="C1156" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1156">
+        <v>2.95</v>
+      </c>
+      <c r="H1156">
+        <v>700</v>
+      </c>
+      <c r="I1156" s="2">
+        <v>2065</v>
+      </c>
+      <c r="J1156">
+        <v>1</v>
+      </c>
+      <c r="K1156">
+        <v>750</v>
+      </c>
+      <c r="L1156" s="2">
+        <v>750</v>
+      </c>
+      <c r="O1156" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1156" s="2">
+        <v>2815</v>
+      </c>
+      <c r="S1156" s="2">
+        <v>2815</v>
+      </c>
+      <c r="U1156" s="2">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1157">
+        <v>39</v>
+      </c>
+      <c r="C1157" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1157">
+        <v>2.95</v>
+      </c>
+      <c r="H1157">
+        <v>700</v>
+      </c>
+      <c r="I1157" s="2">
+        <v>2065</v>
+      </c>
+      <c r="J1157">
+        <v>1</v>
+      </c>
+      <c r="K1157">
+        <v>850</v>
+      </c>
+      <c r="L1157" s="2">
+        <v>850</v>
+      </c>
+      <c r="O1157" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1157" s="2">
+        <v>2915</v>
+      </c>
+      <c r="S1157" s="2">
+        <v>2915</v>
+      </c>
+      <c r="U1157" s="2">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1158">
+        <v>39</v>
+      </c>
+      <c r="C1158" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1158">
+        <v>1</v>
+      </c>
+      <c r="K1158">
+        <v>1800</v>
+      </c>
+      <c r="L1158" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O1158" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1158" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S1158" s="2">
+        <v>1800</v>
+      </c>
+      <c r="U1158" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1159">
+        <v>39</v>
+      </c>
+      <c r="C1159" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1159">
+        <v>1</v>
+      </c>
+      <c r="K1159">
+        <v>850</v>
+      </c>
+      <c r="L1159" s="2">
+        <v>850</v>
+      </c>
+      <c r="O1159" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1159" s="2">
+        <v>850</v>
+      </c>
+      <c r="S1159" s="2">
+        <v>850</v>
+      </c>
+      <c r="U1159" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1160">
+        <v>39</v>
+      </c>
+      <c r="C1160" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1160">
+        <v>1</v>
+      </c>
+      <c r="K1160">
+        <v>1800</v>
+      </c>
+      <c r="L1160" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O1160" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1160" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S1160" s="2">
+        <v>1800</v>
+      </c>
+      <c r="U1160" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1161">
+        <v>39</v>
+      </c>
+      <c r="C1161" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1161">
+        <v>3.08</v>
+      </c>
+      <c r="H1161">
+        <v>400</v>
+      </c>
+      <c r="I1161" s="2">
+        <v>1232</v>
+      </c>
+      <c r="L1161" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1161" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1161" s="2">
+        <v>1232</v>
+      </c>
+      <c r="Q1161" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1161" s="2">
+        <v>1732</v>
+      </c>
+      <c r="U1161" s="2">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1162">
+        <v>39</v>
+      </c>
+      <c r="C1162" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1162">
+        <v>0.41</v>
+      </c>
+      <c r="H1162">
+        <v>900</v>
+      </c>
+      <c r="I1162" s="2">
+        <v>369</v>
+      </c>
+      <c r="L1162" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1162">
+        <v>0.5</v>
+      </c>
+      <c r="N1162">
+        <v>1083.33</v>
+      </c>
+      <c r="O1162" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P1162" s="2">
+        <v>910.66499999999996</v>
+      </c>
+      <c r="S1162" s="2">
+        <v>910.66499999999996</v>
+      </c>
+      <c r="U1162" s="2">
+        <v>910.66499999999996</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1163">
+        <v>39</v>
+      </c>
+      <c r="C1163" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1163">
+        <v>2.54</v>
+      </c>
+      <c r="H1163">
+        <v>300</v>
+      </c>
+      <c r="I1163" s="2">
+        <v>762</v>
+      </c>
+      <c r="L1163" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1163" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1163" s="2">
+        <v>762</v>
+      </c>
+      <c r="S1163" s="2">
+        <v>762</v>
+      </c>
+      <c r="U1163" s="2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1164">
+        <v>39</v>
+      </c>
+      <c r="C1164" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1164">
+        <v>0.25</v>
+      </c>
+      <c r="H1164">
+        <v>600</v>
+      </c>
+      <c r="I1164" s="2">
+        <v>150</v>
+      </c>
+      <c r="L1164" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1164" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1164" s="2">
+        <v>150</v>
+      </c>
+      <c r="S1164" s="2">
+        <v>150</v>
+      </c>
+      <c r="U1164" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1165">
+        <v>39</v>
+      </c>
+      <c r="C1165" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1165">
+        <v>0.64</v>
+      </c>
+      <c r="H1165">
+        <v>400</v>
+      </c>
+      <c r="I1165" s="2">
+        <v>256</v>
+      </c>
+      <c r="L1165" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1165" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1165" s="2">
+        <v>256</v>
+      </c>
+      <c r="S1165" s="2">
+        <v>256</v>
+      </c>
+      <c r="U1165" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1166">
+        <v>39</v>
+      </c>
+      <c r="C1166" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1166">
+        <v>5.53</v>
+      </c>
+      <c r="H1166">
+        <v>300</v>
+      </c>
+      <c r="I1166" s="2">
+        <v>1659</v>
+      </c>
+      <c r="L1166" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1166" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1166" s="2">
+        <v>1659</v>
+      </c>
+      <c r="S1166" s="2">
+        <v>1659</v>
+      </c>
+      <c r="U1166" s="2">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1167">
+        <v>39</v>
+      </c>
+      <c r="C1167" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1167">
+        <v>11.06</v>
+      </c>
+      <c r="H1167">
+        <v>100</v>
+      </c>
+      <c r="I1167" s="2">
+        <v>1106</v>
+      </c>
+      <c r="L1167" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1167" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1167" s="2">
+        <v>1106</v>
+      </c>
+      <c r="S1167" s="2">
+        <v>1106</v>
+      </c>
+      <c r="U1167" s="2">
+        <v>1106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D62FE19D-DB05-4298-9ACB-D1379C8EF799}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E56579-9437-4424-979B-69BF4A39C4F2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="148">
   <si>
     <t>SEMANA</t>
   </si>
@@ -475,6 +475,12 @@
   <si>
     <t>CTVV 3125 - Remodelación Puerta Sur - Verónica Erón</t>
   </si>
+  <si>
+    <t>CTVV 2109</t>
+  </si>
+  <si>
+    <t>CTVV 2109 - CASA SO MODISA - MODISA</t>
+  </si>
 </sst>
 </file>
 
@@ -547,8 +553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1167" totalsRowShown="0">
-  <autoFilter ref="A1:V1167" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1202" totalsRowShown="0">
+  <autoFilter ref="A1:V1202" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -894,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V1167"/>
+  <dimension ref="A1:V1202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1113" sqref="E1113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1168" sqref="A1168:V1202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -52092,6 +52098,1519 @@
         <v>1106</v>
       </c>
     </row>
+    <row r="1168" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1168">
+        <v>40</v>
+      </c>
+      <c r="C1168" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1168" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1168" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1168">
+        <v>1</v>
+      </c>
+      <c r="N1168">
+        <v>750</v>
+      </c>
+      <c r="O1168" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1168" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1168" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1168" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1169">
+        <v>40</v>
+      </c>
+      <c r="C1169" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1169" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1169" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1169">
+        <v>0.5</v>
+      </c>
+      <c r="N1169">
+        <v>700</v>
+      </c>
+      <c r="O1169" s="2">
+        <v>350</v>
+      </c>
+      <c r="P1169" s="2">
+        <v>350</v>
+      </c>
+      <c r="S1169" s="2">
+        <v>350</v>
+      </c>
+      <c r="U1169" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1170">
+        <v>40</v>
+      </c>
+      <c r="C1170" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1170">
+        <v>0.85</v>
+      </c>
+      <c r="H1170">
+        <v>700</v>
+      </c>
+      <c r="I1170" s="2">
+        <v>595</v>
+      </c>
+      <c r="J1170">
+        <v>1</v>
+      </c>
+      <c r="K1170">
+        <v>365</v>
+      </c>
+      <c r="L1170" s="2">
+        <v>365</v>
+      </c>
+      <c r="M1170">
+        <v>1</v>
+      </c>
+      <c r="N1170">
+        <v>750</v>
+      </c>
+      <c r="O1170" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1170" s="2">
+        <v>1710</v>
+      </c>
+      <c r="S1170" s="2">
+        <v>1710</v>
+      </c>
+      <c r="U1170" s="2">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1171">
+        <v>40</v>
+      </c>
+      <c r="C1171" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1171">
+        <v>2.59</v>
+      </c>
+      <c r="H1171">
+        <v>350</v>
+      </c>
+      <c r="I1171" s="2">
+        <v>906.5</v>
+      </c>
+      <c r="J1171">
+        <v>1</v>
+      </c>
+      <c r="K1171">
+        <v>700</v>
+      </c>
+      <c r="L1171" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1171" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1171" s="2">
+        <v>1606.5</v>
+      </c>
+      <c r="S1171" s="2">
+        <v>1606.5</v>
+      </c>
+      <c r="U1171" s="2">
+        <v>1606.5</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1172">
+        <v>40</v>
+      </c>
+      <c r="C1172" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1172">
+        <v>0.71</v>
+      </c>
+      <c r="H1172">
+        <v>700</v>
+      </c>
+      <c r="I1172" s="2">
+        <v>497</v>
+      </c>
+      <c r="L1172" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1172" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1172" s="2">
+        <v>497</v>
+      </c>
+      <c r="Q1172" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1172" s="2">
+        <v>997</v>
+      </c>
+      <c r="U1172" s="2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1173">
+        <v>40</v>
+      </c>
+      <c r="C1173" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1173">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H1173">
+        <v>320</v>
+      </c>
+      <c r="I1173" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="J1173">
+        <v>2</v>
+      </c>
+      <c r="K1173">
+        <v>300</v>
+      </c>
+      <c r="L1173" s="2">
+        <v>600</v>
+      </c>
+      <c r="O1173" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1173" s="2">
+        <v>948.8</v>
+      </c>
+      <c r="S1173" s="2">
+        <v>948.8</v>
+      </c>
+      <c r="U1173" s="2">
+        <v>948.8</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1174">
+        <v>40</v>
+      </c>
+      <c r="C1174" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1174">
+        <v>0.81</v>
+      </c>
+      <c r="H1174">
+        <v>700</v>
+      </c>
+      <c r="I1174" s="2">
+        <v>567</v>
+      </c>
+      <c r="J1174">
+        <v>1</v>
+      </c>
+      <c r="K1174">
+        <v>150</v>
+      </c>
+      <c r="L1174" s="2">
+        <v>150</v>
+      </c>
+      <c r="O1174" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1174" s="2">
+        <v>717</v>
+      </c>
+      <c r="S1174" s="2">
+        <v>717</v>
+      </c>
+      <c r="U1174" s="2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1175">
+        <v>40</v>
+      </c>
+      <c r="C1175" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1175">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H1175">
+        <v>320</v>
+      </c>
+      <c r="I1175" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="L1175" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1175" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1175" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="S1175" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="U1175" s="2">
+        <v>348.8</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1176">
+        <v>40</v>
+      </c>
+      <c r="C1176" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1176">
+        <v>1.9</v>
+      </c>
+      <c r="H1176">
+        <v>700</v>
+      </c>
+      <c r="I1176" s="2">
+        <v>1330</v>
+      </c>
+      <c r="L1176" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1176" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1176" s="2">
+        <v>1330</v>
+      </c>
+      <c r="S1176" s="2">
+        <v>1330</v>
+      </c>
+      <c r="U1176" s="2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1177">
+        <v>40</v>
+      </c>
+      <c r="C1177" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1177">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H1177">
+        <v>320</v>
+      </c>
+      <c r="I1177" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="L1177" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1177" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1177" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="S1177" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="U1177" s="2">
+        <v>348.8</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1178">
+        <v>40</v>
+      </c>
+      <c r="C1178" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1178">
+        <v>1.9</v>
+      </c>
+      <c r="H1178">
+        <v>700</v>
+      </c>
+      <c r="I1178" s="2">
+        <v>1330</v>
+      </c>
+      <c r="L1178" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1178" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1178" s="2">
+        <v>1330</v>
+      </c>
+      <c r="S1178" s="2">
+        <v>1330</v>
+      </c>
+      <c r="U1178" s="2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1179">
+        <v>40</v>
+      </c>
+      <c r="C1179" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1179">
+        <v>2.27</v>
+      </c>
+      <c r="H1179">
+        <v>320</v>
+      </c>
+      <c r="I1179" s="2">
+        <v>726.4</v>
+      </c>
+      <c r="J1179">
+        <v>1</v>
+      </c>
+      <c r="K1179">
+        <v>500</v>
+      </c>
+      <c r="L1179" s="2">
+        <v>500</v>
+      </c>
+      <c r="O1179" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1179" s="2">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="S1179" s="2">
+        <v>1226.4000000000001</v>
+      </c>
+      <c r="U1179" s="2">
+        <v>1226.4000000000001</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1180">
+        <v>40</v>
+      </c>
+      <c r="C1180" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1180">
+        <v>2.16</v>
+      </c>
+      <c r="H1180">
+        <v>700</v>
+      </c>
+      <c r="I1180" s="2">
+        <v>1512</v>
+      </c>
+      <c r="L1180" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1180" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1180" s="2">
+        <v>1512</v>
+      </c>
+      <c r="S1180" s="2">
+        <v>1512</v>
+      </c>
+      <c r="U1180" s="2">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1181">
+        <v>40</v>
+      </c>
+      <c r="C1181" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1181">
+        <v>2.8</v>
+      </c>
+      <c r="H1181">
+        <v>700</v>
+      </c>
+      <c r="I1181" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="L1181" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1181" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1181" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="S1181" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="U1181" s="2">
+        <v>1959.9999999999998</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1182">
+        <v>40</v>
+      </c>
+      <c r="C1182" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1182">
+        <v>2.16</v>
+      </c>
+      <c r="H1182">
+        <v>700</v>
+      </c>
+      <c r="I1182" s="2">
+        <v>1512</v>
+      </c>
+      <c r="L1182" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1182" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1182" s="2">
+        <v>1512</v>
+      </c>
+      <c r="S1182" s="2">
+        <v>1512</v>
+      </c>
+      <c r="U1182" s="2">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1183">
+        <v>40</v>
+      </c>
+      <c r="C1183" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1183" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1183" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1183">
+        <v>5</v>
+      </c>
+      <c r="N1183">
+        <v>1083</v>
+      </c>
+      <c r="O1183" s="2">
+        <v>5415</v>
+      </c>
+      <c r="P1183" s="2">
+        <v>5415</v>
+      </c>
+      <c r="S1183" s="2">
+        <v>5415</v>
+      </c>
+      <c r="U1183" s="2">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1184">
+        <v>40</v>
+      </c>
+      <c r="C1184" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1184">
+        <v>2.6</v>
+      </c>
+      <c r="H1184">
+        <v>200</v>
+      </c>
+      <c r="I1184" s="2">
+        <v>520</v>
+      </c>
+      <c r="J1184">
+        <v>5</v>
+      </c>
+      <c r="K1184">
+        <v>700</v>
+      </c>
+      <c r="L1184" s="2">
+        <v>3500</v>
+      </c>
+      <c r="O1184" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1184" s="2">
+        <v>4020</v>
+      </c>
+      <c r="S1184" s="2">
+        <v>4020</v>
+      </c>
+      <c r="U1184" s="2">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1185">
+        <v>40</v>
+      </c>
+      <c r="C1185" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1185">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H1185">
+        <v>200</v>
+      </c>
+      <c r="I1185" s="2">
+        <v>490.00000000000006</v>
+      </c>
+      <c r="L1185" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1185" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1185" s="2">
+        <v>490.00000000000006</v>
+      </c>
+      <c r="S1185" s="2">
+        <v>490.00000000000006</v>
+      </c>
+      <c r="U1185" s="2">
+        <v>490.00000000000006</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1186">
+        <v>40</v>
+      </c>
+      <c r="C1186" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1186">
+        <v>0.41</v>
+      </c>
+      <c r="H1186">
+        <v>900</v>
+      </c>
+      <c r="I1186" s="2">
+        <v>369</v>
+      </c>
+      <c r="L1186" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1186">
+        <v>0.5</v>
+      </c>
+      <c r="N1186">
+        <v>1083.33</v>
+      </c>
+      <c r="O1186" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P1186" s="2">
+        <v>910.66499999999996</v>
+      </c>
+      <c r="S1186" s="2">
+        <v>910.66499999999996</v>
+      </c>
+      <c r="U1186" s="2">
+        <v>910.66499999999996</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1187">
+        <v>40</v>
+      </c>
+      <c r="C1187" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1187">
+        <v>0.64</v>
+      </c>
+      <c r="H1187">
+        <v>300</v>
+      </c>
+      <c r="I1187" s="2">
+        <v>192</v>
+      </c>
+      <c r="L1187" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1187" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1187" s="2">
+        <v>192</v>
+      </c>
+      <c r="S1187" s="2">
+        <v>192</v>
+      </c>
+      <c r="U1187" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1188">
+        <v>40</v>
+      </c>
+      <c r="C1188" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1188">
+        <v>2</v>
+      </c>
+      <c r="H1188">
+        <v>300</v>
+      </c>
+      <c r="I1188" s="2">
+        <v>600</v>
+      </c>
+      <c r="L1188" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1188" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1188" s="2">
+        <v>600</v>
+      </c>
+      <c r="S1188" s="2">
+        <v>600</v>
+      </c>
+      <c r="U1188" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1189">
+        <v>40</v>
+      </c>
+      <c r="C1189" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1189">
+        <v>2.76</v>
+      </c>
+      <c r="H1189">
+        <v>300</v>
+      </c>
+      <c r="I1189" s="2">
+        <v>827.99999999999989</v>
+      </c>
+      <c r="L1189" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1189" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1189" s="2">
+        <v>827.99999999999989</v>
+      </c>
+      <c r="S1189" s="2">
+        <v>827.99999999999989</v>
+      </c>
+      <c r="U1189" s="2">
+        <v>827.99999999999989</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1190">
+        <v>40</v>
+      </c>
+      <c r="C1190" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1190">
+        <v>2.76</v>
+      </c>
+      <c r="H1190">
+        <v>100</v>
+      </c>
+      <c r="I1190" s="2">
+        <v>276</v>
+      </c>
+      <c r="L1190" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1190" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1190" s="2">
+        <v>276</v>
+      </c>
+      <c r="S1190" s="2">
+        <v>276</v>
+      </c>
+      <c r="U1190" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1191">
+        <v>40</v>
+      </c>
+      <c r="C1191" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1191">
+        <v>3.08</v>
+      </c>
+      <c r="H1191">
+        <v>400</v>
+      </c>
+      <c r="I1191" s="2">
+        <v>1232</v>
+      </c>
+      <c r="L1191" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1191" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1191" s="2">
+        <v>1232</v>
+      </c>
+      <c r="Q1191" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1191" s="2">
+        <v>1732</v>
+      </c>
+      <c r="U1191" s="2">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1192">
+        <v>40</v>
+      </c>
+      <c r="C1192" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1192" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1192">
+        <v>1</v>
+      </c>
+      <c r="K1192">
+        <v>250</v>
+      </c>
+      <c r="L1192" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1192" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1192" s="2">
+        <v>250</v>
+      </c>
+      <c r="S1192" s="2">
+        <v>250</v>
+      </c>
+      <c r="U1192" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1193">
+        <v>40</v>
+      </c>
+      <c r="C1193" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1193" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1193">
+        <v>1</v>
+      </c>
+      <c r="K1193">
+        <v>750</v>
+      </c>
+      <c r="L1193" s="2">
+        <v>750</v>
+      </c>
+      <c r="O1193" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1193" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1193" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1193" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1194">
+        <v>40</v>
+      </c>
+      <c r="C1194" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1194" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1194">
+        <v>1</v>
+      </c>
+      <c r="K1194">
+        <v>1800</v>
+      </c>
+      <c r="L1194" s="2">
+        <v>1800</v>
+      </c>
+      <c r="O1194" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1194" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S1194" s="2">
+        <v>1800</v>
+      </c>
+      <c r="U1194" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1195">
+        <v>40</v>
+      </c>
+      <c r="C1195" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1195">
+        <v>10.5</v>
+      </c>
+      <c r="H1195">
+        <v>250</v>
+      </c>
+      <c r="I1195" s="2">
+        <v>2625</v>
+      </c>
+      <c r="L1195" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1195" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1195" s="2">
+        <v>2625</v>
+      </c>
+      <c r="S1195" s="2">
+        <v>2625</v>
+      </c>
+      <c r="U1195" s="2">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1196">
+        <v>40</v>
+      </c>
+      <c r="C1196" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1196">
+        <v>3.8650000000000002</v>
+      </c>
+      <c r="H1196">
+        <v>700</v>
+      </c>
+      <c r="I1196" s="2">
+        <v>2705.5</v>
+      </c>
+      <c r="J1196">
+        <v>1</v>
+      </c>
+      <c r="K1196">
+        <v>400</v>
+      </c>
+      <c r="L1196" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1196" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1196" s="2">
+        <v>3105.5</v>
+      </c>
+      <c r="S1196" s="2">
+        <v>3105.5</v>
+      </c>
+      <c r="U1196" s="2">
+        <v>3105.5</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1197">
+        <v>40</v>
+      </c>
+      <c r="C1197" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1197">
+        <v>3.8650000000000002</v>
+      </c>
+      <c r="H1197">
+        <v>700</v>
+      </c>
+      <c r="I1197" s="2">
+        <v>2705.5</v>
+      </c>
+      <c r="J1197">
+        <v>1</v>
+      </c>
+      <c r="K1197">
+        <v>400</v>
+      </c>
+      <c r="L1197" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1197" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1197" s="2">
+        <v>3105.5</v>
+      </c>
+      <c r="S1197" s="2">
+        <v>3105.5</v>
+      </c>
+      <c r="U1197" s="2">
+        <v>3105.5</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1198">
+        <v>40</v>
+      </c>
+      <c r="C1198" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1198">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="H1198">
+        <v>700</v>
+      </c>
+      <c r="I1198" s="2">
+        <v>1263.5</v>
+      </c>
+      <c r="J1198">
+        <v>1</v>
+      </c>
+      <c r="K1198">
+        <v>200</v>
+      </c>
+      <c r="L1198" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1198" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1198" s="2">
+        <v>1463.5</v>
+      </c>
+      <c r="S1198" s="2">
+        <v>1463.5</v>
+      </c>
+      <c r="U1198" s="2">
+        <v>1463.5</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1199">
+        <v>40</v>
+      </c>
+      <c r="C1199" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1199">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H1199">
+        <v>700</v>
+      </c>
+      <c r="I1199" s="2">
+        <v>1624</v>
+      </c>
+      <c r="J1199">
+        <v>1</v>
+      </c>
+      <c r="K1199">
+        <v>200</v>
+      </c>
+      <c r="L1199" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1199" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1199" s="2">
+        <v>1824</v>
+      </c>
+      <c r="S1199" s="2">
+        <v>1824</v>
+      </c>
+      <c r="U1199" s="2">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1200">
+        <v>40</v>
+      </c>
+      <c r="C1200" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1200">
+        <v>3.09</v>
+      </c>
+      <c r="H1200">
+        <v>700</v>
+      </c>
+      <c r="I1200" s="2">
+        <v>2163</v>
+      </c>
+      <c r="L1200" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1200" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1200" s="2">
+        <v>2163</v>
+      </c>
+      <c r="S1200" s="2">
+        <v>2163</v>
+      </c>
+      <c r="U1200" s="2">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1201">
+        <v>40</v>
+      </c>
+      <c r="C1201" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1201" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1201">
+        <v>1</v>
+      </c>
+      <c r="K1201">
+        <v>750</v>
+      </c>
+      <c r="L1201" s="2">
+        <v>750</v>
+      </c>
+      <c r="O1201" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1201" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1201" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1201" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1202">
+        <v>40</v>
+      </c>
+      <c r="C1202" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1202" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1202" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1202">
+        <v>1</v>
+      </c>
+      <c r="N1202">
+        <v>5000</v>
+      </c>
+      <c r="O1202" s="2">
+        <v>5000</v>
+      </c>
+      <c r="P1202" s="2">
+        <v>5000</v>
+      </c>
+      <c r="S1202" s="2">
+        <v>5000</v>
+      </c>
+      <c r="U1202" s="2">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/datasets/destajo.xlsx
+++ b/datasets/destajo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/Vori Vost/Pruebas-Boton/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A238E9F5-FA70-4357-B5CF-7E538BDDC874}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{48AB0E75-7D41-47DC-B758-D10181A064D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D393AD-3A1A-4218-BF49-ADF135981C7C}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31EFA5F5-4BB3-40E1-95BE-59439A9739F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5728" uniqueCount="195">
   <si>
     <t>SEMANA</t>
   </si>
@@ -586,6 +586,42 @@
   <si>
     <t>CTVV 3232 - Prototipo Arandano Vistas la Huerta 3 Torre A - Hogares Deesa</t>
   </si>
+  <si>
+    <t>CTVV 3185</t>
+  </si>
+  <si>
+    <t>CTVV 3185 - Prototipo T01 Vialba Villas del pedregal III 5° Etapa (15 viviendas) - Herso</t>
+  </si>
+  <si>
+    <t>CTVV 3238</t>
+  </si>
+  <si>
+    <t>CTVV 3238 - Milán Morelia (3 Casas) - Meda</t>
+  </si>
+  <si>
+    <t>CTVV 3040</t>
+  </si>
+  <si>
+    <t>CTVV 3040 - Lomalta 10 - Modisa</t>
+  </si>
+  <si>
+    <t>CTVV 3274</t>
+  </si>
+  <si>
+    <t>CTVV 3274 - PROTOTIPO B05 VILLAS DEL SUR (10 CASAS) - Herso</t>
+  </si>
+  <si>
+    <t>CTVV 3196</t>
+  </si>
+  <si>
+    <t>CTVV 3196 - Prototipo B05 Villas del Sur (5 casas) - Herso</t>
+  </si>
+  <si>
+    <t>CTVV 3184</t>
+  </si>
+  <si>
+    <t>CTVV 3184 - Aditiva 01 Hercom 301 - Hercom</t>
+  </si>
 </sst>
 </file>
 
@@ -657,13 +693,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1686" totalsRowShown="0">
-  <autoFilter ref="A1:V1686" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}" name="Tabla3" displayName="Tabla3" ref="A1:V1903" totalsRowShown="0">
+  <autoFilter ref="A1:V1903" xr:uid="{9E0CC650-65D8-433D-B952-D6D8E7051F24}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{50CD881F-F4BE-4F9A-B2C3-50C2D8C2910F}" name="SEMANA"/>
     <tableColumn id="2" xr3:uid="{54EA7CC6-3702-4F53-8DD3-E9431860F33D}" name="PERÍODO"/>
@@ -1009,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD62827-3B7E-49B3-B2B1-64E636F38ACC}">
-  <dimension ref="A1:V1686"/>
+  <dimension ref="A1:V1903"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1203" sqref="A1203:V1686"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1674" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1687" sqref="A1687:V1903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -74686,6 +74718,9443 @@
         <v>2163</v>
       </c>
     </row>
+    <row r="1687" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1687">
+        <v>49</v>
+      </c>
+      <c r="C1687" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1687" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1687" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1687">
+        <v>4</v>
+      </c>
+      <c r="K1687">
+        <v>750</v>
+      </c>
+      <c r="L1687" s="2">
+        <v>3000</v>
+      </c>
+      <c r="O1687" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1687" s="2">
+        <v>3000</v>
+      </c>
+      <c r="S1687" s="2">
+        <v>3000</v>
+      </c>
+      <c r="U1687" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1688">
+        <v>49</v>
+      </c>
+      <c r="C1688" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1688" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1688" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1688" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1688">
+        <v>1</v>
+      </c>
+      <c r="K1688">
+        <v>700</v>
+      </c>
+      <c r="L1688" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1688">
+        <v>0.75</v>
+      </c>
+      <c r="N1688">
+        <v>750</v>
+      </c>
+      <c r="O1688" s="2">
+        <v>562.5</v>
+      </c>
+      <c r="P1688" s="2">
+        <v>1262.5</v>
+      </c>
+      <c r="S1688" s="2">
+        <v>1262.5</v>
+      </c>
+      <c r="U1688" s="2">
+        <v>1262.5</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1689">
+        <v>49</v>
+      </c>
+      <c r="C1689" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1689" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1689" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1689" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1689">
+        <v>1</v>
+      </c>
+      <c r="K1689">
+        <v>750</v>
+      </c>
+      <c r="L1689" s="2">
+        <v>750</v>
+      </c>
+      <c r="O1689" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1689" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1689" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1689" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1690">
+        <v>49</v>
+      </c>
+      <c r="C1690" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1690" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1690" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1690">
+        <v>0.25</v>
+      </c>
+      <c r="K1690">
+        <v>250</v>
+      </c>
+      <c r="L1690" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="O1690" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1690" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="S1690" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="U1690" s="2">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1691">
+        <v>49</v>
+      </c>
+      <c r="C1691" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1691" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1691" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1691">
+        <v>0.25</v>
+      </c>
+      <c r="K1691">
+        <v>250</v>
+      </c>
+      <c r="L1691" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="O1691" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1691" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="S1691" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="U1691" s="2">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1692">
+        <v>49</v>
+      </c>
+      <c r="C1692" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1692" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1692" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1692" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1692">
+        <v>0.75</v>
+      </c>
+      <c r="K1692">
+        <v>250</v>
+      </c>
+      <c r="L1692" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="O1692" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1692" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="S1692" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="U1692" s="2">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1693">
+        <v>49</v>
+      </c>
+      <c r="C1693" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1693" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1693" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1693">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H1693">
+        <v>400</v>
+      </c>
+      <c r="I1693" s="2">
+        <v>972.00000000000011</v>
+      </c>
+      <c r="J1693">
+        <v>1</v>
+      </c>
+      <c r="K1693">
+        <v>750</v>
+      </c>
+      <c r="L1693" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1693">
+        <v>0.5</v>
+      </c>
+      <c r="N1693">
+        <v>1083</v>
+      </c>
+      <c r="O1693" s="2">
+        <v>541.5</v>
+      </c>
+      <c r="P1693" s="2">
+        <v>2263.5</v>
+      </c>
+      <c r="S1693" s="2">
+        <v>2263.5</v>
+      </c>
+      <c r="U1693" s="2">
+        <v>2263.5</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1694">
+        <v>49</v>
+      </c>
+      <c r="C1694" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1694" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1694" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1694">
+        <v>2.76</v>
+      </c>
+      <c r="H1694">
+        <v>700</v>
+      </c>
+      <c r="I1694" s="2">
+        <v>1931.9999999999998</v>
+      </c>
+      <c r="L1694" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1694" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1694" s="2">
+        <v>1931.9999999999998</v>
+      </c>
+      <c r="S1694" s="2">
+        <v>1931.9999999999998</v>
+      </c>
+      <c r="U1694" s="2">
+        <v>1931.9999999999998</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1695">
+        <v>49</v>
+      </c>
+      <c r="C1695" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1695" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1695" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1695">
+        <v>3.55</v>
+      </c>
+      <c r="H1695">
+        <v>700</v>
+      </c>
+      <c r="I1695" s="2">
+        <v>2485</v>
+      </c>
+      <c r="L1695" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1695" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1695" s="2">
+        <v>2485</v>
+      </c>
+      <c r="S1695" s="2">
+        <v>2485</v>
+      </c>
+      <c r="U1695" s="2">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1696">
+        <v>49</v>
+      </c>
+      <c r="C1696" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1696" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1696" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1696">
+        <v>4.53</v>
+      </c>
+      <c r="H1696">
+        <v>700</v>
+      </c>
+      <c r="I1696" s="2">
+        <v>3171</v>
+      </c>
+      <c r="L1696" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1696" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1696" s="2">
+        <v>3171</v>
+      </c>
+      <c r="S1696" s="2">
+        <v>3171</v>
+      </c>
+      <c r="U1696" s="2">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1697">
+        <v>49</v>
+      </c>
+      <c r="C1697" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1697" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1697">
+        <v>1.54</v>
+      </c>
+      <c r="H1697">
+        <v>550</v>
+      </c>
+      <c r="I1697" s="2">
+        <v>847</v>
+      </c>
+      <c r="L1697" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1697" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1697" s="2">
+        <v>847</v>
+      </c>
+      <c r="Q1697" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1697" s="2">
+        <v>1347</v>
+      </c>
+      <c r="U1697" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1698">
+        <v>49</v>
+      </c>
+      <c r="C1698" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1698" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1698" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1698">
+        <v>1.94</v>
+      </c>
+      <c r="H1698">
+        <v>400</v>
+      </c>
+      <c r="I1698" s="2">
+        <v>776</v>
+      </c>
+      <c r="L1698" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1698" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1698" s="2">
+        <v>776</v>
+      </c>
+      <c r="S1698" s="2">
+        <v>776</v>
+      </c>
+      <c r="U1698" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1699">
+        <v>49</v>
+      </c>
+      <c r="C1699" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1699" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1699">
+        <v>0.77</v>
+      </c>
+      <c r="H1699">
+        <v>700</v>
+      </c>
+      <c r="I1699" s="2">
+        <v>539</v>
+      </c>
+      <c r="J1699">
+        <v>1</v>
+      </c>
+      <c r="K1699">
+        <v>400</v>
+      </c>
+      <c r="L1699" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1699" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1699" s="2">
+        <v>939</v>
+      </c>
+      <c r="S1699" s="2">
+        <v>939</v>
+      </c>
+      <c r="U1699" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1700">
+        <v>49</v>
+      </c>
+      <c r="C1700" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1700" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1700" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1700">
+        <v>0.5</v>
+      </c>
+      <c r="K1700">
+        <v>1400</v>
+      </c>
+      <c r="L1700" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1700" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1700" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q1700" s="2">
+        <v>600</v>
+      </c>
+      <c r="S1700" s="2">
+        <v>1300</v>
+      </c>
+      <c r="U1700" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1701">
+        <v>49</v>
+      </c>
+      <c r="C1701" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1701" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1701" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1701">
+        <v>0.77</v>
+      </c>
+      <c r="H1701">
+        <v>700</v>
+      </c>
+      <c r="I1701" s="2">
+        <v>539</v>
+      </c>
+      <c r="J1701">
+        <v>1</v>
+      </c>
+      <c r="K1701">
+        <v>400</v>
+      </c>
+      <c r="L1701" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1701" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1701" s="2">
+        <v>939</v>
+      </c>
+      <c r="S1701" s="2">
+        <v>939</v>
+      </c>
+      <c r="U1701" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1702">
+        <v>49</v>
+      </c>
+      <c r="C1702" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1702" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1702" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1702">
+        <v>0.5</v>
+      </c>
+      <c r="K1702">
+        <v>1400</v>
+      </c>
+      <c r="L1702" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1702" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1702" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1702" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1702" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1703">
+        <v>49</v>
+      </c>
+      <c r="C1703" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1703" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1703">
+        <v>0.77</v>
+      </c>
+      <c r="H1703">
+        <v>700</v>
+      </c>
+      <c r="I1703" s="2">
+        <v>539</v>
+      </c>
+      <c r="J1703">
+        <v>1</v>
+      </c>
+      <c r="K1703">
+        <v>400</v>
+      </c>
+      <c r="L1703" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1703" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1703" s="2">
+        <v>939</v>
+      </c>
+      <c r="S1703" s="2">
+        <v>939</v>
+      </c>
+      <c r="U1703" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1704">
+        <v>49</v>
+      </c>
+      <c r="C1704" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1704" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1704">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1704">
+        <v>700</v>
+      </c>
+      <c r="I1704" s="2">
+        <v>812</v>
+      </c>
+      <c r="J1704">
+        <v>0.5</v>
+      </c>
+      <c r="K1704">
+        <v>1400</v>
+      </c>
+      <c r="L1704" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1704" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1704" s="2">
+        <v>1512</v>
+      </c>
+      <c r="S1704" s="2">
+        <v>1512</v>
+      </c>
+      <c r="U1704" s="2">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1705">
+        <v>49</v>
+      </c>
+      <c r="C1705" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1705">
+        <v>3.87</v>
+      </c>
+      <c r="H1705">
+        <v>700</v>
+      </c>
+      <c r="I1705" s="2">
+        <v>2709</v>
+      </c>
+      <c r="J1705">
+        <v>1</v>
+      </c>
+      <c r="K1705">
+        <v>400</v>
+      </c>
+      <c r="L1705" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1705" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1705" s="2">
+        <v>3109</v>
+      </c>
+      <c r="S1705" s="2">
+        <v>3109</v>
+      </c>
+      <c r="U1705" s="2">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1706">
+        <v>49</v>
+      </c>
+      <c r="C1706" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1706" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1706">
+        <v>0.9</v>
+      </c>
+      <c r="H1706">
+        <v>700</v>
+      </c>
+      <c r="I1706" s="2">
+        <v>630</v>
+      </c>
+      <c r="J1706">
+        <v>0.5</v>
+      </c>
+      <c r="K1706">
+        <v>1400</v>
+      </c>
+      <c r="L1706" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1706" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1706" s="2">
+        <v>1330</v>
+      </c>
+      <c r="S1706" s="2">
+        <v>1330</v>
+      </c>
+      <c r="U1706" s="2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1707">
+        <v>49</v>
+      </c>
+      <c r="C1707" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1707" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1707">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1707">
+        <v>700</v>
+      </c>
+      <c r="I1707" s="2">
+        <v>812</v>
+      </c>
+      <c r="L1707" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1707" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1707" s="2">
+        <v>812</v>
+      </c>
+      <c r="S1707" s="2">
+        <v>812</v>
+      </c>
+      <c r="U1707" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1708">
+        <v>49</v>
+      </c>
+      <c r="C1708" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1708" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1708">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H1708">
+        <v>700</v>
+      </c>
+      <c r="I1708" s="2">
+        <v>541.1</v>
+      </c>
+      <c r="J1708">
+        <v>1</v>
+      </c>
+      <c r="K1708">
+        <v>400</v>
+      </c>
+      <c r="L1708" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1708" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1708" s="2">
+        <v>941.1</v>
+      </c>
+      <c r="S1708" s="2">
+        <v>941.1</v>
+      </c>
+      <c r="U1708" s="2">
+        <v>941.1</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1709">
+        <v>49</v>
+      </c>
+      <c r="C1709" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1709" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1709">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H1709">
+        <v>700</v>
+      </c>
+      <c r="I1709" s="2">
+        <v>632.1</v>
+      </c>
+      <c r="J1709">
+        <v>1</v>
+      </c>
+      <c r="K1709">
+        <v>200</v>
+      </c>
+      <c r="L1709" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1709" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1709" s="2">
+        <v>832.1</v>
+      </c>
+      <c r="S1709" s="2">
+        <v>832.1</v>
+      </c>
+      <c r="U1709" s="2">
+        <v>832.1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1710">
+        <v>49</v>
+      </c>
+      <c r="C1710" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1710" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1710">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1710">
+        <v>700</v>
+      </c>
+      <c r="I1710" s="2">
+        <v>812</v>
+      </c>
+      <c r="J1710">
+        <v>1</v>
+      </c>
+      <c r="K1710">
+        <v>200</v>
+      </c>
+      <c r="L1710" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1710" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1710" s="2">
+        <v>1012</v>
+      </c>
+      <c r="S1710" s="2">
+        <v>1012</v>
+      </c>
+      <c r="U1710" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1711">
+        <v>49</v>
+      </c>
+      <c r="C1711" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1711">
+        <v>0.36</v>
+      </c>
+      <c r="H1711">
+        <v>700</v>
+      </c>
+      <c r="I1711" s="2">
+        <v>252</v>
+      </c>
+      <c r="L1711" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1711" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1711" s="2">
+        <v>252</v>
+      </c>
+      <c r="S1711" s="2">
+        <v>252</v>
+      </c>
+      <c r="U1711" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1712">
+        <v>49</v>
+      </c>
+      <c r="C1712" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1712" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1712">
+        <v>0.36</v>
+      </c>
+      <c r="H1712">
+        <v>700</v>
+      </c>
+      <c r="I1712" s="2">
+        <v>252</v>
+      </c>
+      <c r="L1712" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1712" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1712" s="2">
+        <v>252</v>
+      </c>
+      <c r="S1712" s="2">
+        <v>252</v>
+      </c>
+      <c r="U1712" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1713">
+        <v>49</v>
+      </c>
+      <c r="C1713" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1713" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1713">
+        <v>0.36</v>
+      </c>
+      <c r="H1713">
+        <v>700</v>
+      </c>
+      <c r="I1713" s="2">
+        <v>252</v>
+      </c>
+      <c r="L1713" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1713" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1713" s="2">
+        <v>252</v>
+      </c>
+      <c r="S1713" s="2">
+        <v>252</v>
+      </c>
+      <c r="U1713" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1714">
+        <v>49</v>
+      </c>
+      <c r="C1714" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1714" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1714">
+        <v>2</v>
+      </c>
+      <c r="K1714">
+        <v>800</v>
+      </c>
+      <c r="L1714" s="2">
+        <v>1600</v>
+      </c>
+      <c r="O1714" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1714" s="2">
+        <v>1600</v>
+      </c>
+      <c r="S1714" s="2">
+        <v>1600</v>
+      </c>
+      <c r="U1714" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1715">
+        <v>49</v>
+      </c>
+      <c r="C1715" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1715" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1715" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1715">
+        <v>8</v>
+      </c>
+      <c r="K1715">
+        <v>800</v>
+      </c>
+      <c r="L1715" s="2">
+        <v>6400</v>
+      </c>
+      <c r="O1715" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1715" s="2">
+        <v>6400</v>
+      </c>
+      <c r="S1715" s="2">
+        <v>6400</v>
+      </c>
+      <c r="U1715" s="2">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1716">
+        <v>49</v>
+      </c>
+      <c r="C1716" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1716" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1716" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1716">
+        <v>2</v>
+      </c>
+      <c r="K1716">
+        <v>100</v>
+      </c>
+      <c r="L1716" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1716" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1716" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1716" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1716" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1717">
+        <v>49</v>
+      </c>
+      <c r="C1717" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1717" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1717" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1717">
+        <v>1</v>
+      </c>
+      <c r="K1717">
+        <v>900</v>
+      </c>
+      <c r="L1717" s="2">
+        <v>900</v>
+      </c>
+      <c r="O1717" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1717" s="2">
+        <v>900</v>
+      </c>
+      <c r="S1717" s="2">
+        <v>900</v>
+      </c>
+      <c r="U1717" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1718">
+        <v>49</v>
+      </c>
+      <c r="C1718" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1718" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1718">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H1718">
+        <v>320</v>
+      </c>
+      <c r="I1718" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="J1718">
+        <v>3</v>
+      </c>
+      <c r="K1718">
+        <v>100</v>
+      </c>
+      <c r="L1718" s="2">
+        <v>300</v>
+      </c>
+      <c r="O1718" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1718" s="2">
+        <v>648.79999999999995</v>
+      </c>
+      <c r="S1718" s="2">
+        <v>648.79999999999995</v>
+      </c>
+      <c r="U1718" s="2">
+        <v>648.79999999999995</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1719">
+        <v>49</v>
+      </c>
+      <c r="C1719" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1719" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1719">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H1719">
+        <v>320</v>
+      </c>
+      <c r="I1719" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="L1719" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1719" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1719" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="Q1719" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1719" s="2">
+        <v>648.79999999999995</v>
+      </c>
+      <c r="U1719" s="2">
+        <v>648.79999999999995</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1720">
+        <v>49</v>
+      </c>
+      <c r="C1720" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1720" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1720" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1720" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1720">
+        <v>3</v>
+      </c>
+      <c r="N1720">
+        <v>1083</v>
+      </c>
+      <c r="O1720" s="2">
+        <v>3249</v>
+      </c>
+      <c r="P1720" s="2">
+        <v>3249</v>
+      </c>
+      <c r="Q1720" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1720" s="2">
+        <v>3749</v>
+      </c>
+      <c r="U1720" s="2">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1721">
+        <v>49</v>
+      </c>
+      <c r="C1721" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1721" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1721" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1721" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1721">
+        <v>2</v>
+      </c>
+      <c r="N1721">
+        <v>1083</v>
+      </c>
+      <c r="O1721" s="2">
+        <v>2166</v>
+      </c>
+      <c r="P1721" s="2">
+        <v>2166</v>
+      </c>
+      <c r="S1721" s="2">
+        <v>2166</v>
+      </c>
+      <c r="U1721" s="2">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1722">
+        <v>49</v>
+      </c>
+      <c r="C1722" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1722" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1722" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1722" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1722">
+        <v>3</v>
+      </c>
+      <c r="N1722">
+        <v>1083</v>
+      </c>
+      <c r="O1722" s="2">
+        <v>3249</v>
+      </c>
+      <c r="P1722" s="2">
+        <v>3249</v>
+      </c>
+      <c r="Q1722" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1722" s="2">
+        <v>3549</v>
+      </c>
+      <c r="U1722" s="2">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1723">
+        <v>49</v>
+      </c>
+      <c r="C1723" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1723" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1723">
+        <v>0.8</v>
+      </c>
+      <c r="K1723">
+        <v>350</v>
+      </c>
+      <c r="L1723" s="2">
+        <v>280</v>
+      </c>
+      <c r="M1723">
+        <v>1</v>
+      </c>
+      <c r="N1723">
+        <v>1083.33</v>
+      </c>
+      <c r="O1723" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P1723" s="2">
+        <v>1363.33</v>
+      </c>
+      <c r="S1723" s="2">
+        <v>1363.33</v>
+      </c>
+      <c r="U1723" s="2">
+        <v>1363.33</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1724">
+        <v>49</v>
+      </c>
+      <c r="C1724" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1724" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1724">
+        <v>0.8</v>
+      </c>
+      <c r="K1724">
+        <v>400</v>
+      </c>
+      <c r="L1724" s="2">
+        <v>320</v>
+      </c>
+      <c r="O1724" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1724" s="2">
+        <v>320</v>
+      </c>
+      <c r="S1724" s="2">
+        <v>320</v>
+      </c>
+      <c r="U1724" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1725">
+        <v>49</v>
+      </c>
+      <c r="C1725" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1725" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1725">
+        <v>0.8</v>
+      </c>
+      <c r="K1725">
+        <v>300</v>
+      </c>
+      <c r="L1725" s="2">
+        <v>240</v>
+      </c>
+      <c r="O1725" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1725" s="2">
+        <v>240</v>
+      </c>
+      <c r="S1725" s="2">
+        <v>240</v>
+      </c>
+      <c r="U1725" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1726">
+        <v>49</v>
+      </c>
+      <c r="C1726" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1726" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1726">
+        <v>0.8</v>
+      </c>
+      <c r="K1726">
+        <v>250</v>
+      </c>
+      <c r="L1726" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1726" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1726" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1726" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1726" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1727">
+        <v>49</v>
+      </c>
+      <c r="C1727" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1727" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1727">
+        <v>0.8</v>
+      </c>
+      <c r="K1727">
+        <v>200</v>
+      </c>
+      <c r="L1727" s="2">
+        <v>160</v>
+      </c>
+      <c r="O1727" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1727" s="2">
+        <v>160</v>
+      </c>
+      <c r="S1727" s="2">
+        <v>160</v>
+      </c>
+      <c r="U1727" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1728">
+        <v>49</v>
+      </c>
+      <c r="C1728" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1728" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1728">
+        <v>0.8</v>
+      </c>
+      <c r="K1728">
+        <v>250</v>
+      </c>
+      <c r="L1728" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1728" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1728" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1728" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1728" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1729">
+        <v>49</v>
+      </c>
+      <c r="C1729" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1729">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H1729">
+        <v>400</v>
+      </c>
+      <c r="I1729" s="2">
+        <v>459.99999999999994</v>
+      </c>
+      <c r="J1729">
+        <v>1</v>
+      </c>
+      <c r="K1729">
+        <v>300</v>
+      </c>
+      <c r="L1729" s="2">
+        <v>300</v>
+      </c>
+      <c r="M1729">
+        <v>0.75</v>
+      </c>
+      <c r="N1729">
+        <v>750</v>
+      </c>
+      <c r="O1729" s="2">
+        <v>562.5</v>
+      </c>
+      <c r="P1729" s="2">
+        <v>1322.5</v>
+      </c>
+      <c r="S1729" s="2">
+        <v>1322.5</v>
+      </c>
+      <c r="U1729" s="2">
+        <v>1322.5</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1730">
+        <v>49</v>
+      </c>
+      <c r="C1730" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1730">
+        <v>0.69</v>
+      </c>
+      <c r="H1730">
+        <v>700</v>
+      </c>
+      <c r="I1730" s="2">
+        <v>482.99999999999994</v>
+      </c>
+      <c r="J1730">
+        <v>2</v>
+      </c>
+      <c r="K1730">
+        <v>700</v>
+      </c>
+      <c r="L1730" s="2">
+        <v>1400</v>
+      </c>
+      <c r="M1730">
+        <v>1</v>
+      </c>
+      <c r="N1730">
+        <v>750</v>
+      </c>
+      <c r="O1730" s="2">
+        <v>750</v>
+      </c>
+      <c r="P1730" s="2">
+        <v>2633</v>
+      </c>
+      <c r="S1730" s="2">
+        <v>2633</v>
+      </c>
+      <c r="U1730" s="2">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1731">
+        <v>49</v>
+      </c>
+      <c r="C1731" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1731" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1731">
+        <v>1</v>
+      </c>
+      <c r="K1731">
+        <v>750</v>
+      </c>
+      <c r="L1731" s="2">
+        <v>750</v>
+      </c>
+      <c r="O1731" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1731" s="2">
+        <v>750</v>
+      </c>
+      <c r="Q1731" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1731" s="2">
+        <v>1150</v>
+      </c>
+      <c r="U1731" s="2">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1732">
+        <v>49</v>
+      </c>
+      <c r="C1732" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1732">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="H1732">
+        <v>700</v>
+      </c>
+      <c r="I1732" s="2">
+        <v>3572.8</v>
+      </c>
+      <c r="J1732">
+        <v>0.8</v>
+      </c>
+      <c r="K1732">
+        <v>900</v>
+      </c>
+      <c r="L1732" s="2">
+        <v>720</v>
+      </c>
+      <c r="M1732">
+        <v>0.25</v>
+      </c>
+      <c r="N1732">
+        <v>750</v>
+      </c>
+      <c r="O1732" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="P1732" s="2">
+        <v>4480.3</v>
+      </c>
+      <c r="S1732" s="2">
+        <v>4480.3</v>
+      </c>
+      <c r="U1732" s="2">
+        <v>4480.3</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1733">
+        <v>49</v>
+      </c>
+      <c r="C1733" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1733">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H1733">
+        <v>400</v>
+      </c>
+      <c r="I1733" s="2">
+        <v>988.00000000000011</v>
+      </c>
+      <c r="L1733" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1733" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1733" s="2">
+        <v>988.00000000000011</v>
+      </c>
+      <c r="S1733" s="2">
+        <v>988.00000000000011</v>
+      </c>
+      <c r="U1733" s="2">
+        <v>988.00000000000011</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1734">
+        <v>49</v>
+      </c>
+      <c r="C1734" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1734" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1734">
+        <v>2</v>
+      </c>
+      <c r="K1734">
+        <v>700</v>
+      </c>
+      <c r="L1734" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O1734" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1734" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S1734" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U1734" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1735">
+        <v>49</v>
+      </c>
+      <c r="C1735" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1735" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1735">
+        <v>1</v>
+      </c>
+      <c r="K1735">
+        <v>750</v>
+      </c>
+      <c r="L1735" s="2">
+        <v>750</v>
+      </c>
+      <c r="O1735" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1735" s="2">
+        <v>750</v>
+      </c>
+      <c r="Q1735" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1735" s="2">
+        <v>850</v>
+      </c>
+      <c r="U1735" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1736">
+        <v>49</v>
+      </c>
+      <c r="C1736" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1736">
+        <v>0.64</v>
+      </c>
+      <c r="H1736">
+        <v>700</v>
+      </c>
+      <c r="I1736" s="2">
+        <v>448</v>
+      </c>
+      <c r="J1736">
+        <v>1</v>
+      </c>
+      <c r="K1736">
+        <v>250</v>
+      </c>
+      <c r="L1736" s="2">
+        <v>250</v>
+      </c>
+      <c r="M1736">
+        <v>0.25</v>
+      </c>
+      <c r="N1736">
+        <v>750</v>
+      </c>
+      <c r="O1736" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="P1736" s="2">
+        <v>885.5</v>
+      </c>
+      <c r="S1736" s="2">
+        <v>885.5</v>
+      </c>
+      <c r="U1736" s="2">
+        <v>885.5</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1737">
+        <v>49</v>
+      </c>
+      <c r="C1737" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1737">
+        <v>2.5</v>
+      </c>
+      <c r="H1737">
+        <v>250</v>
+      </c>
+      <c r="I1737" s="2">
+        <v>625</v>
+      </c>
+      <c r="J1737">
+        <v>1</v>
+      </c>
+      <c r="K1737">
+        <v>250</v>
+      </c>
+      <c r="L1737" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1737" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1737" s="2">
+        <v>875</v>
+      </c>
+      <c r="S1737" s="2">
+        <v>875</v>
+      </c>
+      <c r="U1737" s="2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1738">
+        <v>49</v>
+      </c>
+      <c r="C1738" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1738">
+        <v>1.21</v>
+      </c>
+      <c r="H1738">
+        <v>350</v>
+      </c>
+      <c r="I1738" s="2">
+        <v>423.5</v>
+      </c>
+      <c r="J1738">
+        <v>1</v>
+      </c>
+      <c r="K1738">
+        <v>400</v>
+      </c>
+      <c r="L1738" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1738" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1738" s="2">
+        <v>823.5</v>
+      </c>
+      <c r="Q1738" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1738" s="2">
+        <v>1223.5</v>
+      </c>
+      <c r="U1738" s="2">
+        <v>1223.5</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1739">
+        <v>49</v>
+      </c>
+      <c r="C1739" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1739">
+        <v>2.77</v>
+      </c>
+      <c r="H1739">
+        <v>700</v>
+      </c>
+      <c r="I1739" s="2">
+        <v>1939</v>
+      </c>
+      <c r="L1739" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1739" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1739" s="2">
+        <v>1939</v>
+      </c>
+      <c r="S1739" s="2">
+        <v>1939</v>
+      </c>
+      <c r="U1739" s="2">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1740">
+        <v>49</v>
+      </c>
+      <c r="C1740" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1740">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="H1740">
+        <v>700</v>
+      </c>
+      <c r="I1740" s="2">
+        <v>570.5</v>
+      </c>
+      <c r="L1740" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1740">
+        <v>0.75</v>
+      </c>
+      <c r="N1740">
+        <v>1083.33</v>
+      </c>
+      <c r="O1740" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P1740" s="2">
+        <v>1382.9974999999999</v>
+      </c>
+      <c r="S1740" s="2">
+        <v>1382.9974999999999</v>
+      </c>
+      <c r="U1740" s="2">
+        <v>1382.9974999999999</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1741">
+        <v>49</v>
+      </c>
+      <c r="C1741" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1741">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="H1741">
+        <v>700</v>
+      </c>
+      <c r="I1741" s="2">
+        <v>411.59999999999997</v>
+      </c>
+      <c r="L1741" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1741" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1741" s="2">
+        <v>411.59999999999997</v>
+      </c>
+      <c r="S1741" s="2">
+        <v>411.59999999999997</v>
+      </c>
+      <c r="U1741" s="2">
+        <v>411.59999999999997</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1742">
+        <v>49</v>
+      </c>
+      <c r="C1742" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1742">
+        <v>2.94</v>
+      </c>
+      <c r="H1742">
+        <v>320</v>
+      </c>
+      <c r="I1742" s="2">
+        <v>940.8</v>
+      </c>
+      <c r="L1742" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1742" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1742" s="2">
+        <v>940.8</v>
+      </c>
+      <c r="S1742" s="2">
+        <v>940.8</v>
+      </c>
+      <c r="U1742" s="2">
+        <v>940.8</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1743">
+        <v>49</v>
+      </c>
+      <c r="C1743" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1743">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="H1743">
+        <v>700</v>
+      </c>
+      <c r="I1743" s="2">
+        <v>892.49999999999989</v>
+      </c>
+      <c r="L1743" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1743" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1743" s="2">
+        <v>892.49999999999989</v>
+      </c>
+      <c r="S1743" s="2">
+        <v>892.49999999999989</v>
+      </c>
+      <c r="U1743" s="2">
+        <v>892.49999999999989</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1744">
+        <v>49</v>
+      </c>
+      <c r="C1744" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1744">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H1744">
+        <v>320</v>
+      </c>
+      <c r="I1744" s="2">
+        <v>816</v>
+      </c>
+      <c r="L1744" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1744" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1744" s="2">
+        <v>816</v>
+      </c>
+      <c r="S1744" s="2">
+        <v>816</v>
+      </c>
+      <c r="U1744" s="2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1745">
+        <v>49</v>
+      </c>
+      <c r="C1745" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1745">
+        <v>2.1</v>
+      </c>
+      <c r="H1745">
+        <v>400</v>
+      </c>
+      <c r="I1745" s="2">
+        <v>840</v>
+      </c>
+      <c r="L1745" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1745" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1745" s="2">
+        <v>840</v>
+      </c>
+      <c r="S1745" s="2">
+        <v>840</v>
+      </c>
+      <c r="U1745" s="2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1746">
+        <v>50</v>
+      </c>
+      <c r="C1746" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1746">
+        <v>0.48</v>
+      </c>
+      <c r="H1746">
+        <v>700</v>
+      </c>
+      <c r="I1746" s="2">
+        <v>336</v>
+      </c>
+      <c r="J1746">
+        <v>1</v>
+      </c>
+      <c r="K1746">
+        <v>1500</v>
+      </c>
+      <c r="L1746" s="2">
+        <v>1500</v>
+      </c>
+      <c r="M1746">
+        <v>1</v>
+      </c>
+      <c r="N1746">
+        <v>1083</v>
+      </c>
+      <c r="O1746" s="2">
+        <v>1083</v>
+      </c>
+      <c r="P1746" s="2">
+        <v>2919</v>
+      </c>
+      <c r="S1746" s="2">
+        <v>2919</v>
+      </c>
+      <c r="U1746" s="2">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1747">
+        <v>50</v>
+      </c>
+      <c r="C1747" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1747">
+        <v>0.27</v>
+      </c>
+      <c r="H1747">
+        <v>400</v>
+      </c>
+      <c r="I1747" s="2">
+        <v>108</v>
+      </c>
+      <c r="J1747">
+        <v>1</v>
+      </c>
+      <c r="K1747">
+        <v>700</v>
+      </c>
+      <c r="L1747" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1747" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1747" s="2">
+        <v>808</v>
+      </c>
+      <c r="S1747" s="2">
+        <v>808</v>
+      </c>
+      <c r="U1747" s="2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1748">
+        <v>50</v>
+      </c>
+      <c r="C1748" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1748">
+        <v>1.35</v>
+      </c>
+      <c r="H1748">
+        <v>320</v>
+      </c>
+      <c r="I1748" s="2">
+        <v>432</v>
+      </c>
+      <c r="L1748" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1748" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1748" s="2">
+        <v>432</v>
+      </c>
+      <c r="S1748" s="2">
+        <v>432</v>
+      </c>
+      <c r="U1748" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1749">
+        <v>50</v>
+      </c>
+      <c r="C1749" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1749">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H1749">
+        <v>250</v>
+      </c>
+      <c r="I1749" s="2">
+        <v>2009.9999999999998</v>
+      </c>
+      <c r="L1749" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1749" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1749" s="2">
+        <v>2009.9999999999998</v>
+      </c>
+      <c r="S1749" s="2">
+        <v>2009.9999999999998</v>
+      </c>
+      <c r="U1749" s="2">
+        <v>2009.9999999999998</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1750">
+        <v>50</v>
+      </c>
+      <c r="C1750" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1750">
+        <v>0.17</v>
+      </c>
+      <c r="H1750">
+        <v>550</v>
+      </c>
+      <c r="I1750" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="L1750" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1750" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1750" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="Q1750" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1750" s="2">
+        <v>593.5</v>
+      </c>
+      <c r="U1750" s="2">
+        <v>593.5</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1751">
+        <v>50</v>
+      </c>
+      <c r="C1751" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1751" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1751" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1751" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1751">
+        <v>0.75</v>
+      </c>
+      <c r="N1751">
+        <v>750</v>
+      </c>
+      <c r="O1751" s="2">
+        <v>562.5</v>
+      </c>
+      <c r="P1751" s="2">
+        <v>562.5</v>
+      </c>
+      <c r="S1751" s="2">
+        <v>562.5</v>
+      </c>
+      <c r="U1751" s="2">
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1752">
+        <v>50</v>
+      </c>
+      <c r="C1752" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1752" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1752" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1752">
+        <v>0.5</v>
+      </c>
+      <c r="K1752">
+        <v>1400</v>
+      </c>
+      <c r="L1752" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1752" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1752" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q1752" s="2">
+        <v>600</v>
+      </c>
+      <c r="S1752" s="2">
+        <v>1300</v>
+      </c>
+      <c r="U1752" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1753">
+        <v>50</v>
+      </c>
+      <c r="C1753" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1753" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1753" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1753">
+        <v>0.5</v>
+      </c>
+      <c r="K1753">
+        <v>1400</v>
+      </c>
+      <c r="L1753" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1753" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1753" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1753" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1753" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1754">
+        <v>50</v>
+      </c>
+      <c r="C1754" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1754" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1754" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1754">
+        <v>0.5</v>
+      </c>
+      <c r="K1754">
+        <v>1400</v>
+      </c>
+      <c r="L1754" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1754" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1754" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1754" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1754" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1755">
+        <v>50</v>
+      </c>
+      <c r="C1755" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1755" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1755" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1755">
+        <v>0.5</v>
+      </c>
+      <c r="K1755">
+        <v>1400</v>
+      </c>
+      <c r="L1755" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1755" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1755" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1755" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1755" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1756">
+        <v>50</v>
+      </c>
+      <c r="C1756" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1756" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1756">
+        <v>1</v>
+      </c>
+      <c r="K1756">
+        <v>1400</v>
+      </c>
+      <c r="L1756" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O1756" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1756" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S1756" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U1756" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1757">
+        <v>50</v>
+      </c>
+      <c r="C1757" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1757" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1757">
+        <v>1</v>
+      </c>
+      <c r="K1757">
+        <v>1400</v>
+      </c>
+      <c r="L1757" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O1757" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1757" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S1757" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U1757" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1758">
+        <v>50</v>
+      </c>
+      <c r="C1758" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1758" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1758">
+        <v>1</v>
+      </c>
+      <c r="K1758">
+        <v>1400</v>
+      </c>
+      <c r="L1758" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O1758" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1758" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S1758" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U1758" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1759">
+        <v>50</v>
+      </c>
+      <c r="C1759" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1759" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1759">
+        <v>1</v>
+      </c>
+      <c r="K1759">
+        <v>1400</v>
+      </c>
+      <c r="L1759" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O1759" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1759" s="2">
+        <v>1400</v>
+      </c>
+      <c r="S1759" s="2">
+        <v>1400</v>
+      </c>
+      <c r="U1759" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1760">
+        <v>50</v>
+      </c>
+      <c r="C1760" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1760">
+        <v>3.87</v>
+      </c>
+      <c r="H1760">
+        <v>700</v>
+      </c>
+      <c r="I1760" s="2">
+        <v>2709</v>
+      </c>
+      <c r="L1760" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1760" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1760" s="2">
+        <v>2709</v>
+      </c>
+      <c r="S1760" s="2">
+        <v>2709</v>
+      </c>
+      <c r="U1760" s="2">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1761">
+        <v>50</v>
+      </c>
+      <c r="C1761" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1761">
+        <v>0.9</v>
+      </c>
+      <c r="H1761">
+        <v>700</v>
+      </c>
+      <c r="I1761" s="2">
+        <v>630</v>
+      </c>
+      <c r="L1761" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1761" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1761" s="2">
+        <v>630</v>
+      </c>
+      <c r="S1761" s="2">
+        <v>630</v>
+      </c>
+      <c r="U1761" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1762">
+        <v>50</v>
+      </c>
+      <c r="C1762" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1762" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1762">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1762">
+        <v>700</v>
+      </c>
+      <c r="I1762" s="2">
+        <v>812</v>
+      </c>
+      <c r="L1762" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1762" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1762" s="2">
+        <v>812</v>
+      </c>
+      <c r="S1762" s="2">
+        <v>812</v>
+      </c>
+      <c r="U1762" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1763">
+        <v>50</v>
+      </c>
+      <c r="C1763" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1763" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1763" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1763">
+        <v>1</v>
+      </c>
+      <c r="N1763">
+        <v>1083.33</v>
+      </c>
+      <c r="O1763" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P1763" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="S1763" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="U1763" s="2">
+        <v>1083.33</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1764">
+        <v>50</v>
+      </c>
+      <c r="C1764" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1764">
+        <v>0.77</v>
+      </c>
+      <c r="H1764">
+        <v>700</v>
+      </c>
+      <c r="I1764" s="2">
+        <v>539</v>
+      </c>
+      <c r="J1764">
+        <v>1</v>
+      </c>
+      <c r="K1764">
+        <v>400</v>
+      </c>
+      <c r="L1764" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1764" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1764" s="2">
+        <v>939</v>
+      </c>
+      <c r="S1764" s="2">
+        <v>939</v>
+      </c>
+      <c r="U1764" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1765">
+        <v>50</v>
+      </c>
+      <c r="C1765" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1765">
+        <v>0.77</v>
+      </c>
+      <c r="H1765">
+        <v>700</v>
+      </c>
+      <c r="I1765" s="2">
+        <v>539</v>
+      </c>
+      <c r="J1765">
+        <v>1</v>
+      </c>
+      <c r="K1765">
+        <v>400</v>
+      </c>
+      <c r="L1765" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1765" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1765" s="2">
+        <v>939</v>
+      </c>
+      <c r="S1765" s="2">
+        <v>939</v>
+      </c>
+      <c r="U1765" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1766">
+        <v>50</v>
+      </c>
+      <c r="C1766" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1766" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1766">
+        <v>0.77</v>
+      </c>
+      <c r="H1766">
+        <v>700</v>
+      </c>
+      <c r="I1766" s="2">
+        <v>539</v>
+      </c>
+      <c r="J1766">
+        <v>1</v>
+      </c>
+      <c r="K1766">
+        <v>400</v>
+      </c>
+      <c r="L1766" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1766" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1766" s="2">
+        <v>939</v>
+      </c>
+      <c r="S1766" s="2">
+        <v>939</v>
+      </c>
+      <c r="U1766" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1767">
+        <v>50</v>
+      </c>
+      <c r="C1767" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1767">
+        <v>3.87</v>
+      </c>
+      <c r="H1767">
+        <v>700</v>
+      </c>
+      <c r="I1767" s="2">
+        <v>2709</v>
+      </c>
+      <c r="L1767" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1767" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1767" s="2">
+        <v>2709</v>
+      </c>
+      <c r="S1767" s="2">
+        <v>2709</v>
+      </c>
+      <c r="U1767" s="2">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1768">
+        <v>50</v>
+      </c>
+      <c r="C1768" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1768">
+        <v>3.87</v>
+      </c>
+      <c r="H1768">
+        <v>700</v>
+      </c>
+      <c r="I1768" s="2">
+        <v>2709</v>
+      </c>
+      <c r="L1768" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1768" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1768" s="2">
+        <v>2709</v>
+      </c>
+      <c r="S1768" s="2">
+        <v>2709</v>
+      </c>
+      <c r="U1768" s="2">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1769">
+        <v>50</v>
+      </c>
+      <c r="C1769" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1769">
+        <v>0.9</v>
+      </c>
+      <c r="H1769">
+        <v>700</v>
+      </c>
+      <c r="I1769" s="2">
+        <v>630</v>
+      </c>
+      <c r="L1769" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1769" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1769" s="2">
+        <v>630</v>
+      </c>
+      <c r="S1769" s="2">
+        <v>630</v>
+      </c>
+      <c r="U1769" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1770">
+        <v>50</v>
+      </c>
+      <c r="C1770" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1770">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1770">
+        <v>700</v>
+      </c>
+      <c r="I1770" s="2">
+        <v>812</v>
+      </c>
+      <c r="L1770" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1770" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1770" s="2">
+        <v>812</v>
+      </c>
+      <c r="S1770" s="2">
+        <v>812</v>
+      </c>
+      <c r="U1770" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1771">
+        <v>50</v>
+      </c>
+      <c r="C1771" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1771">
+        <v>3.87</v>
+      </c>
+      <c r="H1771">
+        <v>700</v>
+      </c>
+      <c r="I1771" s="2">
+        <v>2709</v>
+      </c>
+      <c r="L1771" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1771" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1771" s="2">
+        <v>2709</v>
+      </c>
+      <c r="S1771" s="2">
+        <v>2709</v>
+      </c>
+      <c r="U1771" s="2">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1772">
+        <v>50</v>
+      </c>
+      <c r="C1772" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1772">
+        <v>0.9</v>
+      </c>
+      <c r="H1772">
+        <v>700</v>
+      </c>
+      <c r="I1772" s="2">
+        <v>630</v>
+      </c>
+      <c r="L1772" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1772" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1772" s="2">
+        <v>630</v>
+      </c>
+      <c r="S1772" s="2">
+        <v>630</v>
+      </c>
+      <c r="U1772" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1773">
+        <v>50</v>
+      </c>
+      <c r="C1773" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1773">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1773">
+        <v>700</v>
+      </c>
+      <c r="I1773" s="2">
+        <v>812</v>
+      </c>
+      <c r="L1773" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1773" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1773" s="2">
+        <v>812</v>
+      </c>
+      <c r="Q1773" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1773" s="2">
+        <v>1312</v>
+      </c>
+      <c r="U1773" s="2">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1774">
+        <v>50</v>
+      </c>
+      <c r="C1774" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1774" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1774">
+        <v>1</v>
+      </c>
+      <c r="K1774">
+        <v>600</v>
+      </c>
+      <c r="L1774" s="2">
+        <v>600</v>
+      </c>
+      <c r="O1774" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1774" s="2">
+        <v>600</v>
+      </c>
+      <c r="S1774" s="2">
+        <v>600</v>
+      </c>
+      <c r="U1774" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1775">
+        <v>50</v>
+      </c>
+      <c r="C1775" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1775" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1775">
+        <v>1</v>
+      </c>
+      <c r="K1775">
+        <v>700</v>
+      </c>
+      <c r="L1775" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1775" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1775" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1775" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1775" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1776">
+        <v>50</v>
+      </c>
+      <c r="C1776" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1776" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1776">
+        <v>1</v>
+      </c>
+      <c r="K1776">
+        <v>700</v>
+      </c>
+      <c r="L1776" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1776" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1776" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1776" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1776" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1777">
+        <v>50</v>
+      </c>
+      <c r="C1777" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1777">
+        <v>0.66</v>
+      </c>
+      <c r="H1777">
+        <v>700</v>
+      </c>
+      <c r="I1777" s="2">
+        <v>462</v>
+      </c>
+      <c r="L1777" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1777" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1777" s="2">
+        <v>462</v>
+      </c>
+      <c r="S1777" s="2">
+        <v>462</v>
+      </c>
+      <c r="U1777" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1778">
+        <v>50</v>
+      </c>
+      <c r="C1778" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1778">
+        <v>1.55</v>
+      </c>
+      <c r="H1778">
+        <v>700</v>
+      </c>
+      <c r="I1778" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L1778" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1778" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1778" s="2">
+        <v>1085</v>
+      </c>
+      <c r="Q1778" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1778" s="2">
+        <v>1385</v>
+      </c>
+      <c r="U1778" s="2">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1779">
+        <v>50</v>
+      </c>
+      <c r="C1779" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1779">
+        <v>0.66</v>
+      </c>
+      <c r="H1779">
+        <v>700</v>
+      </c>
+      <c r="I1779" s="2">
+        <v>462</v>
+      </c>
+      <c r="L1779" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1779" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1779" s="2">
+        <v>462</v>
+      </c>
+      <c r="S1779" s="2">
+        <v>462</v>
+      </c>
+      <c r="U1779" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1780">
+        <v>50</v>
+      </c>
+      <c r="C1780" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1780">
+        <v>1.55</v>
+      </c>
+      <c r="H1780">
+        <v>700</v>
+      </c>
+      <c r="I1780" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L1780" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1780" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1780" s="2">
+        <v>1085</v>
+      </c>
+      <c r="Q1780" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1780" s="2">
+        <v>1385</v>
+      </c>
+      <c r="U1780" s="2">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1781">
+        <v>50</v>
+      </c>
+      <c r="C1781" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1781">
+        <v>1</v>
+      </c>
+      <c r="H1781">
+        <v>700</v>
+      </c>
+      <c r="I1781" s="2">
+        <v>700</v>
+      </c>
+      <c r="L1781" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1781" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1781" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q1781" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1781" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U1781" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1782">
+        <v>50</v>
+      </c>
+      <c r="C1782" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1782" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1782" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1782">
+        <v>3</v>
+      </c>
+      <c r="N1782">
+        <v>1083</v>
+      </c>
+      <c r="O1782" s="2">
+        <v>3249</v>
+      </c>
+      <c r="P1782" s="2">
+        <v>3249</v>
+      </c>
+      <c r="Q1782" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1782" s="2">
+        <v>3749</v>
+      </c>
+      <c r="U1782" s="2">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1783">
+        <v>50</v>
+      </c>
+      <c r="C1783" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1783" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1783" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1783">
+        <v>2</v>
+      </c>
+      <c r="N1783">
+        <v>750</v>
+      </c>
+      <c r="O1783" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P1783" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S1783" s="2">
+        <v>1500</v>
+      </c>
+      <c r="U1783" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1784">
+        <v>50</v>
+      </c>
+      <c r="C1784" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1784" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1784" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1784">
+        <v>2</v>
+      </c>
+      <c r="N1784">
+        <v>1083</v>
+      </c>
+      <c r="O1784" s="2">
+        <v>2166</v>
+      </c>
+      <c r="P1784" s="2">
+        <v>2166</v>
+      </c>
+      <c r="S1784" s="2">
+        <v>2166</v>
+      </c>
+      <c r="U1784" s="2">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1785">
+        <v>50</v>
+      </c>
+      <c r="C1785" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1785" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1785" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1785">
+        <v>3</v>
+      </c>
+      <c r="N1785">
+        <v>1083</v>
+      </c>
+      <c r="O1785" s="2">
+        <v>3249</v>
+      </c>
+      <c r="P1785" s="2">
+        <v>3249</v>
+      </c>
+      <c r="S1785" s="2">
+        <v>3249</v>
+      </c>
+      <c r="U1785" s="2">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1786">
+        <v>50</v>
+      </c>
+      <c r="C1786" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1786">
+        <v>1.6</v>
+      </c>
+      <c r="H1786">
+        <v>350</v>
+      </c>
+      <c r="I1786" s="2">
+        <v>560</v>
+      </c>
+      <c r="L1786" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1786" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1786" s="2">
+        <v>560</v>
+      </c>
+      <c r="S1786" s="2">
+        <v>560</v>
+      </c>
+      <c r="U1786" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1787">
+        <v>50</v>
+      </c>
+      <c r="C1787" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1787">
+        <v>0.64</v>
+      </c>
+      <c r="H1787">
+        <v>700</v>
+      </c>
+      <c r="I1787" s="2">
+        <v>448</v>
+      </c>
+      <c r="L1787" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1787" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1787" s="2">
+        <v>448</v>
+      </c>
+      <c r="S1787" s="2">
+        <v>448</v>
+      </c>
+      <c r="U1787" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1788">
+        <v>50</v>
+      </c>
+      <c r="C1788" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1788">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="H1788">
+        <v>700</v>
+      </c>
+      <c r="I1788" s="2">
+        <v>299.25</v>
+      </c>
+      <c r="J1788">
+        <v>5</v>
+      </c>
+      <c r="K1788">
+        <v>700</v>
+      </c>
+      <c r="L1788" s="2">
+        <v>3500</v>
+      </c>
+      <c r="O1788" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1788" s="2">
+        <v>3799.25</v>
+      </c>
+      <c r="S1788" s="2">
+        <v>3799.25</v>
+      </c>
+      <c r="U1788" s="2">
+        <v>3799.25</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1789">
+        <v>50</v>
+      </c>
+      <c r="C1789" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1789">
+        <v>0.5</v>
+      </c>
+      <c r="H1789">
+        <v>400</v>
+      </c>
+      <c r="I1789" s="2">
+        <v>200</v>
+      </c>
+      <c r="L1789" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1789" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1789" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q1789" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1789" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1789" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1790">
+        <v>50</v>
+      </c>
+      <c r="C1790" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1790">
+        <v>3.952</v>
+      </c>
+      <c r="H1790">
+        <v>700</v>
+      </c>
+      <c r="I1790" s="2">
+        <v>2766.4</v>
+      </c>
+      <c r="L1790" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1790" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1790" s="2">
+        <v>2766.4</v>
+      </c>
+      <c r="S1790" s="2">
+        <v>2766.4</v>
+      </c>
+      <c r="U1790" s="2">
+        <v>2766.4</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1791">
+        <v>50</v>
+      </c>
+      <c r="C1791" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1791">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="H1791">
+        <v>400</v>
+      </c>
+      <c r="I1791" s="2">
+        <v>1010.8000000000001</v>
+      </c>
+      <c r="L1791" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1791" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1791" s="2">
+        <v>1010.8000000000001</v>
+      </c>
+      <c r="S1791" s="2">
+        <v>1010.8000000000001</v>
+      </c>
+      <c r="U1791" s="2">
+        <v>1010.8000000000001</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1792">
+        <v>50</v>
+      </c>
+      <c r="C1792" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1792">
+        <v>1.325</v>
+      </c>
+      <c r="H1792">
+        <v>320</v>
+      </c>
+      <c r="I1792" s="2">
+        <v>424</v>
+      </c>
+      <c r="L1792" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1792" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1792" s="2">
+        <v>424</v>
+      </c>
+      <c r="S1792" s="2">
+        <v>424</v>
+      </c>
+      <c r="U1792" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1793">
+        <v>50</v>
+      </c>
+      <c r="C1793" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1793">
+        <v>2.78</v>
+      </c>
+      <c r="H1793">
+        <v>700</v>
+      </c>
+      <c r="I1793" s="2">
+        <v>1945.9999999999998</v>
+      </c>
+      <c r="L1793" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1793" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1793" s="2">
+        <v>1945.9999999999998</v>
+      </c>
+      <c r="Q1793" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1793" s="2">
+        <v>2045.9999999999998</v>
+      </c>
+      <c r="U1793" s="2">
+        <v>2045.9999999999998</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1794">
+        <v>50</v>
+      </c>
+      <c r="C1794" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1794">
+        <v>2.77</v>
+      </c>
+      <c r="H1794">
+        <v>700</v>
+      </c>
+      <c r="I1794" s="2">
+        <v>1939</v>
+      </c>
+      <c r="J1794">
+        <v>1</v>
+      </c>
+      <c r="K1794">
+        <v>750</v>
+      </c>
+      <c r="L1794" s="2">
+        <v>750</v>
+      </c>
+      <c r="M1794">
+        <v>0.5</v>
+      </c>
+      <c r="N1794">
+        <v>750</v>
+      </c>
+      <c r="O1794" s="2">
+        <v>375</v>
+      </c>
+      <c r="P1794" s="2">
+        <v>3064</v>
+      </c>
+      <c r="S1794" s="2">
+        <v>3064</v>
+      </c>
+      <c r="U1794" s="2">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1795">
+        <v>50</v>
+      </c>
+      <c r="C1795" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1795">
+        <v>4.4560000000000004</v>
+      </c>
+      <c r="H1795">
+        <v>350</v>
+      </c>
+      <c r="I1795" s="2">
+        <v>1559.6000000000001</v>
+      </c>
+      <c r="L1795" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1795" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1795" s="2">
+        <v>1559.6000000000001</v>
+      </c>
+      <c r="S1795" s="2">
+        <v>1559.6000000000001</v>
+      </c>
+      <c r="U1795" s="2">
+        <v>1559.6000000000001</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1796">
+        <v>50</v>
+      </c>
+      <c r="C1796" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1796">
+        <v>1.8</v>
+      </c>
+      <c r="H1796">
+        <v>700</v>
+      </c>
+      <c r="I1796" s="2">
+        <v>1260</v>
+      </c>
+      <c r="L1796" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1796" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1796" s="2">
+        <v>1260</v>
+      </c>
+      <c r="Q1796" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1796" s="2">
+        <v>1760</v>
+      </c>
+      <c r="U1796" s="2">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1797">
+        <v>50</v>
+      </c>
+      <c r="C1797" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1797">
+        <v>1.276</v>
+      </c>
+      <c r="H1797">
+        <v>700</v>
+      </c>
+      <c r="I1797" s="2">
+        <v>893.2</v>
+      </c>
+      <c r="J1797">
+        <v>0.2</v>
+      </c>
+      <c r="K1797">
+        <v>900</v>
+      </c>
+      <c r="L1797" s="2">
+        <v>180</v>
+      </c>
+      <c r="O1797" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1797" s="2">
+        <v>1073.2</v>
+      </c>
+      <c r="S1797" s="2">
+        <v>1073.2</v>
+      </c>
+      <c r="U1797" s="2">
+        <v>1073.2</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1798">
+        <v>50</v>
+      </c>
+      <c r="C1798" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1798">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="H1798">
+        <v>700</v>
+      </c>
+      <c r="I1798" s="2">
+        <v>906.5</v>
+      </c>
+      <c r="J1798">
+        <v>0.5</v>
+      </c>
+      <c r="K1798">
+        <v>350</v>
+      </c>
+      <c r="L1798" s="2">
+        <v>175</v>
+      </c>
+      <c r="O1798" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1798" s="2">
+        <v>1081.5</v>
+      </c>
+      <c r="S1798" s="2">
+        <v>1081.5</v>
+      </c>
+      <c r="U1798" s="2">
+        <v>1081.5</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1799">
+        <v>50</v>
+      </c>
+      <c r="C1799" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1799" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1799">
+        <v>0.5</v>
+      </c>
+      <c r="K1799">
+        <v>250</v>
+      </c>
+      <c r="L1799" s="2">
+        <v>125</v>
+      </c>
+      <c r="O1799" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1799" s="2">
+        <v>125</v>
+      </c>
+      <c r="S1799" s="2">
+        <v>125</v>
+      </c>
+      <c r="U1799" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1800">
+        <v>50</v>
+      </c>
+      <c r="C1800" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1800" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1800">
+        <v>3</v>
+      </c>
+      <c r="K1800">
+        <v>700</v>
+      </c>
+      <c r="L1800" s="2">
+        <v>2100</v>
+      </c>
+      <c r="O1800" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1800" s="2">
+        <v>2100</v>
+      </c>
+      <c r="S1800" s="2">
+        <v>2100</v>
+      </c>
+      <c r="U1800" s="2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1801">
+        <v>50</v>
+      </c>
+      <c r="C1801" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1801" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1801">
+        <v>5</v>
+      </c>
+      <c r="K1801">
+        <v>700</v>
+      </c>
+      <c r="L1801" s="2">
+        <v>3500</v>
+      </c>
+      <c r="O1801" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1801" s="2">
+        <v>3500</v>
+      </c>
+      <c r="S1801" s="2">
+        <v>3500</v>
+      </c>
+      <c r="U1801" s="2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1802">
+        <v>50</v>
+      </c>
+      <c r="C1802" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1802" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1802">
+        <v>1</v>
+      </c>
+      <c r="K1802">
+        <v>700</v>
+      </c>
+      <c r="L1802" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1802" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1802" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1802" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1802" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1803">
+        <v>50</v>
+      </c>
+      <c r="C1803" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1803">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="H1803">
+        <v>700</v>
+      </c>
+      <c r="I1803" s="2">
+        <v>1702.3999999999999</v>
+      </c>
+      <c r="L1803" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1803" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1803" s="2">
+        <v>1702.3999999999999</v>
+      </c>
+      <c r="S1803" s="2">
+        <v>1702.3999999999999</v>
+      </c>
+      <c r="U1803" s="2">
+        <v>1702.3999999999999</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1804">
+        <v>50</v>
+      </c>
+      <c r="C1804" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1804">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="H1804">
+        <v>400</v>
+      </c>
+      <c r="I1804" s="2">
+        <v>373.91999999999996</v>
+      </c>
+      <c r="L1804" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1804" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1804" s="2">
+        <v>373.91999999999996</v>
+      </c>
+      <c r="S1804" s="2">
+        <v>373.91999999999996</v>
+      </c>
+      <c r="U1804" s="2">
+        <v>373.91999999999996</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1805">
+        <v>50</v>
+      </c>
+      <c r="C1805" s="1">
+        <v>45638</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1805">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="H1805">
+        <v>700</v>
+      </c>
+      <c r="I1805" s="2">
+        <v>892.49999999999989</v>
+      </c>
+      <c r="L1805" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1805">
+        <v>0.5</v>
+      </c>
+      <c r="N1805">
+        <v>1083.33</v>
+      </c>
+      <c r="O1805" s="2">
+        <v>541.66499999999996</v>
+      </c>
+      <c r="P1805" s="2">
+        <v>1434.165</v>
+      </c>
+      <c r="S1805" s="2">
+        <v>1434.165</v>
+      </c>
+      <c r="U1805" s="2">
+        <v>1434.165</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1806">
+        <v>52</v>
+      </c>
+      <c r="C1806" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1806">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="H1806">
+        <v>700</v>
+      </c>
+      <c r="I1806" s="2">
+        <v>1795.5</v>
+      </c>
+      <c r="J1806">
+        <v>9</v>
+      </c>
+      <c r="K1806">
+        <v>700</v>
+      </c>
+      <c r="L1806" s="2">
+        <v>6300</v>
+      </c>
+      <c r="O1806" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1806" s="2">
+        <v>8095.5</v>
+      </c>
+      <c r="S1806" s="2">
+        <v>8095.5</v>
+      </c>
+      <c r="U1806" s="2">
+        <v>8095.5</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1807">
+        <v>52</v>
+      </c>
+      <c r="C1807" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1807" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1807">
+        <v>6</v>
+      </c>
+      <c r="K1807">
+        <v>100</v>
+      </c>
+      <c r="L1807" s="2">
+        <v>600</v>
+      </c>
+      <c r="O1807" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1807" s="2">
+        <v>600</v>
+      </c>
+      <c r="S1807" s="2">
+        <v>600</v>
+      </c>
+      <c r="U1807" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1808">
+        <v>52</v>
+      </c>
+      <c r="C1808" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1808">
+        <v>0.95</v>
+      </c>
+      <c r="H1808">
+        <v>700</v>
+      </c>
+      <c r="I1808" s="2">
+        <v>665</v>
+      </c>
+      <c r="J1808">
+        <v>1</v>
+      </c>
+      <c r="K1808">
+        <v>100</v>
+      </c>
+      <c r="L1808" s="2">
+        <v>100</v>
+      </c>
+      <c r="O1808" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1808" s="2">
+        <v>765</v>
+      </c>
+      <c r="S1808" s="2">
+        <v>765</v>
+      </c>
+      <c r="U1808" s="2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1809">
+        <v>52</v>
+      </c>
+      <c r="C1809" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1809">
+        <v>0.95</v>
+      </c>
+      <c r="H1809">
+        <v>700</v>
+      </c>
+      <c r="I1809" s="2">
+        <v>665</v>
+      </c>
+      <c r="J1809">
+        <v>1</v>
+      </c>
+      <c r="K1809">
+        <v>100</v>
+      </c>
+      <c r="L1809" s="2">
+        <v>100</v>
+      </c>
+      <c r="O1809" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1809" s="2">
+        <v>765</v>
+      </c>
+      <c r="S1809" s="2">
+        <v>765</v>
+      </c>
+      <c r="U1809" s="2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1810">
+        <v>52</v>
+      </c>
+      <c r="C1810" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1810">
+        <v>0.95</v>
+      </c>
+      <c r="H1810">
+        <v>700</v>
+      </c>
+      <c r="I1810" s="2">
+        <v>665</v>
+      </c>
+      <c r="J1810">
+        <v>1</v>
+      </c>
+      <c r="K1810">
+        <v>150</v>
+      </c>
+      <c r="L1810" s="2">
+        <v>150</v>
+      </c>
+      <c r="O1810" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1810" s="2">
+        <v>815</v>
+      </c>
+      <c r="S1810" s="2">
+        <v>815</v>
+      </c>
+      <c r="U1810" s="2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1811">
+        <v>52</v>
+      </c>
+      <c r="C1811" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1811">
+        <v>1.95</v>
+      </c>
+      <c r="H1811">
+        <v>700</v>
+      </c>
+      <c r="I1811" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L1811" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1811" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1811" s="2">
+        <v>1365</v>
+      </c>
+      <c r="S1811" s="2">
+        <v>1365</v>
+      </c>
+      <c r="U1811" s="2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1812">
+        <v>52</v>
+      </c>
+      <c r="C1812" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1812">
+        <v>1.87</v>
+      </c>
+      <c r="H1812">
+        <v>700</v>
+      </c>
+      <c r="I1812" s="2">
+        <v>1309</v>
+      </c>
+      <c r="L1812" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1812" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1812" s="2">
+        <v>1309</v>
+      </c>
+      <c r="S1812" s="2">
+        <v>1309</v>
+      </c>
+      <c r="U1812" s="2">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1813">
+        <v>52</v>
+      </c>
+      <c r="C1813" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1813">
+        <v>3.11</v>
+      </c>
+      <c r="H1813">
+        <v>700</v>
+      </c>
+      <c r="I1813" s="2">
+        <v>2177</v>
+      </c>
+      <c r="L1813" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1813" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1813" s="2">
+        <v>2177</v>
+      </c>
+      <c r="S1813" s="2">
+        <v>2177</v>
+      </c>
+      <c r="U1813" s="2">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1814">
+        <v>52</v>
+      </c>
+      <c r="C1814" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1814">
+        <v>1.87</v>
+      </c>
+      <c r="H1814">
+        <v>700</v>
+      </c>
+      <c r="I1814" s="2">
+        <v>1309</v>
+      </c>
+      <c r="L1814" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1814" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1814" s="2">
+        <v>1309</v>
+      </c>
+      <c r="S1814" s="2">
+        <v>1309</v>
+      </c>
+      <c r="U1814" s="2">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1815">
+        <v>52</v>
+      </c>
+      <c r="C1815" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1815">
+        <v>0.78</v>
+      </c>
+      <c r="H1815">
+        <v>700</v>
+      </c>
+      <c r="I1815" s="2">
+        <v>546</v>
+      </c>
+      <c r="L1815" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1815" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1815" s="2">
+        <v>546</v>
+      </c>
+      <c r="S1815" s="2">
+        <v>546</v>
+      </c>
+      <c r="U1815" s="2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1816">
+        <v>52</v>
+      </c>
+      <c r="C1816" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1816" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1816">
+        <v>1</v>
+      </c>
+      <c r="K1816">
+        <v>50</v>
+      </c>
+      <c r="L1816" s="2">
+        <v>50</v>
+      </c>
+      <c r="O1816" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1816" s="2">
+        <v>50</v>
+      </c>
+      <c r="S1816" s="2">
+        <v>50</v>
+      </c>
+      <c r="U1816" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1817">
+        <v>52</v>
+      </c>
+      <c r="C1817" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1817" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1817">
+        <v>1</v>
+      </c>
+      <c r="K1817">
+        <v>50</v>
+      </c>
+      <c r="L1817" s="2">
+        <v>50</v>
+      </c>
+      <c r="O1817" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1817" s="2">
+        <v>50</v>
+      </c>
+      <c r="S1817" s="2">
+        <v>50</v>
+      </c>
+      <c r="U1817" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1818">
+        <v>52</v>
+      </c>
+      <c r="C1818" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1818">
+        <v>2.62</v>
+      </c>
+      <c r="H1818">
+        <v>700</v>
+      </c>
+      <c r="I1818" s="2">
+        <v>1834</v>
+      </c>
+      <c r="J1818">
+        <v>1</v>
+      </c>
+      <c r="K1818">
+        <v>700</v>
+      </c>
+      <c r="L1818" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1818" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1818" s="2">
+        <v>2534</v>
+      </c>
+      <c r="S1818" s="2">
+        <v>2534</v>
+      </c>
+      <c r="U1818" s="2">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1819">
+        <v>52</v>
+      </c>
+      <c r="C1819" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1819" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1819">
+        <v>1</v>
+      </c>
+      <c r="K1819">
+        <v>700</v>
+      </c>
+      <c r="L1819" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1819" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1819" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1819" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1819" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1820">
+        <v>52</v>
+      </c>
+      <c r="C1820" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1820" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1820">
+        <v>1</v>
+      </c>
+      <c r="K1820">
+        <v>750</v>
+      </c>
+      <c r="L1820" s="2">
+        <v>750</v>
+      </c>
+      <c r="O1820" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1820" s="2">
+        <v>750</v>
+      </c>
+      <c r="S1820" s="2">
+        <v>750</v>
+      </c>
+      <c r="U1820" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1821">
+        <v>52</v>
+      </c>
+      <c r="C1821" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1821" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1821">
+        <v>1</v>
+      </c>
+      <c r="K1821">
+        <v>1000</v>
+      </c>
+      <c r="L1821" s="2">
+        <v>1000</v>
+      </c>
+      <c r="O1821" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1821" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S1821" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U1821" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1822">
+        <v>52</v>
+      </c>
+      <c r="C1822" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1822">
+        <v>3.952</v>
+      </c>
+      <c r="H1822">
+        <v>700</v>
+      </c>
+      <c r="I1822" s="2">
+        <v>2766.4</v>
+      </c>
+      <c r="L1822" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1822" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1822" s="2">
+        <v>2766.4</v>
+      </c>
+      <c r="S1822" s="2">
+        <v>2766.4</v>
+      </c>
+      <c r="U1822" s="2">
+        <v>2766.4</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1823">
+        <v>52</v>
+      </c>
+      <c r="C1823" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1823">
+        <v>2.5007999999999999</v>
+      </c>
+      <c r="H1823">
+        <v>400</v>
+      </c>
+      <c r="I1823" s="2">
+        <v>1000.3199999999999</v>
+      </c>
+      <c r="L1823" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1823" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1823" s="2">
+        <v>1000.3199999999999</v>
+      </c>
+      <c r="S1823" s="2">
+        <v>1000.3199999999999</v>
+      </c>
+      <c r="U1823" s="2">
+        <v>1000.3199999999999</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1824">
+        <v>52</v>
+      </c>
+      <c r="C1824" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1824">
+        <v>1.944</v>
+      </c>
+      <c r="H1824">
+        <v>250</v>
+      </c>
+      <c r="I1824" s="2">
+        <v>486</v>
+      </c>
+      <c r="J1824">
+        <v>0.8</v>
+      </c>
+      <c r="K1824">
+        <v>365</v>
+      </c>
+      <c r="L1824" s="2">
+        <v>292</v>
+      </c>
+      <c r="O1824" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1824" s="2">
+        <v>778</v>
+      </c>
+      <c r="S1824" s="2">
+        <v>778</v>
+      </c>
+      <c r="U1824" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1825">
+        <v>52</v>
+      </c>
+      <c r="C1825" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1825">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="H1825">
+        <v>350</v>
+      </c>
+      <c r="I1825" s="2">
+        <v>725.2</v>
+      </c>
+      <c r="J1825">
+        <v>1</v>
+      </c>
+      <c r="K1825">
+        <v>700</v>
+      </c>
+      <c r="L1825" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1825" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1825" s="2">
+        <v>1425.2</v>
+      </c>
+      <c r="S1825" s="2">
+        <v>1425.2</v>
+      </c>
+      <c r="U1825" s="2">
+        <v>1425.2</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1826">
+        <v>52</v>
+      </c>
+      <c r="C1826" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1826">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="H1826">
+        <v>700</v>
+      </c>
+      <c r="I1826" s="2">
+        <v>2357.6</v>
+      </c>
+      <c r="L1826" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1826" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1826" s="2">
+        <v>2357.6</v>
+      </c>
+      <c r="S1826" s="2">
+        <v>2357.6</v>
+      </c>
+      <c r="U1826" s="2">
+        <v>2357.6</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1827">
+        <v>52</v>
+      </c>
+      <c r="C1827" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1827">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="H1827">
+        <v>350</v>
+      </c>
+      <c r="I1827" s="2">
+        <v>996.8</v>
+      </c>
+      <c r="L1827" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1827" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1827" s="2">
+        <v>996.8</v>
+      </c>
+      <c r="S1827" s="2">
+        <v>996.8</v>
+      </c>
+      <c r="U1827" s="2">
+        <v>996.8</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1828">
+        <v>52</v>
+      </c>
+      <c r="C1828" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1828">
+        <v>1.36</v>
+      </c>
+      <c r="H1828">
+        <v>700</v>
+      </c>
+      <c r="I1828" s="2">
+        <v>952.00000000000011</v>
+      </c>
+      <c r="L1828" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1828" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1828" s="2">
+        <v>952.00000000000011</v>
+      </c>
+      <c r="S1828" s="2">
+        <v>952.00000000000011</v>
+      </c>
+      <c r="U1828" s="2">
+        <v>952.00000000000011</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1829">
+        <v>52</v>
+      </c>
+      <c r="C1829" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1829" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1829">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="H1829">
+        <v>700</v>
+      </c>
+      <c r="I1829" s="2">
+        <v>595.42000000000007</v>
+      </c>
+      <c r="J1829">
+        <v>0.2</v>
+      </c>
+      <c r="K1829">
+        <v>250</v>
+      </c>
+      <c r="L1829" s="2">
+        <v>50</v>
+      </c>
+      <c r="M1829">
+        <v>1</v>
+      </c>
+      <c r="N1829">
+        <v>1083.33</v>
+      </c>
+      <c r="O1829" s="2">
+        <v>1083.33</v>
+      </c>
+      <c r="P1829" s="2">
+        <v>1728.75</v>
+      </c>
+      <c r="S1829" s="2">
+        <v>1728.75</v>
+      </c>
+      <c r="U1829" s="2">
+        <v>1728.75</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1830">
+        <v>52</v>
+      </c>
+      <c r="C1830" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1830">
+        <v>2.25</v>
+      </c>
+      <c r="H1830">
+        <v>350</v>
+      </c>
+      <c r="I1830" s="2">
+        <v>787.5</v>
+      </c>
+      <c r="L1830" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1830" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1830" s="2">
+        <v>787.5</v>
+      </c>
+      <c r="S1830" s="2">
+        <v>787.5</v>
+      </c>
+      <c r="U1830" s="2">
+        <v>787.5</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1831">
+        <v>52</v>
+      </c>
+      <c r="C1831" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1831">
+        <v>0.83</v>
+      </c>
+      <c r="H1831">
+        <v>700</v>
+      </c>
+      <c r="I1831" s="2">
+        <v>581</v>
+      </c>
+      <c r="L1831" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1831" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1831" s="2">
+        <v>581</v>
+      </c>
+      <c r="S1831" s="2">
+        <v>581</v>
+      </c>
+      <c r="U1831" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1832">
+        <v>52</v>
+      </c>
+      <c r="C1832" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1832">
+        <v>2.7</v>
+      </c>
+      <c r="H1832">
+        <v>700</v>
+      </c>
+      <c r="I1832" s="2">
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="L1832" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1832" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1832" s="2">
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="S1832" s="2">
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="U1832" s="2">
+        <v>1890.0000000000002</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1833">
+        <v>52</v>
+      </c>
+      <c r="C1833" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1833">
+        <v>0.48330000000000001</v>
+      </c>
+      <c r="H1833">
+        <v>250</v>
+      </c>
+      <c r="I1833" s="2">
+        <v>120.825</v>
+      </c>
+      <c r="J1833">
+        <v>0.2</v>
+      </c>
+      <c r="K1833">
+        <v>350</v>
+      </c>
+      <c r="L1833" s="2">
+        <v>70</v>
+      </c>
+      <c r="O1833" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1833" s="2">
+        <v>190.82499999999999</v>
+      </c>
+      <c r="S1833" s="2">
+        <v>190.82499999999999</v>
+      </c>
+      <c r="U1833" s="2">
+        <v>190.82499999999999</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1834">
+        <v>52</v>
+      </c>
+      <c r="C1834" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1834">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H1834">
+        <v>350</v>
+      </c>
+      <c r="I1834" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="L1834" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1834" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1834" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="S1834" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="U1834" s="2">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1835">
+        <v>51</v>
+      </c>
+      <c r="C1835" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1835">
+        <v>0.9</v>
+      </c>
+      <c r="H1835">
+        <v>700</v>
+      </c>
+      <c r="I1835" s="2">
+        <v>630</v>
+      </c>
+      <c r="J1835">
+        <v>1</v>
+      </c>
+      <c r="K1835">
+        <v>200</v>
+      </c>
+      <c r="L1835" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1835" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1835" s="2">
+        <v>830</v>
+      </c>
+      <c r="S1835" s="2">
+        <v>830</v>
+      </c>
+      <c r="U1835" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1836">
+        <v>51</v>
+      </c>
+      <c r="C1836" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1836">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1836">
+        <v>700</v>
+      </c>
+      <c r="I1836" s="2">
+        <v>812</v>
+      </c>
+      <c r="J1836">
+        <v>1</v>
+      </c>
+      <c r="K1836">
+        <v>200</v>
+      </c>
+      <c r="L1836" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1836" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1836" s="2">
+        <v>1012</v>
+      </c>
+      <c r="Q1836" s="2">
+        <v>600</v>
+      </c>
+      <c r="S1836" s="2">
+        <v>1612</v>
+      </c>
+      <c r="U1836" s="2">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1837">
+        <v>51</v>
+      </c>
+      <c r="C1837" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1837">
+        <v>0.9</v>
+      </c>
+      <c r="H1837">
+        <v>700</v>
+      </c>
+      <c r="I1837" s="2">
+        <v>630</v>
+      </c>
+      <c r="J1837">
+        <v>1</v>
+      </c>
+      <c r="K1837">
+        <v>200</v>
+      </c>
+      <c r="L1837" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1837" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1837" s="2">
+        <v>830</v>
+      </c>
+      <c r="S1837" s="2">
+        <v>830</v>
+      </c>
+      <c r="U1837" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1838">
+        <v>51</v>
+      </c>
+      <c r="C1838" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1838">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1838">
+        <v>700</v>
+      </c>
+      <c r="I1838" s="2">
+        <v>812</v>
+      </c>
+      <c r="J1838">
+        <v>1</v>
+      </c>
+      <c r="K1838">
+        <v>200</v>
+      </c>
+      <c r="L1838" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1838" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1838" s="2">
+        <v>1012</v>
+      </c>
+      <c r="S1838" s="2">
+        <v>1012</v>
+      </c>
+      <c r="U1838" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1839">
+        <v>51</v>
+      </c>
+      <c r="C1839" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1839">
+        <v>0.9</v>
+      </c>
+      <c r="H1839">
+        <v>700</v>
+      </c>
+      <c r="I1839" s="2">
+        <v>630</v>
+      </c>
+      <c r="J1839">
+        <v>1</v>
+      </c>
+      <c r="K1839">
+        <v>200</v>
+      </c>
+      <c r="L1839" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1839" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1839" s="2">
+        <v>830</v>
+      </c>
+      <c r="S1839" s="2">
+        <v>830</v>
+      </c>
+      <c r="U1839" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1840">
+        <v>51</v>
+      </c>
+      <c r="C1840" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1840">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1840">
+        <v>700</v>
+      </c>
+      <c r="I1840" s="2">
+        <v>812</v>
+      </c>
+      <c r="J1840">
+        <v>1</v>
+      </c>
+      <c r="K1840">
+        <v>200</v>
+      </c>
+      <c r="L1840" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1840" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1840" s="2">
+        <v>1012</v>
+      </c>
+      <c r="S1840" s="2">
+        <v>1012</v>
+      </c>
+      <c r="U1840" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1841">
+        <v>51</v>
+      </c>
+      <c r="C1841" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1841">
+        <v>0.9</v>
+      </c>
+      <c r="H1841">
+        <v>700</v>
+      </c>
+      <c r="I1841" s="2">
+        <v>630</v>
+      </c>
+      <c r="J1841">
+        <v>1</v>
+      </c>
+      <c r="K1841">
+        <v>200</v>
+      </c>
+      <c r="L1841" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1841" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1841" s="2">
+        <v>830</v>
+      </c>
+      <c r="S1841" s="2">
+        <v>830</v>
+      </c>
+      <c r="U1841" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1842">
+        <v>51</v>
+      </c>
+      <c r="C1842" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1842">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1842">
+        <v>700</v>
+      </c>
+      <c r="I1842" s="2">
+        <v>812</v>
+      </c>
+      <c r="J1842">
+        <v>1</v>
+      </c>
+      <c r="K1842">
+        <v>200</v>
+      </c>
+      <c r="L1842" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1842" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1842" s="2">
+        <v>1012</v>
+      </c>
+      <c r="S1842" s="2">
+        <v>1012</v>
+      </c>
+      <c r="U1842" s="2">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1843">
+        <v>51</v>
+      </c>
+      <c r="C1843" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1843">
+        <v>3.87</v>
+      </c>
+      <c r="H1843">
+        <v>700</v>
+      </c>
+      <c r="I1843" s="2">
+        <v>2709</v>
+      </c>
+      <c r="J1843">
+        <v>1</v>
+      </c>
+      <c r="K1843">
+        <v>400</v>
+      </c>
+      <c r="L1843" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1843" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1843" s="2">
+        <v>3109</v>
+      </c>
+      <c r="S1843" s="2">
+        <v>3109</v>
+      </c>
+      <c r="U1843" s="2">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1844">
+        <v>51</v>
+      </c>
+      <c r="C1844" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1844">
+        <v>0.9</v>
+      </c>
+      <c r="H1844">
+        <v>700</v>
+      </c>
+      <c r="I1844" s="2">
+        <v>630</v>
+      </c>
+      <c r="L1844" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1844" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1844" s="2">
+        <v>630</v>
+      </c>
+      <c r="S1844" s="2">
+        <v>630</v>
+      </c>
+      <c r="U1844" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1845">
+        <v>51</v>
+      </c>
+      <c r="C1845" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1845">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1845">
+        <v>700</v>
+      </c>
+      <c r="I1845" s="2">
+        <v>812</v>
+      </c>
+      <c r="L1845" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1845" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1845" s="2">
+        <v>812</v>
+      </c>
+      <c r="S1845" s="2">
+        <v>812</v>
+      </c>
+      <c r="U1845" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1846">
+        <v>51</v>
+      </c>
+      <c r="C1846" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1846">
+        <v>3.87</v>
+      </c>
+      <c r="H1846">
+        <v>700</v>
+      </c>
+      <c r="I1846" s="2">
+        <v>2709</v>
+      </c>
+      <c r="J1846">
+        <v>1</v>
+      </c>
+      <c r="K1846">
+        <v>400</v>
+      </c>
+      <c r="L1846" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1846" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1846" s="2">
+        <v>3109</v>
+      </c>
+      <c r="S1846" s="2">
+        <v>3109</v>
+      </c>
+      <c r="U1846" s="2">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1847">
+        <v>51</v>
+      </c>
+      <c r="C1847" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1847">
+        <v>0.9</v>
+      </c>
+      <c r="H1847">
+        <v>700</v>
+      </c>
+      <c r="I1847" s="2">
+        <v>630</v>
+      </c>
+      <c r="L1847" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1847" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1847" s="2">
+        <v>630</v>
+      </c>
+      <c r="S1847" s="2">
+        <v>630</v>
+      </c>
+      <c r="U1847" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1848">
+        <v>51</v>
+      </c>
+      <c r="C1848" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1848">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1848">
+        <v>700</v>
+      </c>
+      <c r="I1848" s="2">
+        <v>812</v>
+      </c>
+      <c r="L1848" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1848" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1848" s="2">
+        <v>812</v>
+      </c>
+      <c r="S1848" s="2">
+        <v>812</v>
+      </c>
+      <c r="U1848" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1849">
+        <v>51</v>
+      </c>
+      <c r="C1849" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1849">
+        <v>3.87</v>
+      </c>
+      <c r="H1849">
+        <v>700</v>
+      </c>
+      <c r="I1849" s="2">
+        <v>2709</v>
+      </c>
+      <c r="J1849">
+        <v>1</v>
+      </c>
+      <c r="K1849">
+        <v>400</v>
+      </c>
+      <c r="L1849" s="2">
+        <v>400</v>
+      </c>
+      <c r="O1849" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1849" s="2">
+        <v>3109</v>
+      </c>
+      <c r="S1849" s="2">
+        <v>3109</v>
+      </c>
+      <c r="U1849" s="2">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1850">
+        <v>51</v>
+      </c>
+      <c r="C1850" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1850">
+        <v>0.9</v>
+      </c>
+      <c r="H1850">
+        <v>700</v>
+      </c>
+      <c r="I1850" s="2">
+        <v>630</v>
+      </c>
+      <c r="L1850" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1850" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1850" s="2">
+        <v>630</v>
+      </c>
+      <c r="S1850" s="2">
+        <v>630</v>
+      </c>
+      <c r="U1850" s="2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1851">
+        <v>51</v>
+      </c>
+      <c r="C1851" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1851">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H1851">
+        <v>700</v>
+      </c>
+      <c r="I1851" s="2">
+        <v>812</v>
+      </c>
+      <c r="L1851" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1851" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1851" s="2">
+        <v>812</v>
+      </c>
+      <c r="S1851" s="2">
+        <v>812</v>
+      </c>
+      <c r="U1851" s="2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1852">
+        <v>51</v>
+      </c>
+      <c r="C1852" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1852">
+        <v>3.87</v>
+      </c>
+      <c r="H1852">
+        <v>700</v>
+      </c>
+      <c r="I1852" s="2">
+        <v>2709</v>
+      </c>
+      <c r="L1852" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1852" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1852" s="2">
+        <v>2709</v>
+      </c>
+      <c r="Q1852" s="2">
+        <v>300</v>
+      </c>
+      <c r="S1852" s="2">
+        <v>3009</v>
+      </c>
+      <c r="U1852" s="2">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1853">
+        <v>51</v>
+      </c>
+      <c r="C1853" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1853">
+        <v>1.5</v>
+      </c>
+      <c r="H1853">
+        <v>900</v>
+      </c>
+      <c r="I1853" s="2">
+        <v>1350</v>
+      </c>
+      <c r="J1853">
+        <v>1</v>
+      </c>
+      <c r="K1853">
+        <v>250</v>
+      </c>
+      <c r="L1853" s="2">
+        <v>250</v>
+      </c>
+      <c r="M1853">
+        <v>3</v>
+      </c>
+      <c r="N1853">
+        <v>1083.33</v>
+      </c>
+      <c r="O1853" s="2">
+        <v>3249.99</v>
+      </c>
+      <c r="P1853" s="2">
+        <v>4849.99</v>
+      </c>
+      <c r="S1853" s="2">
+        <v>4849.99</v>
+      </c>
+      <c r="U1853" s="2">
+        <v>4849.99</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1854">
+        <v>51</v>
+      </c>
+      <c r="C1854" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1854" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1854" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1854">
+        <v>1</v>
+      </c>
+      <c r="K1854">
+        <v>1600</v>
+      </c>
+      <c r="L1854" s="2">
+        <v>1600</v>
+      </c>
+      <c r="O1854" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1854" s="2">
+        <v>1600</v>
+      </c>
+      <c r="S1854" s="2">
+        <v>1600</v>
+      </c>
+      <c r="U1854" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1855">
+        <v>51</v>
+      </c>
+      <c r="C1855" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1855" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1855" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1855">
+        <v>1</v>
+      </c>
+      <c r="K1855">
+        <v>2500</v>
+      </c>
+      <c r="L1855" s="2">
+        <v>2500</v>
+      </c>
+      <c r="O1855" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1855" s="2">
+        <v>2500</v>
+      </c>
+      <c r="S1855" s="2">
+        <v>2500</v>
+      </c>
+      <c r="U1855" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1856">
+        <v>51</v>
+      </c>
+      <c r="C1856" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1856">
+        <v>3.74</v>
+      </c>
+      <c r="H1856">
+        <v>700</v>
+      </c>
+      <c r="I1856" s="2">
+        <v>2618</v>
+      </c>
+      <c r="L1856" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1856" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1856" s="2">
+        <v>2618</v>
+      </c>
+      <c r="S1856" s="2">
+        <v>2618</v>
+      </c>
+      <c r="U1856" s="2">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1857">
+        <v>51</v>
+      </c>
+      <c r="C1857" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1857">
+        <v>1.95</v>
+      </c>
+      <c r="H1857">
+        <v>700</v>
+      </c>
+      <c r="I1857" s="2">
+        <v>1365</v>
+      </c>
+      <c r="L1857" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1857" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1857" s="2">
+        <v>1365</v>
+      </c>
+      <c r="Q1857" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1857" s="2">
+        <v>1865</v>
+      </c>
+      <c r="U1857" s="2">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1858">
+        <v>51</v>
+      </c>
+      <c r="C1858" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1858">
+        <v>1.87</v>
+      </c>
+      <c r="H1858">
+        <v>700</v>
+      </c>
+      <c r="I1858" s="2">
+        <v>1309</v>
+      </c>
+      <c r="L1858" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1858" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1858" s="2">
+        <v>1309</v>
+      </c>
+      <c r="S1858" s="2">
+        <v>1309</v>
+      </c>
+      <c r="U1858" s="2">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1859">
+        <v>51</v>
+      </c>
+      <c r="C1859" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1859">
+        <v>3.11</v>
+      </c>
+      <c r="H1859">
+        <v>700</v>
+      </c>
+      <c r="I1859" s="2">
+        <v>2177</v>
+      </c>
+      <c r="L1859" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1859" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1859" s="2">
+        <v>2177</v>
+      </c>
+      <c r="S1859" s="2">
+        <v>2177</v>
+      </c>
+      <c r="U1859" s="2">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1860">
+        <v>51</v>
+      </c>
+      <c r="C1860" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1860">
+        <v>1</v>
+      </c>
+      <c r="H1860">
+        <v>700</v>
+      </c>
+      <c r="I1860" s="2">
+        <v>700</v>
+      </c>
+      <c r="L1860" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1860">
+        <v>2</v>
+      </c>
+      <c r="N1860">
+        <v>750</v>
+      </c>
+      <c r="O1860" s="2">
+        <v>1500</v>
+      </c>
+      <c r="P1860" s="2">
+        <v>2200</v>
+      </c>
+      <c r="S1860" s="2">
+        <v>2200</v>
+      </c>
+      <c r="U1860" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1861">
+        <v>51</v>
+      </c>
+      <c r="C1861" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1861" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1861" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1861" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1861">
+        <v>4</v>
+      </c>
+      <c r="N1861">
+        <v>1083</v>
+      </c>
+      <c r="O1861" s="2">
+        <v>4332</v>
+      </c>
+      <c r="P1861" s="2">
+        <v>4332</v>
+      </c>
+      <c r="S1861" s="2">
+        <v>4332</v>
+      </c>
+      <c r="U1861" s="2">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1862">
+        <v>51</v>
+      </c>
+      <c r="C1862" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1862" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1862">
+        <v>5.4</v>
+      </c>
+      <c r="H1862">
+        <v>700</v>
+      </c>
+      <c r="I1862" s="2">
+        <v>3780.0000000000005</v>
+      </c>
+      <c r="L1862" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1862" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1862" s="2">
+        <v>3780.0000000000005</v>
+      </c>
+      <c r="S1862" s="2">
+        <v>3780.0000000000005</v>
+      </c>
+      <c r="U1862" s="2">
+        <v>3780.0000000000005</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1863">
+        <v>51</v>
+      </c>
+      <c r="C1863" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1863">
+        <v>20.32</v>
+      </c>
+      <c r="H1863">
+        <v>320</v>
+      </c>
+      <c r="I1863" s="2">
+        <v>6502.4</v>
+      </c>
+      <c r="L1863" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1863" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1863" s="2">
+        <v>6502.4</v>
+      </c>
+      <c r="Q1863" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1863" s="2">
+        <v>7002.4</v>
+      </c>
+      <c r="U1863" s="2">
+        <v>7002.4</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1864">
+        <v>51</v>
+      </c>
+      <c r="C1864" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1864">
+        <v>0.5</v>
+      </c>
+      <c r="H1864">
+        <v>700</v>
+      </c>
+      <c r="I1864" s="2">
+        <v>350</v>
+      </c>
+      <c r="J1864">
+        <v>1</v>
+      </c>
+      <c r="K1864">
+        <v>250</v>
+      </c>
+      <c r="L1864" s="2">
+        <v>250</v>
+      </c>
+      <c r="M1864">
+        <v>0.5</v>
+      </c>
+      <c r="N1864">
+        <v>750</v>
+      </c>
+      <c r="O1864" s="2">
+        <v>375</v>
+      </c>
+      <c r="P1864" s="2">
+        <v>975</v>
+      </c>
+      <c r="S1864" s="2">
+        <v>975</v>
+      </c>
+      <c r="U1864" s="2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1865">
+        <v>51</v>
+      </c>
+      <c r="C1865" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1865">
+        <v>2.23</v>
+      </c>
+      <c r="H1865">
+        <v>400</v>
+      </c>
+      <c r="I1865" s="2">
+        <v>892</v>
+      </c>
+      <c r="L1865" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1865" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1865" s="2">
+        <v>892</v>
+      </c>
+      <c r="Q1865" s="2">
+        <v>500</v>
+      </c>
+      <c r="S1865" s="2">
+        <v>1392</v>
+      </c>
+      <c r="U1865" s="2">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1866">
+        <v>51</v>
+      </c>
+      <c r="C1866" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1866" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1866">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="H1866">
+        <v>700</v>
+      </c>
+      <c r="I1866" s="2">
+        <v>299.25</v>
+      </c>
+      <c r="J1866">
+        <v>0.5</v>
+      </c>
+      <c r="K1866">
+        <v>400</v>
+      </c>
+      <c r="L1866" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1866" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1866" s="2">
+        <v>499.25</v>
+      </c>
+      <c r="S1866" s="2">
+        <v>499.25</v>
+      </c>
+      <c r="U1866" s="2">
+        <v>499.25</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1867">
+        <v>51</v>
+      </c>
+      <c r="C1867" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1867">
+        <v>2.72</v>
+      </c>
+      <c r="H1867">
+        <v>250</v>
+      </c>
+      <c r="I1867" s="2">
+        <v>680</v>
+      </c>
+      <c r="L1867" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1867" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1867" s="2">
+        <v>680</v>
+      </c>
+      <c r="S1867" s="2">
+        <v>680</v>
+      </c>
+      <c r="U1867" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1868">
+        <v>51</v>
+      </c>
+      <c r="C1868" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1868">
+        <v>1.89</v>
+      </c>
+      <c r="H1868">
+        <v>350</v>
+      </c>
+      <c r="I1868" s="2">
+        <v>661.5</v>
+      </c>
+      <c r="L1868" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1868" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1868" s="2">
+        <v>661.5</v>
+      </c>
+      <c r="Q1868" s="2">
+        <v>400</v>
+      </c>
+      <c r="S1868" s="2">
+        <v>1061.5</v>
+      </c>
+      <c r="U1868" s="2">
+        <v>1061.5</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1869">
+        <v>51</v>
+      </c>
+      <c r="C1869" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1869">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H1869">
+        <v>700</v>
+      </c>
+      <c r="I1869" s="2">
+        <v>691.6</v>
+      </c>
+      <c r="L1869" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1869">
+        <v>0.5</v>
+      </c>
+      <c r="N1869">
+        <v>750</v>
+      </c>
+      <c r="O1869" s="2">
+        <v>375</v>
+      </c>
+      <c r="P1869" s="2">
+        <v>1066.5999999999999</v>
+      </c>
+      <c r="S1869" s="2">
+        <v>1066.5999999999999</v>
+      </c>
+      <c r="U1869" s="2">
+        <v>1066.5999999999999</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1870">
+        <v>51</v>
+      </c>
+      <c r="C1870" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1870">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="H1870">
+        <v>400</v>
+      </c>
+      <c r="I1870" s="2">
+        <v>252.8</v>
+      </c>
+      <c r="L1870" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1870" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1870" s="2">
+        <v>252.8</v>
+      </c>
+      <c r="S1870" s="2">
+        <v>252.8</v>
+      </c>
+      <c r="U1870" s="2">
+        <v>252.8</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1871">
+        <v>51</v>
+      </c>
+      <c r="C1871" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1871" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1871">
+        <v>1.325</v>
+      </c>
+      <c r="H1871">
+        <v>320</v>
+      </c>
+      <c r="I1871" s="2">
+        <v>424</v>
+      </c>
+      <c r="L1871" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1871" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1871" s="2">
+        <v>424</v>
+      </c>
+      <c r="S1871" s="2">
+        <v>424</v>
+      </c>
+      <c r="U1871" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1872">
+        <v>51</v>
+      </c>
+      <c r="C1872" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1872" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1872">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="H1872">
+        <v>700</v>
+      </c>
+      <c r="I1872" s="2">
+        <v>778.40000000000009</v>
+      </c>
+      <c r="L1872" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1872" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1872" s="2">
+        <v>778.40000000000009</v>
+      </c>
+      <c r="Q1872" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1872" s="2">
+        <v>878.40000000000009</v>
+      </c>
+      <c r="U1872" s="2">
+        <v>878.40000000000009</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1873">
+        <v>51</v>
+      </c>
+      <c r="C1873" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1873" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1873">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="H1873">
+        <v>350</v>
+      </c>
+      <c r="I1873" s="2">
+        <v>389.90000000000003</v>
+      </c>
+      <c r="L1873" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1873" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1873" s="2">
+        <v>389.90000000000003</v>
+      </c>
+      <c r="S1873" s="2">
+        <v>389.90000000000003</v>
+      </c>
+      <c r="U1873" s="2">
+        <v>389.90000000000003</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1874">
+        <v>51</v>
+      </c>
+      <c r="C1874" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1874" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1874" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1874">
+        <v>1</v>
+      </c>
+      <c r="K1874">
+        <v>900</v>
+      </c>
+      <c r="L1874" s="2">
+        <v>900</v>
+      </c>
+      <c r="O1874" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1874" s="2">
+        <v>900</v>
+      </c>
+      <c r="S1874" s="2">
+        <v>900</v>
+      </c>
+      <c r="U1874" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1875">
+        <v>51</v>
+      </c>
+      <c r="C1875" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1875" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1875" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1875">
+        <v>1</v>
+      </c>
+      <c r="K1875">
+        <v>700</v>
+      </c>
+      <c r="L1875" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1875" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1875" s="2">
+        <v>700</v>
+      </c>
+      <c r="S1875" s="2">
+        <v>700</v>
+      </c>
+      <c r="U1875" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1876">
+        <v>51</v>
+      </c>
+      <c r="C1876" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1876" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1876">
+        <v>5.8116000000000003</v>
+      </c>
+      <c r="H1876">
+        <v>700</v>
+      </c>
+      <c r="I1876" s="2">
+        <v>4068.1200000000003</v>
+      </c>
+      <c r="L1876" s="2">
+        <v>0</v>
+      </c>
+      <c r="M1876">
+        <v>0.5</v>
+      </c>
+      <c r="N1876">
+        <v>750</v>
+      </c>
+      <c r="O1876" s="2">
+        <v>375</v>
+      </c>
+      <c r="P1876" s="2">
+        <v>4443.1200000000008</v>
+      </c>
+      <c r="S1876" s="2">
+        <v>4443.1200000000008</v>
+      </c>
+      <c r="U1876" s="2">
+        <v>4443.1200000000008</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1877">
+        <v>51</v>
+      </c>
+      <c r="C1877" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1877" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1877" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1877">
+        <v>3.4024000000000001</v>
+      </c>
+      <c r="H1877">
+        <v>700</v>
+      </c>
+      <c r="I1877" s="2">
+        <v>2381.6800000000003</v>
+      </c>
+      <c r="J1877">
+        <v>1</v>
+      </c>
+      <c r="K1877">
+        <v>250</v>
+      </c>
+      <c r="L1877" s="2">
+        <v>250</v>
+      </c>
+      <c r="M1877">
+        <v>0.5</v>
+      </c>
+      <c r="N1877">
+        <v>750</v>
+      </c>
+      <c r="O1877" s="2">
+        <v>375</v>
+      </c>
+      <c r="P1877" s="2">
+        <v>3006.6800000000003</v>
+      </c>
+      <c r="S1877" s="2">
+        <v>3006.6800000000003</v>
+      </c>
+      <c r="U1877" s="2">
+        <v>3006.6800000000003</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1878">
+        <v>51</v>
+      </c>
+      <c r="C1878" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1878">
+        <v>1.08</v>
+      </c>
+      <c r="H1878">
+        <v>400</v>
+      </c>
+      <c r="I1878" s="2">
+        <v>432</v>
+      </c>
+      <c r="J1878">
+        <v>0.8</v>
+      </c>
+      <c r="K1878">
+        <v>250</v>
+      </c>
+      <c r="L1878" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1878" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1878" s="2">
+        <v>632</v>
+      </c>
+      <c r="S1878" s="2">
+        <v>632</v>
+      </c>
+      <c r="U1878" s="2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1879">
+        <v>51</v>
+      </c>
+      <c r="C1879" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1879">
+        <v>2.25</v>
+      </c>
+      <c r="H1879">
+        <v>350</v>
+      </c>
+      <c r="I1879" s="2">
+        <v>787.5</v>
+      </c>
+      <c r="J1879">
+        <v>1</v>
+      </c>
+      <c r="K1879">
+        <v>750</v>
+      </c>
+      <c r="L1879" s="2">
+        <v>750</v>
+      </c>
+      <c r="O1879" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1879" s="2">
+        <v>1537.5</v>
+      </c>
+      <c r="S1879" s="2">
+        <v>1537.5</v>
+      </c>
+      <c r="U1879" s="2">
+        <v>1537.5</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1880">
+        <v>51</v>
+      </c>
+      <c r="C1880" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1880" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1880">
+        <v>0.83</v>
+      </c>
+      <c r="H1880">
+        <v>700</v>
+      </c>
+      <c r="I1880" s="2">
+        <v>581</v>
+      </c>
+      <c r="L1880" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1880" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1880" s="2">
+        <v>581</v>
+      </c>
+      <c r="S1880" s="2">
+        <v>581</v>
+      </c>
+      <c r="U1880" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1881">
+        <v>51</v>
+      </c>
+      <c r="C1881" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1881" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1881">
+        <v>2</v>
+      </c>
+      <c r="H1881">
+        <v>700</v>
+      </c>
+      <c r="I1881" s="2">
+        <v>1400</v>
+      </c>
+      <c r="J1881">
+        <v>1</v>
+      </c>
+      <c r="K1881">
+        <v>250</v>
+      </c>
+      <c r="L1881" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1881" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1881" s="2">
+        <v>1650</v>
+      </c>
+      <c r="S1881" s="2">
+        <v>1650</v>
+      </c>
+      <c r="U1881" s="2">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1882">
+        <v>51</v>
+      </c>
+      <c r="C1882" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1882" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1882" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1882">
+        <v>1</v>
+      </c>
+      <c r="K1882">
+        <v>250</v>
+      </c>
+      <c r="L1882" s="2">
+        <v>250</v>
+      </c>
+      <c r="O1882" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1882" s="2">
+        <v>250</v>
+      </c>
+      <c r="S1882" s="2">
+        <v>250</v>
+      </c>
+      <c r="U1882" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1883">
+        <v>51</v>
+      </c>
+      <c r="C1883" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1883" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1883">
+        <v>0.3</v>
+      </c>
+      <c r="K1883">
+        <v>900</v>
+      </c>
+      <c r="L1883" s="2">
+        <v>270</v>
+      </c>
+      <c r="O1883" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1883" s="2">
+        <v>270</v>
+      </c>
+      <c r="S1883" s="2">
+        <v>270</v>
+      </c>
+      <c r="U1883" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1884">
+        <v>51</v>
+      </c>
+      <c r="C1884" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1884" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1884">
+        <v>1.9332</v>
+      </c>
+      <c r="H1884">
+        <v>250</v>
+      </c>
+      <c r="I1884" s="2">
+        <v>483.3</v>
+      </c>
+      <c r="J1884">
+        <v>0.8</v>
+      </c>
+      <c r="K1884">
+        <v>350</v>
+      </c>
+      <c r="L1884" s="2">
+        <v>280</v>
+      </c>
+      <c r="O1884" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1884" s="2">
+        <v>763.3</v>
+      </c>
+      <c r="S1884" s="2">
+        <v>763.3</v>
+      </c>
+      <c r="U1884" s="2">
+        <v>763.3</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1885">
+        <v>51</v>
+      </c>
+      <c r="C1885" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1885">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H1885">
+        <v>350</v>
+      </c>
+      <c r="I1885" s="2">
+        <v>338.8</v>
+      </c>
+      <c r="J1885">
+        <v>1</v>
+      </c>
+      <c r="K1885">
+        <v>700</v>
+      </c>
+      <c r="L1885" s="2">
+        <v>700</v>
+      </c>
+      <c r="O1885" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1885" s="2">
+        <v>1038.8</v>
+      </c>
+      <c r="S1885" s="2">
+        <v>1038.8</v>
+      </c>
+      <c r="U1885" s="2">
+        <v>1038.8</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1886">
+        <v>51</v>
+      </c>
+      <c r="C1886" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1886">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H1886">
+        <v>700</v>
+      </c>
+      <c r="I1886" s="2">
+        <v>488.59999999999997</v>
+      </c>
+      <c r="L1886" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1886" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1886" s="2">
+        <v>488.59999999999997</v>
+      </c>
+      <c r="S1886" s="2">
+        <v>488.59999999999997</v>
+      </c>
+      <c r="U1886" s="2">
+        <v>488.59999999999997</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1887">
+        <v>51</v>
+      </c>
+      <c r="C1887" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1887">
+        <v>0.5</v>
+      </c>
+      <c r="H1887">
+        <v>350</v>
+      </c>
+      <c r="I1887" s="2">
+        <v>175</v>
+      </c>
+      <c r="L1887" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1887" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1887" s="2">
+        <v>175</v>
+      </c>
+      <c r="S1887" s="2">
+        <v>175</v>
+      </c>
+      <c r="U1887" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1888">
+        <v>51</v>
+      </c>
+      <c r="C1888" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1888" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1888" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1888">
+        <v>1</v>
+      </c>
+      <c r="K1888">
+        <v>700</v>
+      </c>
+      <c r="L1888" s="2">
+        <v>700</v>
+      </c>
+      <c r="M1888">
+        <v>0.5</v>
+      </c>
+      <c r="N1888">
+        <v>750</v>
+      </c>
+      <c r="O1888" s="2">
+        <v>375</v>
+      </c>
+      <c r="P1888" s="2">
+        <v>1075</v>
+      </c>
+      <c r="S1888" s="2">
+        <v>1075</v>
+      </c>
+      <c r="U1888" s="2">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1889">
+        <v>51</v>
+      </c>
+      <c r="C1889" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1889" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1889">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="H1889">
+        <v>700</v>
+      </c>
+      <c r="I1889" s="2">
+        <v>1702.3999999999999</v>
+      </c>
+      <c r="L1889" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1889" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1889" s="2">
+        <v>1702.3999999999999</v>
+      </c>
+      <c r="S1889" s="2">
+        <v>1702.3999999999999</v>
+      </c>
+      <c r="U1889" s="2">
+        <v>1702.3999999999999</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1890">
+        <v>51</v>
+      </c>
+      <c r="C1890" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1890" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1890">
+        <v>2.1812</v>
+      </c>
+      <c r="H1890">
+        <v>400</v>
+      </c>
+      <c r="I1890" s="2">
+        <v>872.48</v>
+      </c>
+      <c r="L1890" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1890" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1890" s="2">
+        <v>872.48</v>
+      </c>
+      <c r="S1890" s="2">
+        <v>872.48</v>
+      </c>
+      <c r="U1890" s="2">
+        <v>872.48</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1891">
+        <v>51</v>
+      </c>
+      <c r="C1891" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1891" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1891">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="H1891">
+        <v>320</v>
+      </c>
+      <c r="I1891" s="2">
+        <v>628.80000000000007</v>
+      </c>
+      <c r="L1891" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1891" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1891" s="2">
+        <v>628.80000000000007</v>
+      </c>
+      <c r="S1891" s="2">
+        <v>628.80000000000007</v>
+      </c>
+      <c r="U1891" s="2">
+        <v>628.80000000000007</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1892">
+        <v>51</v>
+      </c>
+      <c r="C1892" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1892" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1892">
+        <v>5.07</v>
+      </c>
+      <c r="H1892">
+        <v>250</v>
+      </c>
+      <c r="I1892" s="2">
+        <v>1267.5</v>
+      </c>
+      <c r="L1892" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1892" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1892" s="2">
+        <v>1267.5</v>
+      </c>
+      <c r="S1892" s="2">
+        <v>1267.5</v>
+      </c>
+      <c r="U1892" s="2">
+        <v>1267.5</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1893">
+        <v>51</v>
+      </c>
+      <c r="C1893" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1893" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1893">
+        <v>2.7</v>
+      </c>
+      <c r="H1893">
+        <v>250</v>
+      </c>
+      <c r="I1893" s="2">
+        <v>675</v>
+      </c>
+      <c r="L1893" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1893" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1893" s="2">
+        <v>675</v>
+      </c>
+      <c r="Q1893" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1893" s="2">
+        <v>775</v>
+      </c>
+      <c r="U1893" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1894">
+        <v>51</v>
+      </c>
+      <c r="C1894" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1894" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1894">
+        <v>3.32</v>
+      </c>
+      <c r="H1894">
+        <v>350</v>
+      </c>
+      <c r="I1894" s="2">
+        <v>1162</v>
+      </c>
+      <c r="J1894">
+        <v>1</v>
+      </c>
+      <c r="K1894">
+        <v>1200</v>
+      </c>
+      <c r="L1894" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M1894">
+        <v>0.75</v>
+      </c>
+      <c r="N1894">
+        <v>1083.33</v>
+      </c>
+      <c r="O1894" s="2">
+        <v>812.49749999999995</v>
+      </c>
+      <c r="P1894" s="2">
+        <v>3174.4974999999999</v>
+      </c>
+      <c r="S1894" s="2">
+        <v>3174.4974999999999</v>
+      </c>
+      <c r="U1894" s="2">
+        <v>3174.4974999999999</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1895">
+        <v>51</v>
+      </c>
+      <c r="C1895" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1895" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1895">
+        <v>4.42</v>
+      </c>
+      <c r="H1895">
+        <v>320</v>
+      </c>
+      <c r="I1895" s="2">
+        <v>1414.4</v>
+      </c>
+      <c r="J1895">
+        <v>0.2</v>
+      </c>
+      <c r="K1895">
+        <v>350</v>
+      </c>
+      <c r="L1895" s="2">
+        <v>70</v>
+      </c>
+      <c r="O1895" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1895" s="2">
+        <v>1484.4</v>
+      </c>
+      <c r="S1895" s="2">
+        <v>1484.4</v>
+      </c>
+      <c r="U1895" s="2">
+        <v>1484.4</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1896">
+        <v>51</v>
+      </c>
+      <c r="C1896" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1896" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1896" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1896">
+        <v>0.2</v>
+      </c>
+      <c r="K1896">
+        <v>400</v>
+      </c>
+      <c r="L1896" s="2">
+        <v>80</v>
+      </c>
+      <c r="O1896" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1896" s="2">
+        <v>80</v>
+      </c>
+      <c r="S1896" s="2">
+        <v>80</v>
+      </c>
+      <c r="U1896" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1897">
+        <v>51</v>
+      </c>
+      <c r="C1897" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1897" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1897" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1897">
+        <v>1</v>
+      </c>
+      <c r="K1897">
+        <v>200</v>
+      </c>
+      <c r="L1897" s="2">
+        <v>200</v>
+      </c>
+      <c r="O1897" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1897" s="2">
+        <v>200</v>
+      </c>
+      <c r="S1897" s="2">
+        <v>200</v>
+      </c>
+      <c r="U1897" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1898">
+        <v>51</v>
+      </c>
+      <c r="C1898" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1898" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1898" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1898">
+        <v>0.2</v>
+      </c>
+      <c r="K1898">
+        <v>300</v>
+      </c>
+      <c r="L1898" s="2">
+        <v>60</v>
+      </c>
+      <c r="O1898" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1898" s="2">
+        <v>60</v>
+      </c>
+      <c r="S1898" s="2">
+        <v>60</v>
+      </c>
+      <c r="U1898" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1899">
+        <v>51</v>
+      </c>
+      <c r="C1899" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1899" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1899" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1899">
+        <v>0.2</v>
+      </c>
+      <c r="K1899">
+        <v>250</v>
+      </c>
+      <c r="L1899" s="2">
+        <v>50</v>
+      </c>
+      <c r="O1899" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1899" s="2">
+        <v>50</v>
+      </c>
+      <c r="S1899" s="2">
+        <v>50</v>
+      </c>
+      <c r="U1899" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1900">
+        <v>51</v>
+      </c>
+      <c r="C1900" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1900" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1900" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1900">
+        <v>0.2</v>
+      </c>
+      <c r="K1900">
+        <v>200</v>
+      </c>
+      <c r="L1900" s="2">
+        <v>40</v>
+      </c>
+      <c r="O1900" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1900" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1900" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1900" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1901">
+        <v>51</v>
+      </c>
+      <c r="C1901" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1901" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1901" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1901" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1901">
+        <v>0.2</v>
+      </c>
+      <c r="K1901">
+        <v>250</v>
+      </c>
+      <c r="L1901" s="2">
+        <v>50</v>
+      </c>
+      <c r="O1901" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1901" s="2">
+        <v>50</v>
+      </c>
+      <c r="S1901" s="2">
+        <v>50</v>
+      </c>
+      <c r="U1901" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1902">
+        <v>51</v>
+      </c>
+      <c r="C1902" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1902" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1902" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1902" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1902">
+        <v>1</v>
+      </c>
+      <c r="K1902">
+        <v>450</v>
+      </c>
+      <c r="L1902" s="2">
+        <v>450</v>
+      </c>
+      <c r="O1902" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1902" s="2">
+        <v>450</v>
+      </c>
+      <c r="S1902" s="2">
+        <v>450</v>
+      </c>
+      <c r="U1902" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1903">
+        <v>51</v>
+      </c>
+      <c r="C1903" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1903" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1903" s="2">
+        <v>0</v>
+      </c>
+      <c r="J1903">
+        <v>1</v>
+      </c>
+      <c r="K1903">
+        <v>100</v>
+      </c>
+      <c r="L1903" s="2">
+        <v>100</v>
+      </c>
+      <c r="O1903" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1903" s="2">
+        <v>100</v>
+      </c>
+      <c r="S1903" s="2">
+        <v>100</v>
+      </c>
+      <c r="U1903" s="2">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
